--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="WTS" sheetId="1" r:id="rId1"/>
+    <sheet name="WTSa" sheetId="1" r:id="rId1"/>
     <sheet name="SETUP" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,21 @@
     <author>Engelbert</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>IDADE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>INICIO</t>
   </si>
@@ -75,12 +89,6 @@
     <t>% PERNA</t>
   </si>
   <si>
-    <t>PATRIMÔNIO</t>
-  </si>
-  <si>
-    <t>IDADE</t>
-  </si>
-  <si>
     <t>BASE RV</t>
   </si>
   <si>
@@ -96,15 +104,6 @@
     <t>% STOP</t>
   </si>
   <si>
-    <t>% TARGET</t>
-  </si>
-  <si>
-    <t>% VOLAT</t>
-  </si>
-  <si>
-    <t>RECUO/REPIQUE</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
@@ -151,6 +150,39 @@
   </si>
   <si>
     <t>% IN</t>
+  </si>
+  <si>
+    <t>% 85</t>
+  </si>
+  <si>
+    <t>% TGT</t>
+  </si>
+  <si>
+    <t>ATIVO</t>
+  </si>
+  <si>
+    <t>PDGR3</t>
+  </si>
+  <si>
+    <t>BISA3</t>
+  </si>
+  <si>
+    <t>RETORNO</t>
+  </si>
+  <si>
+    <t>RSID3</t>
+  </si>
+  <si>
+    <t>GFSA3</t>
+  </si>
+  <si>
+    <t>PATRIM.</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>% VOL</t>
   </si>
 </sst>
 </file>
@@ -160,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +229,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +265,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -234,13 +279,60 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -455,6 +547,147 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -473,95 +706,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -686,58 +830,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -796,11 +888,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:AC3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AE6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:AE6">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
-    <filterColumn colId="4"/>
+    <filterColumn colId="2"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
@@ -825,76 +917,82 @@
     <filterColumn colId="26"/>
     <filterColumn colId="27"/>
     <filterColumn colId="28"/>
+    <filterColumn colId="29"/>
+    <filterColumn colId="30"/>
   </autoFilter>
-  <tableColumns count="29">
-    <tableColumn id="5" name="PATRIMÔNIO" dataDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="IDADE" dataDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="FIM" dataDxfId="22" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="21" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="20" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TARGET" dataDxfId="19" dataCellStyle="Porcentagem"/>
-    <tableColumn id="12" name="% VOLAT" dataDxfId="18" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="14" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="11" dataCellStyle="Porcentagem">
+  <tableColumns count="31">
+    <tableColumn id="31" name="ATIVO" dataDxfId="0"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="30" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="29" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="FIM" dataDxfId="27" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="26" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="25" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="24" dataCellStyle="Porcentagem"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="23" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="22" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="21" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="13" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIMÔNIO] * (1 - [IDADE] / 100)</calculatedColumnFormula>
+    <tableColumn id="7" name="BASE RV" dataDxfId="20" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="23" dataCellStyle="Moeda">
+    <tableColumn id="8" name="RISCO" dataDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="28" dataCellStyle="Moeda">
+    <tableColumn id="3" name="PERNA" dataDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="27" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="% PERNA" dataDxfId="17" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="RECUO/REPIQUE" dataDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="15" name="RETORNO" dataDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([RECUO/REPIQUE] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
+    <tableColumn id="16" name="START" dataDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="15">
+    <tableColumn id="17" name="STOP" dataDxfId="14">
       <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="12">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOLAT] / 10 * 1.5 * [PER]), (1 - [% VOLAT] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="13">
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="10">
-      <calculatedColumnFormula>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TARGET] * 10), (1 + ABS([% PERNA]) * [% TARGET] * 10)), 2)</calculatedColumnFormula>
+    <tableColumn id="20" name="TGT" dataDxfId="12">
+      <calculatedColumnFormula>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="9">
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="11">
       <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="8">
+    <tableColumn id="22" name="QTDE" dataDxfId="10">
       <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="7">
+    <tableColumn id="23" name="VOLUME" dataDxfId="9">
       <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="6">
+    <tableColumn id="24" name="PERDA" dataDxfId="8">
       <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="3">
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="5">
       <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="1">
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="3">
       <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="30" name="RISCO:1" dataDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1186,352 +1284,723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="11" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="11" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="U1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="6" t="s">
+      <c r="B2" s="2">
+        <v>4800</v>
+      </c>
+      <c r="C2" s="6">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="2">
-        <v>4800</v>
-      </c>
-      <c r="B2" s="6">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>5.17</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>2.87</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.97489999999999999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>0.5</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K2" s="2">
-        <f>[PATRIMÔNIO] * (1 - [IDADE] / 100)</f>
+      <c r="L2" s="2">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <f>[FIM] / [INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="P2" s="2">
-        <f>TRUNC([RECUO/REPIQUE] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+      <c r="Q2" s="2">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
-      <c r="R2" s="2">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOLAT] / 10 * 1.5 * [PER]), (1 - [% VOLAT] / 10 * 1.5 * [PER]))</f>
+      <c r="S2" s="2">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.4662858999999995</v>
       </c>
-      <c r="S2" s="2">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TARGET] * 10), (1 + ABS([% PERNA]) * [% TARGET] * 10)), 2)</f>
+      <c r="T2" s="2">
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
         <v>1.84</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
-      <c r="V2" s="12">
+      <c r="W2" s="12">
         <f>[QTDE] * [START]</f>
         <v>4059.9999999999995</v>
       </c>
-      <c r="W2" s="12">
+      <c r="X2" s="12">
         <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>70.000000000000284</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <f>[QTDE] / 2</f>
         <v>500</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>500</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="AA2" s="12">
         <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
         <v>296.85705000000007</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <f>[QTDE] - [QTDE PAR]</f>
         <v>500</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AC2" s="12">
         <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
         <v>1406.8570499999998</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AD2" s="5">
         <f>[LUCRO ALVO] / [PERDA]</f>
         <v>20.097957857142774</v>
       </c>
+      <c r="AE2" s="2">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>2.173</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="2">
+    <row r="3" spans="1:31">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
         <v>4800</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C3" s="6">
         <v>26</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>5.17</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>2.87</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>2E-3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.97489999999999999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>0.6</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K3" s="2">
-        <f>[PATRIMÔNIO] * (1 - [IDADE] / 100)</f>
+      <c r="L3" s="2">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <f>[FIM] / [INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>4.25</v>
       </c>
-      <c r="P3" s="2">
-        <f>TRUNC([RECUO/REPIQUE] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+      <c r="Q3" s="2">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>4.29</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>4.32</v>
       </c>
-      <c r="R3" s="2">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOLAT] / 10 * 1.5 * [PER]), (1 - [% VOLAT] / 10 * 1.5 * [PER]))</f>
+      <c r="S3" s="2">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.66265185</v>
       </c>
-      <c r="S3" s="2">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TARGET] * 10), (1 + ABS([% PERNA]) * [% TARGET] * 10)), 2)</f>
+      <c r="T3" s="2">
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
         <v>2.0299999999999998</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>2367</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
-      <c r="V3" s="12">
+      <c r="W3" s="12">
         <f>[QTDE] * [START]</f>
         <v>9867</v>
       </c>
-      <c r="W3" s="12">
+      <c r="X3" s="12">
         <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>69.000000000000568</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <f>[QTDE] / 2</f>
         <v>1150</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Z3" s="6">
         <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>1200</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="AA3" s="12">
         <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
         <v>752.81777999999997</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
         <f>[QTDE] - [QTDE PAR]</f>
         <v>1100</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AC3" s="12">
         <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
         <v>3238.8177800000003</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AD3" s="5">
         <f>[LUCRO ALVO] / [PERDA]</f>
         <v>46.939388115941647</v>
+      </c>
+      <c r="AE3" s="13">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>2.3689999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="14">
+        <v>5042.87</v>
+      </c>
+      <c r="C4" s="15">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14">
+        <v>5.47</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3.39</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="K4" s="18">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="14">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <v>3731.7237999999998</v>
+      </c>
+      <c r="M4" s="14">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>74.634475999999992</v>
+      </c>
+      <c r="N4" s="14">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>2.0799999999999996</v>
+      </c>
+      <c r="O4" s="16">
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.38025594149908593</v>
+      </c>
+      <c r="P4" s="19">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>4.0763999999999996</v>
+      </c>
+      <c r="Q4" s="19">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="R4" s="20">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="S4" s="20">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>3.6204990000000001</v>
+      </c>
+      <c r="T4" s="20">
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="U4" s="21">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>2487</v>
+      </c>
+      <c r="V4" s="21">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>2400</v>
+      </c>
+      <c r="W4" s="20">
+        <f>[QTDE] * [START]</f>
+        <v>9864</v>
+      </c>
+      <c r="X4" s="20">
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <v>71.999999999998465</v>
+      </c>
+      <c r="Y4" s="15">
+        <f>[QTDE] / 2</f>
+        <v>1200</v>
+      </c>
+      <c r="Z4" s="15">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>1200</v>
+      </c>
+      <c r="AA4" s="20">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>587.40120000000024</v>
+      </c>
+      <c r="AB4" s="15">
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>1200</v>
+      </c>
+      <c r="AC4" s="20">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>3035.4012000000007</v>
+      </c>
+      <c r="AD4" s="22">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>42.158350000000908</v>
+      </c>
+      <c r="AE4" s="19">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>2.3759999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14">
+        <v>5042.87</v>
+      </c>
+      <c r="C5" s="15">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5.07</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="K5" s="18">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <v>3731.7237999999998</v>
+      </c>
+      <c r="M5" s="14">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>74.634475999999992</v>
+      </c>
+      <c r="N5" s="14">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>3.629999999999999</v>
+      </c>
+      <c r="O5" s="16">
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.41724137931034477</v>
+      </c>
+      <c r="P5" s="19">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>6.2679</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>6.33</v>
+      </c>
+      <c r="R5" s="20">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>6.38</v>
+      </c>
+      <c r="S5" s="20">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>5.6239518000000004</v>
+      </c>
+      <c r="T5" s="20">
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <v>2.76</v>
+      </c>
+      <c r="U5" s="21">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>1492</v>
+      </c>
+      <c r="V5" s="21">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>1400</v>
+      </c>
+      <c r="W5" s="20">
+        <f>[QTDE] * [START]</f>
+        <v>8862</v>
+      </c>
+      <c r="X5" s="20">
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <v>69.999999999999744</v>
+      </c>
+      <c r="Y5" s="15">
+        <f>[QTDE] / 2</f>
+        <v>700</v>
+      </c>
+      <c r="Z5" s="15">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>700</v>
+      </c>
+      <c r="AA5" s="20">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>494.23373999999978</v>
+      </c>
+      <c r="AB5" s="15">
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>700</v>
+      </c>
+      <c r="AC5" s="20">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>2993.2337399999997</v>
+      </c>
+      <c r="AD5" s="22">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>42.760482000000152</v>
+      </c>
+      <c r="AE5" s="19">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>3.2955000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5042.87</v>
+      </c>
+      <c r="C6" s="15">
+        <v>26</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4.03</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="K6" s="18">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="14">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <v>3731.7237999999998</v>
+      </c>
+      <c r="M6" s="14">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>74.634475999999992</v>
+      </c>
+      <c r="N6" s="14">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>1.5300000000000002</v>
+      </c>
+      <c r="O6" s="16">
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.3796526054590571</v>
+      </c>
+      <c r="P6" s="19">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>3.0049000000000001</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>3.03</v>
+      </c>
+      <c r="R6" s="20">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>3.06</v>
+      </c>
+      <c r="S6" s="20">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>2.8736519999999999</v>
+      </c>
+      <c r="T6" s="20">
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <v>1.53</v>
+      </c>
+      <c r="U6" s="21">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>2487</v>
+      </c>
+      <c r="V6" s="21">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>2400</v>
+      </c>
+      <c r="W6" s="20">
+        <f>[QTDE] * [START]</f>
+        <v>7271.9999999999991</v>
+      </c>
+      <c r="X6" s="20">
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <v>72.000000000000597</v>
+      </c>
+      <c r="Y6" s="15">
+        <f>[QTDE] / 2</f>
+        <v>1200</v>
+      </c>
+      <c r="Z6" s="15">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>1200</v>
+      </c>
+      <c r="AA6" s="20">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>187.61759999999992</v>
+      </c>
+      <c r="AB6" s="15">
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>1200</v>
+      </c>
+      <c r="AC6" s="20">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>1987.6175999999996</v>
+      </c>
+      <c r="AD6" s="22">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>27.605799999999764</v>
+      </c>
+      <c r="AE6" s="19">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>1.7550000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1561,10 +2030,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WTSa" sheetId="1" r:id="rId1"/>
-    <sheet name="SETUP" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="WTS" sheetId="3" r:id="rId2"/>
+    <sheet name="SETUP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>IDADE</t>
         </r>
@@ -74,8 +74,50 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Engelbert</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IDADE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PERÍODO:
+1 = DIARIO
+2 = SEMANAL
+3 = MENSAL
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>INICIO</t>
   </si>
@@ -183,16 +225,28 @@
   </si>
   <si>
     <t>% VOL</t>
+  </si>
+  <si>
+    <t>MEIO</t>
+  </si>
+  <si>
+    <t>CDL L</t>
+  </si>
+  <si>
+    <t>CDL H</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,14 +287,8 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,31 +310,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,41 +345,147 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -367,7 +521,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -403,7 +557,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -457,25 +611,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -511,6 +665,93 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -529,96 +770,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -671,23 +822,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -723,6 +857,345 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -741,6 +1214,92 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -795,6 +1354,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -830,6 +1407,23 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -884,115 +1478,168 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AE6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:AE6">
-    <filterColumn colId="0"/>
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
-    <filterColumn colId="11"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-    <filterColumn colId="14"/>
-    <filterColumn colId="15"/>
-    <filterColumn colId="16"/>
-    <filterColumn colId="17"/>
-    <filterColumn colId="18"/>
-    <filterColumn colId="19"/>
-    <filterColumn colId="20"/>
-    <filterColumn colId="21"/>
-    <filterColumn colId="22"/>
-    <filterColumn colId="23"/>
-    <filterColumn colId="24"/>
-    <filterColumn colId="25"/>
-    <filterColumn colId="26"/>
-    <filterColumn colId="27"/>
-    <filterColumn colId="28"/>
-    <filterColumn colId="29"/>
-    <filterColumn colId="30"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AE6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:AE6"/>
   <tableColumns count="31">
-    <tableColumn id="31" name="ATIVO" dataDxfId="0"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="30" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="29" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="28" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="FIM" dataDxfId="27" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="26" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="25" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TGT" dataDxfId="24" dataCellStyle="Porcentagem"/>
+    <tableColumn id="31" name="ATIVO" dataDxfId="61"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="60" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="59" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="58" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="FIM" dataDxfId="57" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="56" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="55" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="54" dataCellStyle="Porcentagem"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="53" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="52" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="51" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="BASE RV" dataDxfId="50" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="49" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="48" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="47" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="RETORNO" dataDxfId="46" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="45" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="44">
+      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="43">
+      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="42">
+      <calculatedColumnFormula>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="41">
+      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="40">
+      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="39">
+      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="38">
+      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="37" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="36" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="35">
+      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="34" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="33">
+      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="32" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="31" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:AC3"/>
+  <tableColumns count="29">
+    <tableColumn id="31" name="ATIVO" dataDxfId="28"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="27" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="5" dataCellStyle="Moeda"/>
     <tableColumn id="12" name="% VOL" dataDxfId="23" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="22" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="21" dataCellStyle="Porcentagem">
+    <tableColumn id="19" name="PER" dataDxfId="22" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="20" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="18" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="17" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="RETORNO" dataDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="15" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="14">
-      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="13">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="12">
-      <calculatedColumnFormula>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="11">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="10">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="9">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="8">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="5">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="4" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="3">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="7" name="BASE RV" dataDxfId="21" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="20" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="18" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="2">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="17">
+      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="1">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="0">
+      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="16">
+      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="15">
+      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="14">
+      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="13" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="12" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="11">
+      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="10" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="9">
+      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1074,6 +1721,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1108,6 +1756,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1283,17 +1932,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1328,7 +1977,7 @@
     <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +2072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
@@ -1459,87 +2108,87 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="M2" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="N2" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="O2" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
       <c r="P2" s="2">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
       <c r="Q2" s="2">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
       <c r="R2" s="2">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
       <c r="S2" s="2">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.4662858999999995</v>
       </c>
       <c r="T2" s="2">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
         <v>1.84</v>
       </c>
       <c r="U2" s="6">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="V2" s="6">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="W2" s="12">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>4059.9999999999995</v>
       </c>
       <c r="X2" s="12">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
         <v>70.000000000000284</v>
       </c>
       <c r="Y2" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>500</v>
       </c>
       <c r="Z2" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="AA2" s="12">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
         <v>296.85705000000007</v>
       </c>
       <c r="AB2" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>500</v>
       </c>
       <c r="AC2" s="12">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
         <v>1406.8570499999998</v>
       </c>
       <c r="AD2" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>20.097957857142774</v>
       </c>
       <c r="AE2" s="2">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
@@ -1575,87 +2224,87 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="M3" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="N3" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="O3" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
       <c r="P3" s="2">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>4.25</v>
       </c>
       <c r="Q3" s="2">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>4.29</v>
       </c>
       <c r="R3" s="2">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>4.32</v>
       </c>
       <c r="S3" s="2">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.66265185</v>
       </c>
       <c r="T3" s="2">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
         <v>2.0299999999999998</v>
       </c>
       <c r="U3" s="6">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>2367</v>
       </c>
       <c r="V3" s="6">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
       <c r="W3" s="12">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>9867</v>
       </c>
       <c r="X3" s="12">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
         <v>69.000000000000568</v>
       </c>
       <c r="Y3" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>1150</v>
       </c>
       <c r="Z3" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>1200</v>
       </c>
       <c r="AA3" s="12">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
         <v>752.81777999999997</v>
       </c>
       <c r="AB3" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>1100</v>
       </c>
       <c r="AC3" s="12">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
         <v>3238.8177800000003</v>
       </c>
       <c r="AD3" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>46.939388115941647</v>
       </c>
       <c r="AE3" s="13">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.3689999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
@@ -1691,87 +2340,87 @@
         <v>1</v>
       </c>
       <c r="L4" s="14">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3731.7237999999998</v>
       </c>
       <c r="M4" s="14">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>74.634475999999992</v>
       </c>
       <c r="N4" s="14">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="O4" s="16">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.38025594149908593</v>
       </c>
       <c r="P4" s="19">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>4.0763999999999996</v>
       </c>
       <c r="Q4" s="19">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>4.1100000000000003</v>
       </c>
       <c r="R4" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>4.1399999999999997</v>
       </c>
       <c r="S4" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.6204990000000001</v>
       </c>
       <c r="T4" s="20">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="U4" s="21">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>2487</v>
       </c>
       <c r="V4" s="21">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>2400</v>
       </c>
       <c r="W4" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>9864</v>
       </c>
       <c r="X4" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
         <v>71.999999999998465</v>
       </c>
       <c r="Y4" s="15">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>1200</v>
       </c>
       <c r="Z4" s="15">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>1200</v>
       </c>
       <c r="AA4" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
         <v>587.40120000000024</v>
       </c>
       <c r="AB4" s="15">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>1200</v>
       </c>
       <c r="AC4" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
         <v>3035.4012000000007</v>
       </c>
       <c r="AD4" s="22">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>42.158350000000908</v>
       </c>
       <c r="AE4" s="19">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.3759999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -1807,87 +2456,87 @@
         <v>1</v>
       </c>
       <c r="L5" s="14">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3731.7237999999998</v>
       </c>
       <c r="M5" s="14">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>74.634475999999992</v>
       </c>
       <c r="N5" s="14">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>3.629999999999999</v>
       </c>
       <c r="O5" s="16">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.41724137931034477</v>
       </c>
       <c r="P5" s="19">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>6.2679</v>
       </c>
       <c r="Q5" s="19">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>6.33</v>
       </c>
       <c r="R5" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>6.38</v>
       </c>
       <c r="S5" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>5.6239518000000004</v>
       </c>
       <c r="T5" s="20">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
         <v>2.76</v>
       </c>
       <c r="U5" s="21">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1492</v>
       </c>
       <c r="V5" s="21">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1400</v>
       </c>
       <c r="W5" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>8862</v>
       </c>
       <c r="X5" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
         <v>69.999999999999744</v>
       </c>
       <c r="Y5" s="15">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>700</v>
       </c>
       <c r="Z5" s="15">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>700</v>
       </c>
       <c r="AA5" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
         <v>494.23373999999978</v>
       </c>
       <c r="AB5" s="15">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>700</v>
       </c>
       <c r="AC5" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
         <v>2993.2337399999997</v>
       </c>
       <c r="AD5" s="22">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>42.760482000000152</v>
       </c>
       <c r="AE5" s="19">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>3.2955000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>32</v>
       </c>
@@ -1923,83 +2572,83 @@
         <v>1</v>
       </c>
       <c r="L6" s="14">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3731.7237999999998</v>
       </c>
       <c r="M6" s="14">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>74.634475999999992</v>
       </c>
       <c r="N6" s="14">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.5300000000000002</v>
       </c>
       <c r="O6" s="16">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.3796526054590571</v>
       </c>
       <c r="P6" s="19">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.0049000000000001</v>
       </c>
       <c r="Q6" s="19">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.03</v>
       </c>
       <c r="R6" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.06</v>
       </c>
       <c r="S6" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.8736519999999999</v>
       </c>
       <c r="T6" s="20">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
         <v>1.53</v>
       </c>
       <c r="U6" s="21">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>2487</v>
       </c>
       <c r="V6" s="21">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>2400</v>
       </c>
       <c r="W6" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>7271.9999999999991</v>
       </c>
       <c r="X6" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
         <v>72.000000000000597</v>
       </c>
       <c r="Y6" s="15">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>1200</v>
       </c>
       <c r="Z6" s="15">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>1200</v>
       </c>
       <c r="AA6" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
         <v>187.61759999999992</v>
       </c>
       <c r="AB6" s="15">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>1200</v>
       </c>
       <c r="AC6" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
         <v>1987.6175999999996</v>
       </c>
       <c r="AD6" s="22">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>27.605799999999764</v>
       </c>
       <c r="AE6" s="19">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>1.7550000000000001</v>
       </c>
     </row>
@@ -2014,21 +2663,377 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" style="9" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5173.08</v>
+      </c>
+      <c r="C2" s="6">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.87</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="J2" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <v>3828.0791999999997</v>
+      </c>
+      <c r="L2" s="2">
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>76.561583999999996</v>
+      </c>
+      <c r="M2" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <v>3.629999999999999</v>
+      </c>
+      <c r="N2" s="4">
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <v>-0.41724137931034477</v>
+      </c>
+      <c r="O2" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="P2" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <v>5.1099999999999994</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <v>4.1407602500000005</v>
+      </c>
+      <c r="R2" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+        <v>2.6100000000000012</v>
+      </c>
+      <c r="S2" s="6">
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+        <v>348</v>
+      </c>
+      <c r="T2" s="6">
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="U2" s="12">
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
+        <v>1455.0000000000002</v>
+      </c>
+      <c r="V2" s="12">
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+        <v>77.999999999999673</v>
+      </c>
+      <c r="W2" s="6">
+        <f>Tabela13[QTDE] / 2</f>
+        <v>150</v>
+      </c>
+      <c r="X2" s="6">
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+        <v>200</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
+        <v>141.84795000000003</v>
+      </c>
+      <c r="Z2" s="6">
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+        <v>100</v>
+      </c>
+      <c r="AA2" s="12">
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
+        <v>365.84794999999997</v>
+      </c>
+      <c r="AB2" s="5">
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
+        <v>4.6903583333333527</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <v>2.9460000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5173.08</v>
+      </c>
+      <c r="C3" s="6">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>29.37</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22.56</v>
+      </c>
+      <c r="F3" s="2">
+        <v>22.56</v>
+      </c>
+      <c r="G3" s="2">
+        <v>19.53</v>
+      </c>
+      <c r="H3" s="2">
+        <v>19.28</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="J3" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <v>3828.0791999999997</v>
+      </c>
+      <c r="L3" s="2">
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>76.561583999999996</v>
+      </c>
+      <c r="M3" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <v>6.8100000000000023</v>
+      </c>
+      <c r="N3" s="4">
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <v>-0.23186925434116457</v>
+      </c>
+      <c r="O3" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <v>19.260000000000002</v>
+      </c>
+      <c r="P3" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <v>19.55</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <v>18.040842000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+        <v>15.749999999999996</v>
+      </c>
+      <c r="S3" s="6">
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+        <v>306</v>
+      </c>
+      <c r="T3" s="6">
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="U3" s="12">
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
+        <v>5778.0000000000009</v>
+      </c>
+      <c r="V3" s="12">
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+        <v>86.999999999999744</v>
+      </c>
+      <c r="W3" s="6">
+        <f>Tabela13[QTDE] / 2</f>
+        <v>150</v>
+      </c>
+      <c r="X3" s="6">
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+        <v>200</v>
+      </c>
+      <c r="Y3" s="12">
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
+        <v>243.83160000000004</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+        <v>100</v>
+      </c>
+      <c r="AA3" s="12">
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
+        <v>594.83160000000055</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
+        <v>6.8371448275862337</v>
+      </c>
+      <c r="AC3" s="13">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <v>16.276499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -2036,67 +3041,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
       <c r="B2" s="4">
         <v>0.02</v>
       </c>
+      <c r="C2" s="2">
+        <f>A2*B2</f>
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
       <c r="B3" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C7" si="0">A3*B3</f>
+        <v>300</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
       <c r="B4" s="4">
         <v>0.01</v>
       </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
       <c r="B5" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
       <c r="B6" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
       <c r="B7" s="4">
         <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WTSa" sheetId="1" r:id="rId1"/>
     <sheet name="WTS" sheetId="3" r:id="rId2"/>
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>INICIO</t>
   </si>
@@ -237,6 +238,36 @@
   </si>
   <si>
     <t>BBAS3</t>
+  </si>
+  <si>
+    <t>LLXL3</t>
+  </si>
+  <si>
+    <t>INFLEXAO MAX</t>
+  </si>
+  <si>
+    <t>% INFLEXÃO</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>DIF 33%</t>
+  </si>
+  <si>
+    <t>DIF 60%</t>
+  </si>
+  <si>
+    <t>DIF 50%</t>
+  </si>
+  <si>
+    <t>PERNA 10%</t>
   </si>
 </sst>
 </file>
@@ -313,7 +344,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -339,13 +370,402 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -398,6 +818,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -434,40 +890,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -503,6 +944,354 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -521,24 +1310,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -557,24 +1328,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -594,447 +1347,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1487,80 +1799,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AE6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A1:AE6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AE10" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:AE10"/>
   <tableColumns count="31">
-    <tableColumn id="31" name="ATIVO" dataDxfId="61"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="60" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="59" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="58" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="FIM" dataDxfId="57" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="56" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="55" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TGT" dataDxfId="54" dataCellStyle="Porcentagem"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="53" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="52" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="51" dataCellStyle="Porcentagem">
+    <tableColumn id="31" name="ATIVO" dataDxfId="77"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="76" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="75" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="74" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="FIM" dataDxfId="73" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="72" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="71" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="70" dataCellStyle="Porcentagem"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="69" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="68" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="67" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="50" dataCellStyle="Moeda">
+    <tableColumn id="7" name="BASE RV" dataDxfId="66" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="49" dataCellStyle="Moeda">
+    <tableColumn id="8" name="RISCO" dataDxfId="65" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="48" dataCellStyle="Moeda">
+    <tableColumn id="3" name="PERNA" dataDxfId="64" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="47" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="% PERNA" dataDxfId="63" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="RETORNO" dataDxfId="46" dataCellStyle="Moeda">
+    <tableColumn id="15" name="RETORNO" dataDxfId="62" dataCellStyle="Moeda">
       <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="45" dataCellStyle="Moeda">
+    <tableColumn id="16" name="START" dataDxfId="61" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="44">
+    <tableColumn id="17" name="STOP" dataDxfId="60">
       <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="43">
+    <tableColumn id="18" name="PARCIAL" dataDxfId="59">
       <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="42">
+    <tableColumn id="20" name="TGT" dataDxfId="58">
       <calculatedColumnFormula>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="41">
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="57">
       <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="40">
+    <tableColumn id="22" name="QTDE" dataDxfId="56">
       <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="39">
+    <tableColumn id="23" name="VOLUME" dataDxfId="55">
       <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="38">
-      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="37" dataCellStyle="Moeda">
+    <tableColumn id="24" name="PERDA" dataDxfId="2">
+      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="54" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="36" dataCellStyle="Moeda">
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="53" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="35">
-      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="34" dataCellStyle="Moeda">
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="1">
+      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="52" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="33">
-      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="32" dataCellStyle="Moeda">
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="0">
+      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="51" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="31" dataCellStyle="Moeda">
+    <tableColumn id="14" name="% 85" dataDxfId="50" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1569,77 +1881,120 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="28"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="27" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="23" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="22" dataCellStyle="Porcentagem">
+    <tableColumn id="31" name="ATIVO" dataDxfId="47"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="46" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="45" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="44" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="39" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="38" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="7" name="BASE RV" dataDxfId="37" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="8" name="RISCO" dataDxfId="36" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="3" name="PERNA" dataDxfId="35" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="18" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="% PERNA" dataDxfId="34" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="16" name="START" dataDxfId="33" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="2">
+    <tableColumn id="17" name="STOP" dataDxfId="32">
       <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="17">
+    <tableColumn id="18" name="PARCIAL" dataDxfId="31">
       <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="1">
+    <tableColumn id="20" name="TGT" dataDxfId="30">
       <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="0">
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="29">
       <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="16">
+    <tableColumn id="22" name="QTDE" dataDxfId="28">
       <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="15">
+    <tableColumn id="23" name="VOLUME" dataDxfId="27">
       <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="14">
+    <tableColumn id="24" name="PERDA" dataDxfId="26">
       <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="25" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="24" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="11">
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="23">
       <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="9">
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="21">
       <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="30" name="RISCO:1" dataDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="14" name="% 85" dataDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+  <autoFilter ref="A1:N5"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="ATIVO" dataDxfId="18"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="17" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="16" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="11" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="33%" dataDxfId="12" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="50%" dataDxfId="10" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="60%" dataDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="DIF 33%" dataDxfId="8" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="DIF 50%" dataDxfId="7" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="DIF 60%" dataDxfId="6" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="% PERNA" dataDxfId="5" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="3" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="4" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1933,13 +2288,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1966,8 +2321,8 @@
     <col min="20" max="20" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="11" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="10.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
@@ -2156,8 +2511,8 @@
         <v>4059.9999999999995</v>
       </c>
       <c r="X2" s="12">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
-        <v>70.000000000000284</v>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>100.00000000000028</v>
       </c>
       <c r="Y2" s="6">
         <f>Tabela1[QTDE] / 2</f>
@@ -2168,20 +2523,20 @@
         <v>500</v>
       </c>
       <c r="AA2" s="12">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
-        <v>296.85705000000007</v>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>266.85705000000007</v>
       </c>
       <c r="AB2" s="6">
         <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>500</v>
       </c>
       <c r="AC2" s="12">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
-        <v>1406.8570499999998</v>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>1361.8570499999998</v>
       </c>
       <c r="AD2" s="5">
         <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>20.097957857142774</v>
+        <v>13.61857049999996</v>
       </c>
       <c r="AE2" s="2">
         <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
@@ -2272,8 +2627,8 @@
         <v>9867</v>
       </c>
       <c r="X3" s="12">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
-        <v>69.000000000000568</v>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>99.000000000000568</v>
       </c>
       <c r="Y3" s="6">
         <f>Tabela1[QTDE] / 2</f>
@@ -2284,20 +2639,20 @@
         <v>1200</v>
       </c>
       <c r="AA3" s="12">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
-        <v>752.81777999999997</v>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>722.81777999999997</v>
       </c>
       <c r="AB3" s="6">
         <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>1100</v>
       </c>
       <c r="AC3" s="12">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
-        <v>3238.8177800000003</v>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>3193.8177800000003</v>
       </c>
       <c r="AD3" s="5">
         <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>46.939388115941647</v>
+        <v>32.260785656565474</v>
       </c>
       <c r="AE3" s="13">
         <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
@@ -2388,8 +2743,8 @@
         <v>9864</v>
       </c>
       <c r="X4" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
-        <v>71.999999999998465</v>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>101.99999999999847</v>
       </c>
       <c r="Y4" s="15">
         <f>Tabela1[QTDE] / 2</f>
@@ -2400,20 +2755,20 @@
         <v>1200</v>
       </c>
       <c r="AA4" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
-        <v>587.40120000000024</v>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>557.40120000000024</v>
       </c>
       <c r="AB4" s="15">
         <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>1200</v>
       </c>
       <c r="AC4" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
-        <v>3035.4012000000007</v>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>2990.4012000000007</v>
       </c>
       <c r="AD4" s="22">
         <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>42.158350000000908</v>
+        <v>29.317658823529861</v>
       </c>
       <c r="AE4" s="19">
         <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
@@ -2504,8 +2859,8 @@
         <v>8862</v>
       </c>
       <c r="X5" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
-        <v>69.999999999999744</v>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>99.999999999999744</v>
       </c>
       <c r="Y5" s="15">
         <f>Tabela1[QTDE] / 2</f>
@@ -2516,20 +2871,20 @@
         <v>700</v>
       </c>
       <c r="AA5" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
-        <v>494.23373999999978</v>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>464.23373999999978</v>
       </c>
       <c r="AB5" s="15">
         <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>700</v>
       </c>
       <c r="AC5" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
-        <v>2993.2337399999997</v>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>2948.2337399999997</v>
       </c>
       <c r="AD5" s="22">
         <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>42.760482000000152</v>
+        <v>29.482337400000073</v>
       </c>
       <c r="AE5" s="19">
         <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
@@ -2620,8 +2975,8 @@
         <v>7271.9999999999991</v>
       </c>
       <c r="X6" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE]</f>
-        <v>72.000000000000597</v>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>102.0000000000006</v>
       </c>
       <c r="Y6" s="15">
         <f>Tabela1[QTDE] / 2</f>
@@ -2632,24 +2987,464 @@
         <v>1200</v>
       </c>
       <c r="AA6" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR]</f>
-        <v>187.61759999999992</v>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>157.61759999999992</v>
       </c>
       <c r="AB6" s="15">
         <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>1200</v>
       </c>
       <c r="AC6" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR]</f>
-        <v>1987.6175999999996</v>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>1942.6175999999996</v>
       </c>
       <c r="AD6" s="22">
         <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>27.605799999999764</v>
+        <v>19.04527058823518</v>
       </c>
       <c r="AE6" s="19">
         <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>1.7550000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C7" s="15">
+        <v>26</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2.54</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2.08</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G7" s="16">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <v>3552</v>
+      </c>
+      <c r="M7" s="2">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>71.040000000000006</v>
+      </c>
+      <c r="N7" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="O7" s="4">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <v>-0.18110236220472442</v>
+      </c>
+      <c r="P7" s="12">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <v>2.31</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="R7" s="25">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <v>2.35</v>
+      </c>
+      <c r="S7" s="25">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <v>2.080228</v>
+      </c>
+      <c r="T7" s="25">
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
+        <v>1.89</v>
+      </c>
+      <c r="U7" s="11">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <v>2367</v>
+      </c>
+      <c r="V7" s="11">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <v>2300</v>
+      </c>
+      <c r="W7" s="25">
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>5336</v>
+      </c>
+      <c r="X7" s="25">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>99.000000000000568</v>
+      </c>
+      <c r="Y7" s="6">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>1150</v>
+      </c>
+      <c r="Z7" s="6">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>1200</v>
+      </c>
+      <c r="AA7" s="25">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>257.72639999999984</v>
+      </c>
+      <c r="AB7" s="6">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>1100</v>
+      </c>
+      <c r="AC7" s="25">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>715.72639999999978</v>
+      </c>
+      <c r="AD7" s="5">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>7.229559595959552</v>
+      </c>
+      <c r="AE7" s="12">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <v>1.9544999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C8" s="15">
+        <v>26</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4.03</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2.09</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <v>3552</v>
+      </c>
+      <c r="M8" s="2">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>71.040000000000006</v>
+      </c>
+      <c r="N8" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="O8" s="4">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <v>-0.48138957816377181</v>
+      </c>
+      <c r="P8" s="12">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <v>3.06</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <v>3.09</v>
+      </c>
+      <c r="R8" s="25">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <v>3.16</v>
+      </c>
+      <c r="S8" s="25">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <v>2.9305559999999997</v>
+      </c>
+      <c r="T8" s="25">
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
+        <v>1.22</v>
+      </c>
+      <c r="U8" s="11">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <v>1014</v>
+      </c>
+      <c r="V8" s="11">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <v>1000</v>
+      </c>
+      <c r="W8" s="25">
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>3090</v>
+      </c>
+      <c r="X8" s="25">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>100.00000000000028</v>
+      </c>
+      <c r="Y8" s="6">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>500</v>
+      </c>
+      <c r="Z8" s="6">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>500</v>
+      </c>
+      <c r="AA8" s="25">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>49.722000000000065</v>
+      </c>
+      <c r="AB8" s="6">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>500</v>
+      </c>
+      <c r="AC8" s="25">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>969.72199999999998</v>
+      </c>
+      <c r="AD8" s="5">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>9.6972199999999731</v>
+      </c>
+      <c r="AE8" s="12">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <v>1.5004999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C9" s="15">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4.34</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3.18</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <v>3552</v>
+      </c>
+      <c r="M9" s="2">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>71.040000000000006</v>
+      </c>
+      <c r="N9" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <v>1.1599999999999997</v>
+      </c>
+      <c r="O9" s="4">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <v>-0.26728110599078336</v>
+      </c>
+      <c r="P9" s="12">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <v>3.76</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <v>3.78</v>
+      </c>
+      <c r="R9" s="25">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <v>3.94</v>
+      </c>
+      <c r="S9" s="25">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <v>3.5849519999999999</v>
+      </c>
+      <c r="T9" s="25">
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
+        <v>2.79</v>
+      </c>
+      <c r="U9" s="11">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <v>444</v>
+      </c>
+      <c r="V9" s="11">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <v>400</v>
+      </c>
+      <c r="W9" s="25">
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>1512</v>
+      </c>
+      <c r="X9" s="25">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>94.000000000000057</v>
+      </c>
+      <c r="Y9" s="6">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>200</v>
+      </c>
+      <c r="Z9" s="6">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>200</v>
+      </c>
+      <c r="AA9" s="25">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>9.0095999999999776</v>
+      </c>
+      <c r="AB9" s="6">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>200</v>
+      </c>
+      <c r="AC9" s="25">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>192.00959999999992</v>
+      </c>
+      <c r="AD9" s="5">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>2.0426553191489343</v>
+      </c>
+      <c r="AE9" s="12">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <v>2.9384999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="e">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="12">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12" t="e">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="25" t="e">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" s="25" t="e">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="25" t="e">
+        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="11" t="e">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="11" t="e">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="25" t="e">
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" s="25" t="e">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y10" s="6" t="e">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" s="6" t="e">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" s="25" t="e">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="6" t="e">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC10" s="25" t="e">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD10" s="5" t="e">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE10" s="12" t="e">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +3461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3116,4 +3911,294 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="6.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="8.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="E2" s="2">
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <v>0.46000000000000041</v>
+      </c>
+      <c r="F2" s="2">
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <v>2.5599999999999996</v>
+      </c>
+      <c r="I2" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <v>4.5267489711934283E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <v>1.195219123505975E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <v>-7.812499999999889E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <v>0.16788321167883224</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="array" ref="M2">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</f>
+        <v>1.195219123505975E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <v>7.1193486921877595E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="E3" s="2">
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <v>0.81</v>
+      </c>
+      <c r="F3" s="2">
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <v>2.69</v>
+      </c>
+      <c r="G3" s="2">
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <v>2.83</v>
+      </c>
+      <c r="H3" s="2">
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <v>2.91</v>
+      </c>
+      <c r="I3" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <v>1.858736059479571E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <v>-3.180212014134276E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <v>-5.841924398625431E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <v>0.25077399380804954</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="array" ref="M3">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</f>
+        <v>1.858736059479571E-2</v>
+      </c>
+      <c r="N3" s="4">
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <v>7.4119968791592772E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.34</v>
+      </c>
+      <c r="E4" s="2">
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <v>2.0799999999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <v>4.08</v>
+      </c>
+      <c r="G4" s="2">
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <v>4.43</v>
+      </c>
+      <c r="H4" s="2">
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="I4" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <v>6.3725490196078427E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <v>-2.0316027088036037E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <v>-6.465517241379326E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <v>0.38025594149908593</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="array" ref="M4">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</f>
+        <v>6.3725490196078427E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <v>1.6758578431372548E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <v>3.629999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <v>6.2700000000000005</v>
+      </c>
+      <c r="G5" s="2">
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <v>6.8900000000000006</v>
+      </c>
+      <c r="H5" s="2">
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <v>7.25</v>
+      </c>
+      <c r="I5" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="J5" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="L5" s="4">
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <v>0.41724137931034477</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="array" ref="M5">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="WTSa" sheetId="1" r:id="rId1"/>
     <sheet name="WTS" sheetId="3" r:id="rId2"/>
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
-    <sheet name="Plan1" sheetId="4" r:id="rId4"/>
+    <sheet name="SOMBRA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>INICIO</t>
   </si>
@@ -268,16 +268,22 @@
   </si>
   <si>
     <t>PERNA 10%</t>
+  </si>
+  <si>
+    <t>BTOW3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,13 +327,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,38 +366,52 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -396,60 +435,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -728,7 +713,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -764,7 +749,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -800,7 +785,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -854,25 +839,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -926,61 +911,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1274,7 +1259,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1310,6 +1295,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1328,6 +1331,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1364,7 +1385,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1418,79 +1457,79 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1799,8 +1838,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AE10" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
-  <autoFilter ref="A1:AE10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AE7" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:AE7"/>
   <tableColumns count="31">
     <tableColumn id="31" name="ATIVO" dataDxfId="77"/>
     <tableColumn id="5" name="PATRIM." dataDxfId="76" dataCellStyle="Moeda"/>
@@ -1816,64 +1855,64 @@
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="BASE RV" dataDxfId="66" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="RISCO" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="64" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="63" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="RETORNO" dataDxfId="62" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="61" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="60">
-      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="PARCIAL" dataDxfId="59">
-      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="58">
-      <calculatedColumnFormula>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="57">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE" dataDxfId="56">
-      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="55">
-      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="2">
-      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="54" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="53" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="1">
-      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="52" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="0">
-      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="51" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="50" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="54">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="53" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="52" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="51">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="50" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="49">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="48" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="47" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1881,77 +1920,77 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="47"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="46" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="45" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="44" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="39" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="38" dataCellStyle="Porcentagem">
+    <tableColumn id="31" name="ATIVO" dataDxfId="44"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="37" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="37" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="36" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="35" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="34" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="33" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="32">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="31">
-      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="30">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="29">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="28">
-      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="27">
-      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="26">
-      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="25" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="24" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="23">
-      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="22" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="21">
-      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="20" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="29">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="28">
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="27">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="25">
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="24">
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="23">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1959,42 +1998,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
-  <autoFilter ref="A1:N5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="18"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="17" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="16" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="11" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="12" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="10" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="9" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="8" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="7" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="6" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="ATIVO" dataDxfId="13"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="4" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2076,7 +2115,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2111,7 +2149,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2287,22 +2324,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -2332,8 +2369,8 @@
     <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2427,1024 +2464,700 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:31" s="40" customFormat="1">
+      <c r="A2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="33">
         <v>4800</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="34">
         <v>26</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="33">
         <v>5.17</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="33">
         <v>2.87</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="35">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="35">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="35">
         <v>1.5E-3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="35">
         <v>0.97489999999999999</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="36">
         <v>0.5</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="37">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L2" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+      <c r="L2" s="33">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="M2" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+      <c r="M2" s="33">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="N2" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+      <c r="N2" s="33">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="O2" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+      <c r="O2" s="35">
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
-      <c r="P2" s="2">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+      <c r="P2" s="33">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="Q2" s="2">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+      <c r="Q2" s="33">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
-      <c r="R2" s="2">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+      <c r="R2" s="33">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
-      <c r="S2" s="2">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+      <c r="S2" s="33">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.4662858999999995</v>
       </c>
-      <c r="T2" s="2">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
+      <c r="T2" s="33">
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
         <v>1.84</v>
       </c>
-      <c r="U2" s="6">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+      <c r="U2" s="34">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
-      <c r="V2" s="6">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+      <c r="V2" s="34">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
-      <c r="W2" s="12">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+      <c r="W2" s="38">
+        <f>[QTDE] * [START]</f>
         <v>4059.9999999999995</v>
       </c>
-      <c r="X2" s="12">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+      <c r="X2" s="38">
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>100.00000000000028</v>
       </c>
-      <c r="Y2" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+      <c r="Y2" s="34">
+        <f>[QTDE] / 2</f>
         <v>500</v>
       </c>
-      <c r="Z2" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+      <c r="Z2" s="34">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>500</v>
       </c>
-      <c r="AA2" s="12">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+      <c r="AA2" s="38">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>266.85705000000007</v>
       </c>
-      <c r="AB2" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+      <c r="AB2" s="34">
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>500</v>
       </c>
-      <c r="AC2" s="12">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+      <c r="AC2" s="38">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>1361.8570499999998</v>
       </c>
-      <c r="AD2" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+      <c r="AD2" s="39">
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>13.61857049999996</v>
       </c>
-      <c r="AE2" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+      <c r="AE2" s="33">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:31">
+      <c r="A3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14">
         <v>4800</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="15">
         <v>26</v>
       </c>
-      <c r="D3" s="2">
-        <v>5.17</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="14">
+        <v>2.54</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2.08</v>
+      </c>
+      <c r="F3" s="16">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G3" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="16">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H3" s="16">
         <v>1.5E-3</v>
       </c>
-      <c r="I3" s="4">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.6</v>
+      <c r="I3" s="16">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.5</v>
       </c>
       <c r="K3" s="10">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="M3" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="N3" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>2.2999999999999998</v>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>0.45999999999999996</v>
       </c>
       <c r="O3" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>-0.44487427466150864</v>
-      </c>
-      <c r="P3" s="2">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>4.25</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>4.29</v>
-      </c>
-      <c r="R3" s="2">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>4.32</v>
-      </c>
-      <c r="S3" s="2">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>3.66265185</v>
-      </c>
-      <c r="T3" s="2">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="U3" s="6">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.18110236220472442</v>
+      </c>
+      <c r="P3" s="12">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>2.31</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="R3" s="20">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>2.35</v>
+      </c>
+      <c r="S3" s="20">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>2.080228</v>
+      </c>
+      <c r="T3" s="20">
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <v>1.89</v>
+      </c>
+      <c r="U3" s="11">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>2367</v>
       </c>
-      <c r="V3" s="6">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+      <c r="V3" s="11">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
-      <c r="W3" s="12">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>9867</v>
-      </c>
-      <c r="X3" s="12">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+      <c r="W3" s="20">
+        <f>[QTDE] * [START]</f>
+        <v>5336</v>
+      </c>
+      <c r="X3" s="20">
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>99.000000000000568</v>
       </c>
       <c r="Y3" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>1150</v>
       </c>
       <c r="Z3" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>1200</v>
       </c>
-      <c r="AA3" s="12">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>722.81777999999997</v>
+      <c r="AA3" s="20">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <v>257.72639999999984</v>
       </c>
       <c r="AB3" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>1100</v>
       </c>
-      <c r="AC3" s="12">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>3193.8177800000003</v>
+      <c r="AC3" s="20">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <v>715.72639999999978</v>
       </c>
       <c r="AD3" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>32.260785656565474</v>
-      </c>
-      <c r="AE3" s="13">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>2.3689999999999998</v>
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>7.229559595959552</v>
+      </c>
+      <c r="AE3" s="12">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>1.9544999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>29</v>
+    <row r="4" spans="1:31">
+      <c r="A4" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="14">
-        <v>5042.87</v>
+        <v>4800</v>
       </c>
       <c r="C4" s="15">
         <v>26</v>
       </c>
       <c r="D4" s="14">
-        <v>5.47</v>
+        <v>4.03</v>
       </c>
       <c r="E4" s="14">
-        <v>3.39</v>
+        <v>2.09</v>
       </c>
       <c r="F4" s="16">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G4" s="16">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H4" s="16">
         <v>1.5E-3</v>
       </c>
       <c r="I4" s="16">
-        <v>0.79400000000000004</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J4" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="K4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L4" s="14">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>3731.7237999999998</v>
-      </c>
-      <c r="M4" s="14">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>74.634475999999992</v>
-      </c>
-      <c r="N4" s="14">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>2.0799999999999996</v>
-      </c>
-      <c r="O4" s="16">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>-0.38025594149908593</v>
-      </c>
-      <c r="P4" s="19">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>4.0763999999999996</v>
-      </c>
-      <c r="Q4" s="19">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>4.1100000000000003</v>
+      <c r="L4" s="2">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <v>3552</v>
+      </c>
+      <c r="M4" s="2">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>71.040000000000006</v>
+      </c>
+      <c r="N4" s="2">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="O4" s="4">
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.48138957816377181</v>
+      </c>
+      <c r="P4" s="12">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>3.06</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>3.09</v>
       </c>
       <c r="R4" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>4.1399999999999997</v>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>3.16</v>
       </c>
       <c r="S4" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>3.6204990000000001</v>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>2.9305559999999997</v>
       </c>
       <c r="T4" s="20">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="U4" s="21">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>2487</v>
-      </c>
-      <c r="V4" s="21">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>2400</v>
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <v>1.22</v>
+      </c>
+      <c r="U4" s="11">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>1014</v>
+      </c>
+      <c r="V4" s="11">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>1000</v>
       </c>
       <c r="W4" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>9864</v>
+        <f>[QTDE] * [START]</f>
+        <v>3090</v>
       </c>
       <c r="X4" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>101.99999999999847</v>
-      </c>
-      <c r="Y4" s="15">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>1200</v>
-      </c>
-      <c r="Z4" s="15">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>1200</v>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>100.00000000000028</v>
+      </c>
+      <c r="Y4" s="6">
+        <f>[QTDE] / 2</f>
+        <v>500</v>
+      </c>
+      <c r="Z4" s="6">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>500</v>
       </c>
       <c r="AA4" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>557.40120000000024</v>
-      </c>
-      <c r="AB4" s="15">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>1200</v>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <v>49.722000000000065</v>
+      </c>
+      <c r="AB4" s="6">
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>500</v>
       </c>
       <c r="AC4" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>2990.4012000000007</v>
-      </c>
-      <c r="AD4" s="22">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>29.317658823529861</v>
-      </c>
-      <c r="AE4" s="19">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>2.3759999999999999</v>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <v>969.72199999999998</v>
+      </c>
+      <c r="AD4" s="5">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>9.6972199999999731</v>
+      </c>
+      <c r="AE4" s="12">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>1.5004999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>31</v>
+    <row r="5" spans="1:31">
+      <c r="A5" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="14">
-        <v>5042.87</v>
+        <v>4800</v>
       </c>
       <c r="C5" s="15">
         <v>26</v>
       </c>
       <c r="D5" s="14">
-        <v>8.6999999999999993</v>
+        <v>4.34</v>
       </c>
       <c r="E5" s="14">
-        <v>5.07</v>
+        <v>3.18</v>
       </c>
       <c r="F5" s="16">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G5" s="16">
-        <v>2E-3</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="H5" s="16">
         <v>1.5E-3</v>
       </c>
       <c r="I5" s="16">
-        <v>0.74360000000000004</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J5" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="K5" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L5" s="14">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>3731.7237999999998</v>
-      </c>
-      <c r="M5" s="14">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>74.634475999999992</v>
-      </c>
-      <c r="N5" s="14">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>3.629999999999999</v>
-      </c>
-      <c r="O5" s="16">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>-0.41724137931034477</v>
-      </c>
-      <c r="P5" s="19">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>6.2679</v>
-      </c>
-      <c r="Q5" s="19">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>6.33</v>
+      <c r="L5" s="2">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <v>3552</v>
+      </c>
+      <c r="M5" s="2">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>71.040000000000006</v>
+      </c>
+      <c r="N5" s="2">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>1.1599999999999997</v>
+      </c>
+      <c r="O5" s="4">
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.26728110599078336</v>
+      </c>
+      <c r="P5" s="12">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>3.76</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>3.78</v>
       </c>
       <c r="R5" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>6.38</v>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>3.94</v>
       </c>
       <c r="S5" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>5.6239518000000004</v>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>3.5849519999999999</v>
       </c>
       <c r="T5" s="20">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
-        <v>2.76</v>
-      </c>
-      <c r="U5" s="21">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>1492</v>
-      </c>
-      <c r="V5" s="21">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>1400</v>
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <v>2.79</v>
+      </c>
+      <c r="U5" s="11">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>444</v>
+      </c>
+      <c r="V5" s="11">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>400</v>
       </c>
       <c r="W5" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>8862</v>
+        <f>[QTDE] * [START]</f>
+        <v>1512</v>
       </c>
       <c r="X5" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>99.999999999999744</v>
-      </c>
-      <c r="Y5" s="15">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>700</v>
-      </c>
-      <c r="Z5" s="15">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>700</v>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>94.000000000000057</v>
+      </c>
+      <c r="Y5" s="6">
+        <f>[QTDE] / 2</f>
+        <v>200</v>
+      </c>
+      <c r="Z5" s="6">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>200</v>
       </c>
       <c r="AA5" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>464.23373999999978</v>
-      </c>
-      <c r="AB5" s="15">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>700</v>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <v>9.0095999999999776</v>
+      </c>
+      <c r="AB5" s="6">
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>200</v>
       </c>
       <c r="AC5" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>2948.2337399999997</v>
-      </c>
-      <c r="AD5" s="22">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>29.482337400000073</v>
-      </c>
-      <c r="AE5" s="19">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>3.2955000000000001</v>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <v>192.00959999999992</v>
+      </c>
+      <c r="AD5" s="5">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>2.0426553191489343</v>
+      </c>
+      <c r="AE5" s="12">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>2.9384999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="14">
-        <v>5042.87</v>
-      </c>
-      <c r="C6" s="15">
+    <row r="6" spans="1:31">
+      <c r="A6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4800</v>
+      </c>
+      <c r="C6" s="6">
         <v>26</v>
       </c>
-      <c r="D6" s="14">
-        <v>4.03</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="D6" s="2">
+        <v>7.49</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="F6" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G6" s="16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="G6" s="4">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="H6" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="I6" s="16">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="I6" s="4">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L6" s="14">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>3731.7237999999998</v>
-      </c>
-      <c r="M6" s="14">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>74.634475999999992</v>
-      </c>
-      <c r="N6" s="14">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>1.5300000000000002</v>
-      </c>
-      <c r="O6" s="16">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>-0.3796526054590571</v>
-      </c>
-      <c r="P6" s="19">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>3.0049000000000001</v>
-      </c>
-      <c r="Q6" s="19">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>3.03</v>
+      <c r="L6" s="2">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <v>3552</v>
+      </c>
+      <c r="M6" s="2">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>71.040000000000006</v>
+      </c>
+      <c r="N6" s="2">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>2.4400000000000004</v>
+      </c>
+      <c r="O6" s="4">
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.32576769025367158</v>
+      </c>
+      <c r="P6" s="12">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>6.27</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>6.32</v>
       </c>
       <c r="R6" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>3.06</v>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>6.39</v>
       </c>
       <c r="S6" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>2.8736519999999999</v>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>5.4545707999999999</v>
       </c>
       <c r="T6" s="20">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
-        <v>1.53</v>
-      </c>
-      <c r="U6" s="21">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>2487</v>
-      </c>
-      <c r="V6" s="21">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>2400</v>
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <v>3.96</v>
+      </c>
+      <c r="U6" s="11">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>1014</v>
+      </c>
+      <c r="V6" s="11">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>1000</v>
       </c>
       <c r="W6" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>7271.9999999999991</v>
+        <f>[QTDE] * [START]</f>
+        <v>6320</v>
       </c>
       <c r="X6" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>102.0000000000006</v>
-      </c>
-      <c r="Y6" s="15">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>1200</v>
-      </c>
-      <c r="Z6" s="15">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>1200</v>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>99.999999999999403</v>
+      </c>
+      <c r="Y6" s="6">
+        <f>[QTDE] / 2</f>
+        <v>500</v>
+      </c>
+      <c r="Z6" s="6">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>500</v>
       </c>
       <c r="AA6" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>157.61759999999992</v>
-      </c>
-      <c r="AB6" s="15">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>1200</v>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <v>402.71460000000019</v>
+      </c>
+      <c r="AB6" s="6">
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>500</v>
       </c>
       <c r="AC6" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>1942.6175999999996</v>
-      </c>
-      <c r="AD6" s="22">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>19.04527058823518</v>
-      </c>
-      <c r="AE6" s="19">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>1.7550000000000001</v>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <v>1567.7146000000005</v>
+      </c>
+      <c r="AD6" s="5">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>15.677146000000098</v>
+      </c>
+      <c r="AE6" s="12">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>4.3140000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="14">
+    <row r="7" spans="1:31">
+      <c r="A7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
         <v>4800</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="26">
         <v>26</v>
       </c>
-      <c r="D7" s="14">
-        <v>2.54</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2.08</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="D7" s="24">
+        <v>11.03</v>
+      </c>
+      <c r="E7" s="24">
+        <v>7.58</v>
+      </c>
+      <c r="F7" s="25">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="16">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="25">
         <v>1.5E-3</v>
       </c>
-      <c r="I7" s="16">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="I7" s="25">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="K7" s="28">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L7" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+      <c r="L7" s="24">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="M7" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+      <c r="M7" s="24">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="N7" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="O7" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>-0.18110236220472442</v>
-      </c>
-      <c r="P7" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>2.31</v>
-      </c>
-      <c r="Q7" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="R7" s="25">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>2.35</v>
-      </c>
-      <c r="S7" s="25">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>2.080228</v>
-      </c>
-      <c r="T7" s="25">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
-        <v>1.89</v>
-      </c>
-      <c r="U7" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>2367</v>
-      </c>
-      <c r="V7" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>2300</v>
-      </c>
-      <c r="W7" s="25">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>5336</v>
-      </c>
-      <c r="X7" s="25">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>99.000000000000568</v>
-      </c>
-      <c r="Y7" s="6">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>1150</v>
-      </c>
-      <c r="Z7" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>1200</v>
-      </c>
-      <c r="AA7" s="25">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>257.72639999999984</v>
-      </c>
-      <c r="AB7" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>1100</v>
-      </c>
-      <c r="AC7" s="25">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>715.72639999999978</v>
-      </c>
-      <c r="AD7" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>7.229559595959552</v>
-      </c>
-      <c r="AE7" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>1.9544999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="14">
-        <v>4800</v>
-      </c>
-      <c r="C8" s="15">
-        <v>26</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4.03</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2.09</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G8" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>3552</v>
-      </c>
-      <c r="M8" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>71.040000000000006</v>
-      </c>
-      <c r="N8" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>1.9400000000000004</v>
-      </c>
-      <c r="O8" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>-0.48138957816377181</v>
-      </c>
-      <c r="P8" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>3.06</v>
-      </c>
-      <c r="Q8" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>3.09</v>
-      </c>
-      <c r="R8" s="25">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>3.16</v>
-      </c>
-      <c r="S8" s="25">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>2.9305559999999997</v>
-      </c>
-      <c r="T8" s="25">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
-        <v>1.22</v>
-      </c>
-      <c r="U8" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>1014</v>
-      </c>
-      <c r="V8" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>1000</v>
-      </c>
-      <c r="W8" s="25">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>3090</v>
-      </c>
-      <c r="X8" s="25">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>100.00000000000028</v>
-      </c>
-      <c r="Y8" s="6">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>500</v>
-      </c>
-      <c r="Z8" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>500</v>
-      </c>
-      <c r="AA8" s="25">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>49.722000000000065</v>
-      </c>
-      <c r="AB8" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>500</v>
-      </c>
-      <c r="AC8" s="25">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>969.72199999999998</v>
-      </c>
-      <c r="AD8" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>9.6972199999999731</v>
-      </c>
-      <c r="AE8" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>1.5004999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="14">
-        <v>4800</v>
-      </c>
-      <c r="C9" s="15">
-        <v>26</v>
-      </c>
-      <c r="D9" s="14">
-        <v>4.34</v>
-      </c>
-      <c r="E9" s="14">
-        <v>3.18</v>
-      </c>
-      <c r="F9" s="16">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>3552</v>
-      </c>
-      <c r="M9" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>71.040000000000006</v>
-      </c>
-      <c r="N9" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>1.1599999999999997</v>
-      </c>
-      <c r="O9" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>-0.26728110599078336</v>
-      </c>
-      <c r="P9" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>3.76</v>
-      </c>
-      <c r="Q9" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>3.78</v>
-      </c>
-      <c r="R9" s="25">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>3.94</v>
-      </c>
-      <c r="S9" s="25">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>3.5849519999999999</v>
-      </c>
-      <c r="T9" s="25">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
-        <v>2.79</v>
-      </c>
-      <c r="U9" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>444</v>
-      </c>
-      <c r="V9" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+      <c r="N7" s="24">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="O7" s="25">
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.31278331822302807</v>
+      </c>
+      <c r="P7" s="29">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>8.7185000000000006</v>
+      </c>
+      <c r="Q7" s="29">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="R7" s="30">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="S7" s="30">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>8.0815948999999989</v>
+      </c>
+      <c r="T7" s="30">
+        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+        <v>5.45</v>
+      </c>
+      <c r="U7" s="31">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>710</v>
+      </c>
+      <c r="V7" s="31">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>700</v>
+      </c>
+      <c r="W7" s="30">
+        <f>[QTDE] * [START]</f>
+        <v>6146</v>
+      </c>
+      <c r="X7" s="30">
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>100.00000000000099</v>
+      </c>
+      <c r="Y7" s="26">
+        <f>[QTDE] / 2</f>
+        <v>350</v>
+      </c>
+      <c r="Z7" s="26">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>400</v>
       </c>
-      <c r="W9" s="25">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>1512</v>
-      </c>
-      <c r="X9" s="25">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>94.000000000000057</v>
-      </c>
-      <c r="Y9" s="6">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>200</v>
-      </c>
-      <c r="Z9" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>200</v>
-      </c>
-      <c r="AA9" s="25">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>9.0095999999999776</v>
-      </c>
-      <c r="AB9" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>200</v>
-      </c>
-      <c r="AC9" s="25">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>192.00959999999992</v>
-      </c>
-      <c r="AD9" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>2.0426553191489343</v>
-      </c>
-      <c r="AE9" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>2.9384999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="e">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12" t="e">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="25" t="e">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="25" t="e">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="25" t="e">
-        <f>TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="11" t="e">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" s="11" t="e">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" s="25" t="e">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10" s="25" t="e">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y10" s="6" t="e">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z10" s="6" t="e">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA10" s="25" t="e">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" s="6" t="e">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="25" t="e">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD10" s="5" t="e">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE10" s="12" t="e">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>#DIV/0!</v>
+      <c r="AA7" s="30">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <v>249.36204000000021</v>
+      </c>
+      <c r="AB7" s="26">
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>300</v>
+      </c>
+      <c r="AC7" s="30">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <v>1233.36204</v>
+      </c>
+      <c r="AD7" s="32">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>12.333620399999877</v>
+      </c>
+      <c r="AE7" s="29">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>5.9495000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3458,14 +3171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3496,8 +3209,8 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3585,7 +3298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -3618,83 +3331,83 @@
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3828.0791999999997</v>
       </c>
       <c r="L2" s="2">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>76.561583999999996</v>
       </c>
       <c r="M2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>3.629999999999999</v>
       </c>
       <c r="N2" s="4">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.41724137931034477</v>
       </c>
       <c r="O2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>4.8500000000000005</v>
       </c>
       <c r="P2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>5.1099999999999994</v>
       </c>
       <c r="Q2" s="2">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>4.1407602500000005</v>
       </c>
       <c r="R2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>2.6100000000000012</v>
       </c>
       <c r="S2" s="6">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
         <v>348</v>
       </c>
       <c r="T2" s="6">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U2" s="12">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1455.0000000000002</v>
       </c>
       <c r="V2" s="12">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>77.999999999999673</v>
       </c>
       <c r="W2" s="6">
-        <f>Tabela13[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X2" s="6">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y2" s="12">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
         <v>141.84795000000003</v>
       </c>
       <c r="Z2" s="6">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA2" s="12">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
         <v>365.84794999999997</v>
       </c>
       <c r="AB2" s="5">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>4.6903583333333527</v>
       </c>
       <c r="AC2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.9460000000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -3727,79 +3440,79 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3828.0791999999997</v>
       </c>
       <c r="L3" s="2">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>76.561583999999996</v>
       </c>
       <c r="M3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>6.8100000000000023</v>
       </c>
       <c r="N3" s="4">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.23186925434116457</v>
       </c>
       <c r="O3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>19.260000000000002</v>
       </c>
       <c r="P3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>19.55</v>
       </c>
       <c r="Q3" s="2">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>18.040842000000001</v>
       </c>
       <c r="R3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>15.749999999999996</v>
       </c>
       <c r="S3" s="6">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
         <v>306</v>
       </c>
       <c r="T3" s="6">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U3" s="12">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>5778.0000000000009</v>
       </c>
       <c r="V3" s="12">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>86.999999999999744</v>
       </c>
       <c r="W3" s="6">
-        <f>Tabela13[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X3" s="6">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y3" s="12">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
         <v>243.83160000000004</v>
       </c>
       <c r="Z3" s="6">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA3" s="12">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
         <v>594.83160000000055</v>
       </c>
       <c r="AB3" s="5">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>6.8371448275862337</v>
       </c>
       <c r="AC3" s="13">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>16.276499999999999</v>
       </c>
     </row>
@@ -3813,14 +3526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3828,7 +3541,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3836,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -3848,7 +3561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -3860,7 +3573,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -3872,7 +3585,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -3884,7 +3597,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -3896,7 +3609,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -3914,17 +3627,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -3937,7 +3650,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3953,25 +3666,25 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -3981,7 +3694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -3995,35 +3708,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -4031,11 +3744,11 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -4049,35 +3762,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -4085,11 +3798,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -4103,35 +3816,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -4139,11 +3852,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4155,35 +3868,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -4191,8 +3904,62 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="24">
+        <v>8.52</v>
+      </c>
+      <c r="C6" s="24">
+        <v>6.31</v>
+      </c>
+      <c r="D6" s="24">
+        <v>7.49</v>
+      </c>
+      <c r="E6" s="24">
+        <f>[INICIO]-[FIM]</f>
+        <v>2.21</v>
+      </c>
+      <c r="F6" s="24">
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <v>7.0399999999999991</v>
+      </c>
+      <c r="G6" s="24">
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <v>7.42</v>
+      </c>
+      <c r="H6" s="24">
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <v>7.64</v>
+      </c>
+      <c r="I6" s="25">
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <v>6.3920454545454808E-2</v>
+      </c>
+      <c r="J6" s="25">
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <v>9.4339622641510523E-3</v>
+      </c>
+      <c r="K6" s="25">
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <v>-1.963350785340312E-2</v>
+      </c>
+      <c r="L6" s="25">
+        <f>1 - [FIM]/[INICIO]</f>
+        <v>0.25938967136150237</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="array" ref="M6">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</f>
+        <v>9.4339622641510523E-3</v>
+      </c>
+      <c r="N6" s="25">
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <v>3.6369845470844782E-3</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -36,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>INICIO</t>
   </si>
@@ -273,17 +273,29 @@
     <t>BTOW3</t>
   </si>
   <si>
-    <t>GOLL4</t>
+    <t>QTDE A</t>
+  </si>
+  <si>
+    <t>QTDE MAX TMP</t>
+  </si>
+  <si>
+    <t>QTDE MAX</t>
+  </si>
+  <si>
+    <t>ALLL3</t>
+  </si>
+  <si>
+    <t>TGT +</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +343,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,59 +379,213 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -713,7 +880,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -749,7 +916,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -785,7 +952,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -839,25 +1006,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -911,61 +1078,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1259,7 +1426,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1295,7 +1462,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1331,24 +1516,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1385,151 +1552,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1838,81 +1915,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AE7" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
-  <autoFilter ref="A1:AE7"/>
-  <tableColumns count="31">
-    <tableColumn id="31" name="ATIVO" dataDxfId="77"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="76" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="75" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="74" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="FIM" dataDxfId="73" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="72" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="71" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TGT" dataDxfId="70" dataCellStyle="Porcentagem"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="69" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="68" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="67" dataCellStyle="Porcentagem">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AI7" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:AI7"/>
+  <tableColumns count="35">
+    <tableColumn id="31" name="ATIVO" dataDxfId="81"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="80" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="79" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="78" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="FIM" dataDxfId="77" dataCellStyle="Moeda"/>
+    <tableColumn id="35" name="TGT +" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="76" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="75" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="74" dataCellStyle="Porcentagem"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="73" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="72" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="71" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="66" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="64" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="63" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="RETORNO" dataDxfId="62" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="61" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="60">
-      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="59">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="58">
-      <calculatedColumnFormula>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="57">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="56">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="55">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="54">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="53" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="52" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="51">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="50" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="49">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="48" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="47" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="7" name="BASE RV" dataDxfId="70" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="69" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="68" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="67" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="RETORNO" dataDxfId="66" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="65" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="64">
+      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="63">
+      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="62">
+      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE A" dataDxfId="61">
+      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="8">
+      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" name="QTDE MAX" dataDxfId="7">
+      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" name="QTDE" dataDxfId="6">
+      <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="5">
+      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="4">
+      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="60" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="59">
+      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="58">
+      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="57" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="56" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1920,77 +2007,77 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="44"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="38" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="37" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem">
+    <tableColumn id="31" name="ATIVO" dataDxfId="53"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="52" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="51" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="50" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="49" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="48" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="47" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="46" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="45" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="44" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="29">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="28">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="27">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="25">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="24">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="23">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="7" name="BASE RV" dataDxfId="43" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="42" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="41" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="40" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="39" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="38">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="37">
+      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="36">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="35">
+      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="34">
+      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="33">
+      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="32">
+      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="31" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="30" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="29">
+      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="28" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="27">
+      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="26" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="25" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1998,42 +2085,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="13"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="ATIVO" dataDxfId="22"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="21" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="20" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="18" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="33%" dataDxfId="17" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="50%" dataDxfId="16" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="60%" dataDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="DIF 33%" dataDxfId="14" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="DIF 50%" dataDxfId="13" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="DIF 60%" dataDxfId="12" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="% PERNA" dataDxfId="11" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="10" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="9" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2115,6 +2202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2149,6 +2237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2324,52 +2413,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="11" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" style="11" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="11" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="9" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -2385,202 +2478,229 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="40" customFormat="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="26">
         <v>4800</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="27">
         <v>26</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="26">
         <v>5.17</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="26">
         <v>2.87</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G2" s="35">
+      <c r="H2" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="35">
+      <c r="I2" s="28">
         <v>1.5E-3</v>
       </c>
-      <c r="I2" s="35">
+      <c r="J2" s="28">
         <v>0.97489999999999999</v>
       </c>
-      <c r="J2" s="36">
+      <c r="K2" s="29">
         <v>0.5</v>
       </c>
-      <c r="K2" s="37">
+      <c r="L2" s="30">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L2" s="33">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+      <c r="M2" s="26">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="M2" s="33">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+      <c r="N2" s="26">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="N2" s="33">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+      <c r="O2" s="26">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="O2" s="35">
-        <f>[FIM] / [INICIO] - 1</f>
+      <c r="P2" s="28">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
-      <c r="P2" s="33">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+      <c r="Q2" s="26">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="Q2" s="33">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+      <c r="R2" s="26">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
-      <c r="R2" s="33">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+      <c r="S2" s="26">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
-      <c r="S2" s="33">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+      <c r="T2" s="26">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.4662858999999995</v>
       </c>
-      <c r="T2" s="33">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+      <c r="U2" s="26">
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.84</v>
       </c>
-      <c r="U2" s="34">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+      <c r="V2" s="27">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1014</v>
       </c>
-      <c r="V2" s="34">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+      <c r="W2" s="27">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
-      <c r="W2" s="38">
-        <f>[QTDE] * [START]</f>
-        <v>4059.9999999999995</v>
-      </c>
-      <c r="X2" s="38">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>100.00000000000028</v>
-      </c>
-      <c r="Y2" s="34">
-        <f>[QTDE] / 2</f>
-        <v>500</v>
-      </c>
-      <c r="Z2" s="34">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>500</v>
-      </c>
-      <c r="AA2" s="38">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>266.85705000000007</v>
-      </c>
-      <c r="AB2" s="34">
-        <f>[QTDE] - [QTDE PAR]</f>
-        <v>500</v>
-      </c>
-      <c r="AC2" s="38">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>1361.8570499999998</v>
-      </c>
-      <c r="AD2" s="39">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>13.61857049999996</v>
-      </c>
-      <c r="AE2" s="33">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+      <c r="X2" s="27">
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <v>394.08866995073896</v>
+      </c>
+      <c r="Y2" s="27">
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="Z2" s="27">
+        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
+        <v>300</v>
+      </c>
+      <c r="AA2" s="31">
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>1217.9999999999998</v>
+      </c>
+      <c r="AB2" s="31">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>51.000000000000085</v>
+      </c>
+      <c r="AC2" s="27">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>150</v>
+      </c>
+      <c r="AD2" s="27">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>200</v>
+      </c>
+      <c r="AE2" s="31">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>88.742820000000023</v>
+      </c>
+      <c r="AF2" s="27">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>100</v>
+      </c>
+      <c r="AG2" s="31">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>295.74281999999999</v>
+      </c>
+      <c r="AH2" s="32">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>5.7988788235294022</v>
+      </c>
+      <c r="AI2" s="26">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>40</v>
       </c>
@@ -2596,107 +2716,122 @@
       <c r="E3" s="14">
         <v>2.08</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G3" s="16">
+      <c r="H3" s="16">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="H3" s="16">
+      <c r="I3" s="16">
         <v>1.5E-3</v>
       </c>
-      <c r="I3" s="16">
+      <c r="J3" s="16">
         <v>0.68899999999999995</v>
       </c>
-      <c r="J3" s="17">
+      <c r="K3" s="17">
         <v>0.5</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L3" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+      <c r="M3" s="2">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="M3" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+      <c r="N3" s="2">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="N3" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+      <c r="O3" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="O3" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+      <c r="P3" s="4">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.18110236220472442</v>
       </c>
-      <c r="P3" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+      <c r="Q3" s="12">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>2.31</v>
       </c>
-      <c r="Q3" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+      <c r="R3" s="12">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="R3" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+      <c r="S3" s="20">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>2.35</v>
       </c>
-      <c r="S3" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+      <c r="T3" s="20">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.080228</v>
       </c>
-      <c r="T3" s="20">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+      <c r="U3" s="20">
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.89</v>
       </c>
-      <c r="U3" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+      <c r="V3" s="11">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>2367</v>
       </c>
-      <c r="V3" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+      <c r="W3" s="11">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
-      <c r="W3" s="20">
-        <f>[QTDE] * [START]</f>
-        <v>5336</v>
-      </c>
-      <c r="X3" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>99.000000000000568</v>
-      </c>
-      <c r="Y3" s="6">
-        <f>[QTDE] / 2</f>
-        <v>1150</v>
-      </c>
-      <c r="Z3" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>1200</v>
+      <c r="X3" s="11">
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <v>689.65517241379314</v>
+      </c>
+      <c r="Y3" s="11">
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <v>600</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
+        <v>600</v>
       </c>
       <c r="AA3" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>257.72639999999984</v>
-      </c>
-      <c r="AB3" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
-        <v>1100</v>
-      </c>
-      <c r="AC3" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>715.72639999999978</v>
-      </c>
-      <c r="AD3" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>7.229559595959552</v>
-      </c>
-      <c r="AE3" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>1392</v>
+      </c>
+      <c r="AB3" s="20">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>48.000000000000149</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>300</v>
+      </c>
+      <c r="AD3" s="6">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="AE3" s="20">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>41.93159999999996</v>
+      </c>
+      <c r="AF3" s="6">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>300</v>
+      </c>
+      <c r="AG3" s="20">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>155.93159999999995</v>
+      </c>
+      <c r="AH3" s="5">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>3.2485749999999887</v>
+      </c>
+      <c r="AI3" s="12">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>1.9544999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
@@ -2712,107 +2847,122 @@
       <c r="E4" s="14">
         <v>2.09</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="16">
+      <c r="I4" s="16">
         <v>1.5E-3</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="16">
         <v>0.34399999999999997</v>
       </c>
-      <c r="J4" s="17">
+      <c r="K4" s="17">
         <v>0.5</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L4" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+      <c r="M4" s="2">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="M4" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+      <c r="N4" s="2">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="N4" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+      <c r="O4" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.9400000000000004</v>
       </c>
-      <c r="O4" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+      <c r="P4" s="4">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.48138957816377181</v>
       </c>
-      <c r="P4" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+      <c r="Q4" s="12">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.06</v>
       </c>
-      <c r="Q4" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+      <c r="R4" s="12">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.09</v>
       </c>
-      <c r="R4" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+      <c r="S4" s="20">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.16</v>
       </c>
-      <c r="S4" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+      <c r="T4" s="20">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.9305559999999997</v>
       </c>
-      <c r="T4" s="20">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+      <c r="U4" s="20">
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.22</v>
       </c>
-      <c r="U4" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+      <c r="V4" s="11">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1014</v>
       </c>
-      <c r="V4" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+      <c r="W4" s="11">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
-      <c r="W4" s="20">
-        <f>[QTDE] * [START]</f>
-        <v>3090</v>
-      </c>
-      <c r="X4" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>100.00000000000028</v>
-      </c>
-      <c r="Y4" s="6">
-        <f>[QTDE] / 2</f>
+      <c r="X4" s="11">
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <v>517.79935275080913</v>
+      </c>
+      <c r="Y4" s="11">
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
-      <c r="Z4" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+      <c r="Z4" s="11">
+        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
         <v>500</v>
       </c>
       <c r="AA4" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>49.722000000000065</v>
-      </c>
-      <c r="AB4" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
-        <v>500</v>
-      </c>
-      <c r="AC4" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>969.72199999999998</v>
-      </c>
-      <c r="AD4" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>9.6972199999999731</v>
-      </c>
-      <c r="AE4" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>1545</v>
+      </c>
+      <c r="AB4" s="20">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>65.000000000000142</v>
+      </c>
+      <c r="AC4" s="6">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>250</v>
+      </c>
+      <c r="AD4" s="6">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="AE4" s="20">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>17.833200000000041</v>
+      </c>
+      <c r="AF4" s="6">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>200</v>
+      </c>
+      <c r="AG4" s="20">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>376.83320000000003</v>
+      </c>
+      <c r="AH4" s="5">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>5.7974338461538339</v>
+      </c>
+      <c r="AI4" s="12">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>1.5004999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
@@ -2828,341 +2978,387 @@
       <c r="E5" s="14">
         <v>3.18</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="16">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="H5" s="16">
+      <c r="I5" s="16">
         <v>1.5E-3</v>
       </c>
-      <c r="I5" s="16">
+      <c r="J5" s="16">
         <v>0.34399999999999997</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K5" s="17">
         <v>0.5</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L5" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+      <c r="M5" s="2">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="M5" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+      <c r="N5" s="2">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="N5" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+      <c r="O5" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.1599999999999997</v>
       </c>
-      <c r="O5" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+      <c r="P5" s="4">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
-      <c r="P5" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+      <c r="Q5" s="12">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.76</v>
       </c>
-      <c r="Q5" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+      <c r="R5" s="12">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.78</v>
       </c>
-      <c r="R5" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+      <c r="S5" s="20">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.94</v>
       </c>
-      <c r="S5" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+      <c r="T5" s="20">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.5849519999999999</v>
       </c>
-      <c r="T5" s="20">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
+      <c r="U5" s="20">
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>2.79</v>
       </c>
-      <c r="U5" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+      <c r="V5" s="11">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>444</v>
       </c>
-      <c r="V5" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+      <c r="W5" s="11">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>400</v>
       </c>
-      <c r="W5" s="20">
-        <f>[QTDE] * [START]</f>
+      <c r="X5" s="11">
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <v>423.28042328042329</v>
+      </c>
+      <c r="Y5" s="11">
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <v>400</v>
+      </c>
+      <c r="Z5" s="11">
+        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
+        <v>400</v>
+      </c>
+      <c r="AA5" s="20">
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1512</v>
       </c>
-      <c r="X5" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+      <c r="AB5" s="20">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>94.000000000000057</v>
       </c>
-      <c r="Y5" s="6">
-        <f>[QTDE] / 2</f>
+      <c r="AC5" s="6">
+        <f>Tabela1[QTDE] / 2</f>
         <v>200</v>
       </c>
-      <c r="Z5" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+      <c r="AD5" s="6">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
-      <c r="AA5" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+      <c r="AE5" s="20">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>9.0095999999999776</v>
       </c>
-      <c r="AB5" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+      <c r="AF5" s="6">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>200</v>
       </c>
-      <c r="AC5" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+      <c r="AG5" s="20">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>192.00959999999992</v>
       </c>
-      <c r="AD5" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+      <c r="AH5" s="5">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>2.0426553191489343</v>
       </c>
-      <c r="AE5" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+      <c r="AI5" s="12">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.9384999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="41" t="s">
-        <v>50</v>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="2">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="C6" s="6">
         <v>26</v>
       </c>
       <c r="D6" s="2">
-        <v>7.49</v>
+        <v>5.47</v>
       </c>
       <c r="E6" s="2">
-        <v>5.05</v>
-      </c>
-      <c r="F6" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G6" s="4">
-        <v>3.5999999999999999E-3</v>
-      </c>
       <c r="H6" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="I6" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="I6" s="4">
-        <v>0.91290000000000004</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
-        <v>3552</v>
+      <c r="J6" s="4">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="L6" s="10">
+        <v>2</v>
       </c>
       <c r="M6" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
-        <v>71.040000000000006</v>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <v>3922</v>
       </c>
       <c r="N6" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
-        <v>2.4400000000000004</v>
-      </c>
-      <c r="O6" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
-        <v>-0.32576769025367158</v>
-      </c>
-      <c r="P6" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
-        <v>6.27</v>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>78.44</v>
+      </c>
+      <c r="O6" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <v>3.38</v>
+      </c>
+      <c r="P6" s="4">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <v>-0.61791590493601456</v>
       </c>
       <c r="Q6" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
-        <v>6.32</v>
-      </c>
-      <c r="R6" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
-        <v>6.39</v>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <v>3.2054</v>
+      </c>
+      <c r="R6" s="12">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <v>3.25</v>
       </c>
       <c r="S6" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
-        <v>5.4545707999999999</v>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <v>3.29</v>
       </c>
       <c r="T6" s="20">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
-        <v>3.96</v>
-      </c>
-      <c r="U6" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
-        <v>1014</v>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <v>2.3163400000000003</v>
+      </c>
+      <c r="U6" s="20">
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <v>-0.09</v>
       </c>
       <c r="V6" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
-        <v>1000</v>
-      </c>
-      <c r="W6" s="20">
-        <f>[QTDE] * [START]</f>
-        <v>6320</v>
-      </c>
-      <c r="X6" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>99.999999999999403</v>
-      </c>
-      <c r="Y6" s="6">
-        <f>[QTDE] / 2</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <v>1961</v>
+      </c>
+      <c r="W6" s="11">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <v>1900</v>
+      </c>
+      <c r="X6" s="11">
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <v>543.58974358974365</v>
+      </c>
+      <c r="Y6" s="11">
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
-      <c r="Z6" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+      <c r="Z6" s="11">
+        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
         <v>500</v>
       </c>
       <c r="AA6" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>402.71460000000019</v>
-      </c>
-      <c r="AB6" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
-        <v>500</v>
-      </c>
-      <c r="AC6" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>1567.7146000000005</v>
-      </c>
-      <c r="AD6" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>15.677146000000098</v>
-      </c>
-      <c r="AE6" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>4.3140000000000001</v>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>1625</v>
+      </c>
+      <c r="AB6" s="20">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="AC6" s="6">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>250</v>
+      </c>
+      <c r="AD6" s="6">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="AE6" s="20">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>250.0979999999999</v>
+      </c>
+      <c r="AF6" s="6">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>200</v>
+      </c>
+      <c r="AG6" s="20">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>903.09799999999996</v>
+      </c>
+      <c r="AH6" s="5">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>18.061959999999996</v>
+      </c>
+      <c r="AI6" s="12">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <v>0.41100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="21" t="s">
-        <v>51</v>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B7" s="2">
-        <v>4800</v>
-      </c>
-      <c r="C7" s="26">
+        <v>5300</v>
+      </c>
+      <c r="C7" s="6">
         <v>26</v>
       </c>
-      <c r="D7" s="24">
-        <v>11.03</v>
-      </c>
-      <c r="E7" s="24">
-        <v>7.58</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="D7" s="2">
+        <v>7.62</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11.56</v>
+      </c>
+      <c r="G7" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="25">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H7" s="25">
+      <c r="H7" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="I7" s="4">
         <v>1.5E-3</v>
       </c>
-      <c r="I7" s="25">
-        <v>0.53029999999999999</v>
-      </c>
-      <c r="J7" s="27">
+      <c r="J7" s="4">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="K7" s="3">
         <v>0.33</v>
       </c>
-      <c r="K7" s="28">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="24">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
-        <v>3552</v>
-      </c>
-      <c r="M7" s="24">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
-        <v>71.040000000000006</v>
-      </c>
-      <c r="N7" s="24">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
-        <v>3.4499999999999993</v>
-      </c>
-      <c r="O7" s="25">
-        <f>[FIM] / [INICIO] - 1</f>
-        <v>-0.31278331822302807</v>
-      </c>
-      <c r="P7" s="29">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
-        <v>8.7185000000000006</v>
-      </c>
-      <c r="Q7" s="29">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="R7" s="30">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="S7" s="30">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
-        <v>8.0815948999999989</v>
-      </c>
-      <c r="T7" s="30">
-        <f>TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2)</f>
-        <v>5.45</v>
-      </c>
-      <c r="U7" s="31">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
-        <v>710</v>
-      </c>
-      <c r="V7" s="31">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
-        <v>700</v>
-      </c>
-      <c r="W7" s="30">
-        <f>[QTDE] * [START]</f>
-        <v>6146</v>
-      </c>
-      <c r="X7" s="30">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>100.00000000000099</v>
-      </c>
-      <c r="Y7" s="26">
-        <f>[QTDE] / 2</f>
-        <v>350</v>
-      </c>
-      <c r="Z7" s="26">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>400</v>
-      </c>
-      <c r="AA7" s="30">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>249.36204000000021</v>
-      </c>
-      <c r="AB7" s="26">
-        <f>[QTDE] - [QTDE PAR]</f>
-        <v>300</v>
-      </c>
-      <c r="AC7" s="30">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>1233.36204</v>
-      </c>
-      <c r="AD7" s="32">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>12.333620399999877</v>
-      </c>
-      <c r="AE7" s="29">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>5.9495000000000005</v>
+      <c r="L7" s="34">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <v>3922</v>
+      </c>
+      <c r="N7" s="2">
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>78.44</v>
+      </c>
+      <c r="O7" s="2">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <v>1.419999999999999</v>
+      </c>
+      <c r="P7" s="4">
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <v>0.18635170603674522</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <v>8.5713999999999988</v>
+      </c>
+      <c r="R7" s="12">
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="S7" s="20">
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <v>8.49</v>
+      </c>
+      <c r="T7" s="20">
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <v>9.4891132000000002</v>
+      </c>
+      <c r="U7" s="20">
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <v>11.56</v>
+      </c>
+      <c r="V7" s="11">
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <v>1961</v>
+      </c>
+      <c r="W7" s="11">
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <v>1900</v>
+      </c>
+      <c r="X7" s="11">
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <v>207.11215318483787</v>
+      </c>
+      <c r="Y7" s="11">
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <v>200</v>
+      </c>
+      <c r="Z7" s="11">
+        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
+        <v>200</v>
+      </c>
+      <c r="AA7" s="20">
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <v>1705.9999999999998</v>
+      </c>
+      <c r="AB7" s="20">
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <v>37.999999999999829</v>
+      </c>
+      <c r="AC7" s="6">
+        <f>Tabela1[QTDE] / 2</f>
+        <v>100</v>
+      </c>
+      <c r="AD7" s="6">
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <v>100</v>
+      </c>
+      <c r="AE7" s="20">
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <v>65.911320000000089</v>
+      </c>
+      <c r="AF7" s="6">
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <v>100</v>
+      </c>
+      <c r="AG7" s="20">
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <v>353.91132000000022</v>
+      </c>
+      <c r="AH7" s="5">
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <v>9.313455789473732</v>
+      </c>
+      <c r="AI7" s="12">
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <v>11.105499999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L6" calculatedColumn="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -3171,14 +3367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3209,7 +3405,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -3298,7 +3494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -3331,83 +3527,83 @@
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
         <v>3828.0791999999997</v>
       </c>
       <c r="L2" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
         <v>76.561583999999996</v>
       </c>
       <c r="M2" s="2">
-        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
         <v>3.629999999999999</v>
       </c>
       <c r="N2" s="4">
-        <f>[MEIO] / [INICIO] - 1</f>
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
         <v>-0.41724137931034477</v>
       </c>
       <c r="O2" s="2">
-        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
         <v>4.8500000000000005</v>
       </c>
       <c r="P2" s="2">
-        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
         <v>5.1099999999999994</v>
       </c>
       <c r="Q2" s="2">
-        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
         <v>4.1407602500000005</v>
       </c>
       <c r="R2" s="2">
-        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
         <v>2.6100000000000012</v>
       </c>
       <c r="S2" s="6">
-        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
         <v>348</v>
       </c>
       <c r="T2" s="6">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U2" s="12">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
         <v>1455.0000000000002</v>
       </c>
       <c r="V2" s="12">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
         <v>77.999999999999673</v>
       </c>
       <c r="W2" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela13[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X2" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y2" s="12">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
         <v>141.84795000000003</v>
       </c>
       <c r="Z2" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA2" s="12">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
         <v>365.84794999999997</v>
       </c>
       <c r="AB2" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
         <v>4.6903583333333527</v>
       </c>
       <c r="AC2" s="2">
-        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
         <v>2.9460000000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -3440,79 +3636,79 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
         <v>3828.0791999999997</v>
       </c>
       <c r="L3" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
         <v>76.561583999999996</v>
       </c>
       <c r="M3" s="2">
-        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
         <v>6.8100000000000023</v>
       </c>
       <c r="N3" s="4">
-        <f>[MEIO] / [INICIO] - 1</f>
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
         <v>-0.23186925434116457</v>
       </c>
       <c r="O3" s="2">
-        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
         <v>19.260000000000002</v>
       </c>
       <c r="P3" s="2">
-        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
         <v>19.55</v>
       </c>
       <c r="Q3" s="2">
-        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
         <v>18.040842000000001</v>
       </c>
       <c r="R3" s="2">
-        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
         <v>15.749999999999996</v>
       </c>
       <c r="S3" s="6">
-        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
         <v>306</v>
       </c>
       <c r="T3" s="6">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U3" s="12">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
         <v>5778.0000000000009</v>
       </c>
       <c r="V3" s="12">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
         <v>86.999999999999744</v>
       </c>
       <c r="W3" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela13[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X3" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y3" s="12">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
         <v>243.83160000000004</v>
       </c>
       <c r="Z3" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA3" s="12">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
         <v>594.83160000000055</v>
       </c>
       <c r="AB3" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
         <v>6.8371448275862337</v>
       </c>
       <c r="AC3" s="13">
-        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
         <v>16.276499999999999</v>
       </c>
     </row>
@@ -3526,14 +3722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3541,7 +3737,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3549,7 +3745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -3561,7 +3757,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -3573,7 +3769,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -3585,7 +3781,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -3597,7 +3793,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -3609,7 +3805,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -3627,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3637,7 +3833,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -3650,7 +3846,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3694,7 +3890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -3708,35 +3904,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -3744,11 +3940,11 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -3762,35 +3958,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -3798,11 +3994,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3816,35 +4012,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -3852,11 +4048,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3868,35 +4064,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -3904,11 +4100,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>50</v>
       </c>
@@ -3922,35 +4118,35 @@
         <v>7.49</v>
       </c>
       <c r="E6" s="24">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>2.21</v>
       </c>
       <c r="F6" s="24">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>7.0399999999999991</v>
       </c>
       <c r="G6" s="24">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>7.42</v>
       </c>
       <c r="H6" s="24">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>7.64</v>
       </c>
       <c r="I6" s="25">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
       <c r="J6" s="25">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="K6" s="25">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
       <c r="L6" s="25">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
       <c r="M6" s="25">
@@ -3958,7 +4154,7 @@
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="N6" s="25">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WTSa" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>INICIO</t>
   </si>
@@ -237,9 +237,6 @@
     <t>CDL H</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
     <t>LLXL3</t>
   </si>
   <si>
@@ -286,16 +283,19 @@
   </si>
   <si>
     <t>TGT +</t>
+  </si>
+  <si>
+    <t>BVMF3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +353,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -379,45 +385,54 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -441,24 +456,321 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -494,6 +806,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -512,42 +842,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -566,6 +860,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -602,6 +932,78 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -620,6 +1022,75 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -638,6 +1109,519 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -656,6 +1640,92 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -710,446 +1780,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -1168,621 +1798,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1923,83 +1938,83 @@
     <tableColumn id="6" name="AGE" dataDxfId="79" dataCellStyle="Moeda"/>
     <tableColumn id="1" name="INICIO" dataDxfId="78" dataCellStyle="Moeda"/>
     <tableColumn id="2" name="FIM" dataDxfId="77" dataCellStyle="Moeda"/>
-    <tableColumn id="35" name="TGT +" dataDxfId="1" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="76" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="75" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TGT" dataDxfId="74" dataCellStyle="Porcentagem"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="73" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="72" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="71" dataCellStyle="Porcentagem">
+    <tableColumn id="35" name="TGT +" dataDxfId="76" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="75" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="74" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="73" dataCellStyle="Porcentagem"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="72" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="71" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="70" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="70" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="69" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="68" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="67" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="RETORNO" dataDxfId="66" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="64">
-      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="63">
-      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="0">
-      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="62">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE A" dataDxfId="61">
-      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="8">
-      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="33" name="QTDE MAX" dataDxfId="7">
-      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="32" name="QTDE" dataDxfId="6">
+    <tableColumn id="7" name="BASE RV" dataDxfId="69" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="68" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="67" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="66" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="RETORNO" dataDxfId="65" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="64" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="63">
+      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="62">
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="61">
+      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="60">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE A" dataDxfId="59">
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="58">
+      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" name="QTDE MAX" dataDxfId="57">
+      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" name="QTDE" dataDxfId="56">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="5">
-      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="4">
-      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="3" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="60" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="59">
-      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="58">
-      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="57" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="56" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="23" name="VOLUME" dataDxfId="55">
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="54">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="53" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="52" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="51">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="50" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="49">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="48" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="47" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2007,77 +2022,75 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:AC3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC2" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A1:AC2"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="53"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="52" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="51" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="50" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="49" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="48" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="47" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="46" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="45" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="44" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="43" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="42" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="41" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="40" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="39" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="38">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="37">
-      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="36">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="35">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="34">
-      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="33">
-      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="32">
-      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="31" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="30" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="29">
-      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="28" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="27">
-      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="26" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="25" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="31" name="ATIVO" dataDxfId="44"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="37" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="29">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="28">
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="27">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="25">
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="24">
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="23">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2085,42 +2098,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="22"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="21" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="20" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="19" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="18" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="15" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="14" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="13" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="12" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="11" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="10" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="ATIVO" dataDxfId="13"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="9" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2202,7 +2215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2237,7 +2249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2413,17 +2424,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2436,7 +2447,7 @@
     <col min="9" max="9" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" hidden="1" customWidth="1"/>
@@ -2462,7 +2473,7 @@
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -2479,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>7</v>
@@ -2530,13 +2541,13 @@
         <v>13</v>
       </c>
       <c r="W1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>14</v>
@@ -2569,7 +2580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="33" customFormat="1">
       <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2608,55 +2619,55 @@
         <v>1</v>
       </c>
       <c r="M2" s="26">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N2" s="26">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O2" s="26">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="P2" s="28">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
       <c r="Q2" s="26">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
       <c r="R2" s="26">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
       <c r="S2" s="26">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
       <c r="T2" s="26">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.4662858999999995</v>
       </c>
       <c r="U2" s="26">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.84</v>
       </c>
       <c r="V2" s="27">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W2" s="27">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X2" s="27">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>394.08866995073896</v>
       </c>
       <c r="Y2" s="27">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="Z2" s="27">
@@ -2664,45 +2675,45 @@
         <v>300</v>
       </c>
       <c r="AA2" s="31">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1217.9999999999998</v>
       </c>
       <c r="AB2" s="31">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>51.000000000000085</v>
       </c>
       <c r="AC2" s="27">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="AD2" s="27">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE2" s="31">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>88.742820000000023</v>
       </c>
       <c r="AF2" s="27">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG2" s="31">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>295.74281999999999</v>
       </c>
       <c r="AH2" s="32">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.7988788235294022</v>
       </c>
       <c r="AI2" s="26">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="14">
         <v>4800</v>
@@ -2739,55 +2750,55 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N3" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O3" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>0.45999999999999996</v>
       </c>
       <c r="P3" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.18110236220472442</v>
       </c>
       <c r="Q3" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>2.31</v>
       </c>
       <c r="R3" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="S3" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>2.35</v>
       </c>
       <c r="T3" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.080228</v>
       </c>
       <c r="U3" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.89</v>
       </c>
       <c r="V3" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>2367</v>
       </c>
       <c r="W3" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
       <c r="X3" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>689.65517241379314</v>
       </c>
       <c r="Y3" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>600</v>
       </c>
       <c r="Z3" s="11">
@@ -2795,43 +2806,43 @@
         <v>600</v>
       </c>
       <c r="AA3" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1392</v>
       </c>
       <c r="AB3" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>48.000000000000149</v>
       </c>
       <c r="AC3" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>300</v>
       </c>
       <c r="AD3" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE3" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>41.93159999999996</v>
       </c>
       <c r="AF3" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>300</v>
       </c>
       <c r="AG3" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>155.93159999999995</v>
       </c>
       <c r="AH3" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>3.2485749999999887</v>
       </c>
       <c r="AI3" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>1.9544999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
@@ -2870,55 +2881,55 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N4" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O4" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.9400000000000004</v>
       </c>
       <c r="P4" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.48138957816377181</v>
       </c>
       <c r="Q4" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.06</v>
       </c>
       <c r="R4" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.09</v>
       </c>
       <c r="S4" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.16</v>
       </c>
       <c r="T4" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.9305559999999997</v>
       </c>
       <c r="U4" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.22</v>
       </c>
       <c r="V4" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W4" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X4" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>517.79935275080913</v>
       </c>
       <c r="Y4" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z4" s="11">
@@ -2926,43 +2937,43 @@
         <v>500</v>
       </c>
       <c r="AA4" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1545</v>
       </c>
       <c r="AB4" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>65.000000000000142</v>
       </c>
       <c r="AC4" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD4" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE4" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>17.833200000000041</v>
       </c>
       <c r="AF4" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG4" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>376.83320000000003</v>
       </c>
       <c r="AH4" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.7974338461538339</v>
       </c>
       <c r="AI4" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>1.5004999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
@@ -3001,55 +3012,55 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N5" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O5" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.1599999999999997</v>
       </c>
       <c r="P5" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
       <c r="Q5" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.76</v>
       </c>
       <c r="R5" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.78</v>
       </c>
       <c r="S5" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.94</v>
       </c>
       <c r="T5" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.5849519999999999</v>
       </c>
       <c r="U5" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>2.79</v>
       </c>
       <c r="V5" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>444</v>
       </c>
       <c r="W5" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="X5" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>423.28042328042329</v>
       </c>
       <c r="Y5" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="Z5" s="11">
@@ -3057,43 +3068,43 @@
         <v>400</v>
       </c>
       <c r="AA5" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1512</v>
       </c>
       <c r="AB5" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>94.000000000000057</v>
       </c>
       <c r="AC5" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>200</v>
       </c>
       <c r="AD5" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE5" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>9.0095999999999776</v>
       </c>
       <c r="AF5" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG5" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>192.00959999999992</v>
       </c>
       <c r="AH5" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>2.0426553191489343</v>
       </c>
       <c r="AI5" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.9384999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3131,55 +3142,55 @@
         <v>2</v>
       </c>
       <c r="M6" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N6" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O6" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>3.38</v>
       </c>
       <c r="P6" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.61791590493601456</v>
       </c>
       <c r="Q6" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.2054</v>
       </c>
       <c r="R6" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.25</v>
       </c>
       <c r="S6" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.29</v>
       </c>
       <c r="T6" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.3163400000000003</v>
       </c>
       <c r="U6" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>-0.09</v>
       </c>
       <c r="V6" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1961</v>
       </c>
       <c r="W6" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1900</v>
       </c>
       <c r="X6" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>543.58974358974365</v>
       </c>
       <c r="Y6" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z6" s="11">
@@ -3187,45 +3198,45 @@
         <v>500</v>
       </c>
       <c r="AA6" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1625</v>
       </c>
       <c r="AB6" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>50.000000000000014</v>
       </c>
       <c r="AC6" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD6" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE6" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>250.0979999999999</v>
       </c>
       <c r="AF6" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG6" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>903.09799999999996</v>
       </c>
       <c r="AH6" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>18.061959999999996</v>
       </c>
       <c r="AI6" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>0.41100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2">
         <v>5300</v>
@@ -3234,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="2">
-        <v>7.62</v>
+        <v>7.7</v>
       </c>
       <c r="E7" s="2">
         <v>9.0399999999999991</v>
@@ -3261,55 +3272,55 @@
         <v>2</v>
       </c>
       <c r="M7" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N7" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O7" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>1.419999999999999</v>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>1.339999999999999</v>
       </c>
       <c r="P7" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>0.18635170603674522</v>
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>0.17402597402597397</v>
       </c>
       <c r="Q7" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>8.5713999999999988</v>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>8.5977999999999994</v>
       </c>
       <c r="R7" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>8.56</v>
+      </c>
+      <c r="S7" s="20">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="S7" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>8.49</v>
-      </c>
       <c r="T7" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>9.4891132000000002</v>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>9.5224864000000018</v>
       </c>
       <c r="U7" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>11.56</v>
       </c>
       <c r="V7" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>1961</v>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>2614</v>
       </c>
       <c r="W7" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>1900</v>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>2600</v>
       </c>
       <c r="X7" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
-        <v>207.11215318483787</v>
+        <f>([PATRIM.] / 3) / [START]</f>
+        <v>206.38629283489095</v>
       </c>
       <c r="Y7" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Z7" s="11">
@@ -3317,40 +3328,40 @@
         <v>200</v>
       </c>
       <c r="AA7" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>1705.9999999999998</v>
+        <f>[QTDE] * [START]</f>
+        <v>1712</v>
       </c>
       <c r="AB7" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>37.999999999999829</v>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>36.000000000000227</v>
       </c>
       <c r="AC7" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>100</v>
       </c>
       <c r="AD7" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>100</v>
       </c>
       <c r="AE7" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>65.911320000000089</v>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <v>66.248640000000137</v>
       </c>
       <c r="AF7" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG7" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>353.91132000000022</v>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <v>351.24864000000014</v>
       </c>
       <c r="AH7" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>9.313455789473732</v>
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>9.7569066666666089</v>
       </c>
       <c r="AI7" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>11.105499999999999</v>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>11.11</v>
       </c>
     </row>
   </sheetData>
@@ -3367,14 +3378,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3405,7 +3419,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -3494,222 +3508,112 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5173.08</v>
-      </c>
-      <c r="C2" s="6">
+    <row r="2" spans="1:29">
+      <c r="A2" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="36">
+        <v>5300</v>
+      </c>
+      <c r="C2" s="37">
         <v>26</v>
       </c>
-      <c r="D2" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5.07</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6.24</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5.09</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4.87</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="J2" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
-        <v>3828.0791999999997</v>
-      </c>
-      <c r="L2" s="2">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>76.561583999999996</v>
-      </c>
-      <c r="M2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
-        <v>3.629999999999999</v>
-      </c>
-      <c r="N2" s="4">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
-        <v>-0.41724137931034477</v>
-      </c>
-      <c r="O2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
-        <v>4.8500000000000005</v>
-      </c>
-      <c r="P2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
-        <v>5.1099999999999994</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
-        <v>4.1407602500000005</v>
-      </c>
-      <c r="R2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
-        <v>2.6100000000000012</v>
-      </c>
-      <c r="S2" s="6">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
-        <v>348</v>
-      </c>
-      <c r="T2" s="6">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+      <c r="D2" s="36">
+        <v>12.36</v>
+      </c>
+      <c r="E2" s="36">
+        <v>8.84</v>
+      </c>
+      <c r="F2" s="36">
+        <v>11.17</v>
+      </c>
+      <c r="G2" s="36">
+        <v>11.07</v>
+      </c>
+      <c r="H2" s="36">
+        <v>10.82</v>
+      </c>
+      <c r="I2" s="38">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="J2" s="39">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <v>3922</v>
+      </c>
+      <c r="L2" s="36">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>78.44</v>
+      </c>
+      <c r="M2" s="36">
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
+        <v>3.5199999999999996</v>
+      </c>
+      <c r="N2" s="38">
+        <f>[MEIO] / [INICIO] - 1</f>
+        <v>-0.28478964401294493</v>
+      </c>
+      <c r="O2" s="40">
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
+        <v>10.8</v>
+      </c>
+      <c r="P2" s="41">
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
+        <v>11.09</v>
+      </c>
+      <c r="Q2" s="41">
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>9.5214960000000008</v>
+      </c>
+      <c r="R2" s="41">
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
+        <v>7.65</v>
+      </c>
+      <c r="S2" s="42">
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <v>313</v>
+      </c>
+      <c r="T2" s="42">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>300</v>
       </c>
-      <c r="U2" s="12">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
-        <v>1455.0000000000002</v>
-      </c>
-      <c r="V2" s="12">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
-        <v>77.999999999999673</v>
-      </c>
-      <c r="W2" s="6">
-        <f>Tabela13[QTDE] / 2</f>
+      <c r="U2" s="41">
+        <f>[QTDE] * [START]</f>
+        <v>3240</v>
+      </c>
+      <c r="V2" s="41">
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <v>86.999999999999744</v>
+      </c>
+      <c r="W2" s="37">
+        <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
-      <c r="X2" s="6">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+      <c r="X2" s="37">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
-      <c r="Y2" s="12">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>141.84795000000003</v>
-      </c>
-      <c r="Z2" s="6">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+      <c r="Y2" s="40">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>255.70079999999996</v>
+      </c>
+      <c r="Z2" s="37">
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
-      <c r="AA2" s="12">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>365.84794999999997</v>
-      </c>
-      <c r="AB2" s="5">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>4.6903583333333527</v>
-      </c>
-      <c r="AC2" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
-        <v>2.9460000000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5173.08</v>
-      </c>
-      <c r="C3" s="6">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2">
-        <v>29.37</v>
-      </c>
-      <c r="E3" s="2">
-        <v>22.56</v>
-      </c>
-      <c r="F3" s="2">
-        <v>22.56</v>
-      </c>
-      <c r="G3" s="2">
-        <v>19.53</v>
-      </c>
-      <c r="H3" s="2">
-        <v>19.28</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="J3" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
-        <v>3828.0791999999997</v>
-      </c>
-      <c r="L3" s="2">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>76.561583999999996</v>
-      </c>
-      <c r="M3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
-        <v>6.8100000000000023</v>
-      </c>
-      <c r="N3" s="4">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
-        <v>-0.23186925434116457</v>
-      </c>
-      <c r="O3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
-        <v>19.260000000000002</v>
-      </c>
-      <c r="P3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
-        <v>19.55</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
-        <v>18.040842000000001</v>
-      </c>
-      <c r="R3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
-        <v>15.749999999999996</v>
-      </c>
-      <c r="S3" s="6">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
-        <v>306</v>
-      </c>
-      <c r="T3" s="6">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
-        <v>300</v>
-      </c>
-      <c r="U3" s="12">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
-        <v>5778.0000000000009</v>
-      </c>
-      <c r="V3" s="12">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
-        <v>86.999999999999744</v>
-      </c>
-      <c r="W3" s="6">
-        <f>Tabela13[QTDE] / 2</f>
-        <v>150</v>
-      </c>
-      <c r="X3" s="6">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
-        <v>200</v>
-      </c>
-      <c r="Y3" s="12">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>243.83160000000004</v>
-      </c>
-      <c r="Z3" s="6">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
-        <v>100</v>
-      </c>
-      <c r="AA3" s="12">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>594.83160000000055</v>
-      </c>
-      <c r="AB3" s="5">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>6.8371448275862337</v>
-      </c>
-      <c r="AC3" s="13">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
-        <v>16.276499999999999</v>
+      <c r="AA2" s="41">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>570.70080000000007</v>
+      </c>
+      <c r="AB2" s="43">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>6.5597793103448474</v>
+      </c>
+      <c r="AC2" s="40">
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>8.1225000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3722,14 +3626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3737,7 +3641,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3745,7 +3649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -3757,7 +3661,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -3769,7 +3673,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -3781,7 +3685,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -3793,7 +3697,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -3805,7 +3709,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -3823,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3833,7 +3737,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -3846,7 +3750,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3857,42 +3761,42 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>2.74</v>
@@ -3904,35 +3808,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -3940,13 +3844,13 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
         <v>3.23</v>
@@ -3958,35 +3862,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -3994,11 +3898,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -4012,35 +3916,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -4048,11 +3952,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4064,35 +3968,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -4100,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="24">
         <v>8.52</v>
@@ -4118,35 +4022,35 @@
         <v>7.49</v>
       </c>
       <c r="E6" s="24">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.21</v>
       </c>
       <c r="F6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>7.0399999999999991</v>
       </c>
       <c r="G6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>7.42</v>
       </c>
       <c r="H6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.64</v>
       </c>
       <c r="I6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
       <c r="J6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="K6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
       <c r="L6" s="25">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
       <c r="M6" s="25">
@@ -4154,7 +4058,7 @@
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="N6" s="25">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="WTSa" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>INICIO</t>
   </si>
@@ -286,16 +286,19 @@
   </si>
   <si>
     <t>BVMF3</t>
+  </si>
+  <si>
+    <t>INEP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +360,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -385,52 +389,52 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -456,6 +460,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -734,7 +774,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -770,7 +810,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -806,7 +846,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -860,25 +900,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -932,61 +972,43 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1280,7 +1302,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1316,7 +1338,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1352,7 +1374,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1406,25 +1428,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1532,79 +1536,79 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1948,73 +1952,73 @@
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="BASE RV" dataDxfId="69" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="RISCO" dataDxfId="68" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="67" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="66" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="RETORNO" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="64" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="63">
-      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="PARCIAL" dataDxfId="62">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="61">
-      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="60">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE A" dataDxfId="59">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="58">
-      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
+      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="33" name="QTDE MAX" dataDxfId="57">
-      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="32" name="QTDE" dataDxfId="56">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="55">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="54">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="53" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="52" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="51">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="50" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="49">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="48" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="47" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="0">
+      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="54" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="53" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="52">
+      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="51" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="50">
+      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="49" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="48" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2022,75 +2026,75 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC2" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A1:AC2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="44"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="38" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="37" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem"/>
-    <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="29">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="28">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="27">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="25">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="24">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="23">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="31" name="ATIVO" dataDxfId="45"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="44" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="37" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="36" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" name="BASE RV" dataDxfId="35" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="34" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="33" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="32" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="31" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="30">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="29">
+      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="1">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]) - 0.02, Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]) + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="28">
+      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="27">
+      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="26">
+      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="25">
+      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="24" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="23" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="22">
+      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="21" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="20">
+      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="18" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2098,42 +2102,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="13"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="ATIVO" dataDxfId="15"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="11" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="33%" dataDxfId="10" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="50%" dataDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="60%" dataDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="DIF 33%" dataDxfId="7" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="DIF 50%" dataDxfId="6" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="DIF 60%" dataDxfId="5" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="% PERNA" dataDxfId="4" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2215,6 +2219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2249,6 +2254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2424,17 +2430,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T25" sqref="T25"/>
+      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2473,7 +2479,7 @@
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="33" customFormat="1">
+    <row r="2" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2619,55 +2625,55 @@
         <v>1</v>
       </c>
       <c r="M2" s="26">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N2" s="26">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O2" s="26">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="P2" s="28">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
       <c r="Q2" s="26">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
       <c r="R2" s="26">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
       <c r="S2" s="26">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
       <c r="T2" s="26">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.4662858999999995</v>
       </c>
       <c r="U2" s="26">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.84</v>
       </c>
       <c r="V2" s="27">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W2" s="27">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X2" s="27">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>394.08866995073896</v>
       </c>
       <c r="Y2" s="27">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="Z2" s="27">
@@ -2675,43 +2681,43 @@
         <v>300</v>
       </c>
       <c r="AA2" s="31">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1217.9999999999998</v>
       </c>
       <c r="AB2" s="31">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>51.000000000000085</v>
       </c>
       <c r="AC2" s="27">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="AD2" s="27">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE2" s="31">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>88.742820000000023</v>
       </c>
       <c r="AF2" s="27">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG2" s="31">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>295.74281999999999</v>
       </c>
       <c r="AH2" s="32">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>5.7988788235294022</v>
       </c>
       <c r="AI2" s="26">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>39</v>
       </c>
@@ -2750,55 +2756,55 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N3" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O3" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>0.45999999999999996</v>
       </c>
       <c r="P3" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.18110236220472442</v>
       </c>
       <c r="Q3" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>2.31</v>
       </c>
       <c r="R3" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="S3" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>2.35</v>
       </c>
       <c r="T3" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.080228</v>
       </c>
       <c r="U3" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.89</v>
       </c>
       <c r="V3" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>2367</v>
       </c>
       <c r="W3" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
       <c r="X3" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>689.65517241379314</v>
       </c>
       <c r="Y3" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>600</v>
       </c>
       <c r="Z3" s="11">
@@ -2806,43 +2812,43 @@
         <v>600</v>
       </c>
       <c r="AA3" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1392</v>
       </c>
       <c r="AB3" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>48.000000000000149</v>
       </c>
       <c r="AC3" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>300</v>
       </c>
       <c r="AD3" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE3" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>41.93159999999996</v>
       </c>
       <c r="AF3" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>300</v>
       </c>
       <c r="AG3" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>155.93159999999995</v>
       </c>
       <c r="AH3" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>3.2485749999999887</v>
       </c>
       <c r="AI3" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>1.9544999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
@@ -2881,55 +2887,55 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N4" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O4" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.9400000000000004</v>
       </c>
       <c r="P4" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.48138957816377181</v>
       </c>
       <c r="Q4" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.06</v>
       </c>
       <c r="R4" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.09</v>
       </c>
       <c r="S4" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.16</v>
       </c>
       <c r="T4" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.9305559999999997</v>
       </c>
       <c r="U4" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.22</v>
       </c>
       <c r="V4" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W4" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X4" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>517.79935275080913</v>
       </c>
       <c r="Y4" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z4" s="11">
@@ -2937,43 +2943,43 @@
         <v>500</v>
       </c>
       <c r="AA4" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1545</v>
       </c>
       <c r="AB4" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>65.000000000000142</v>
       </c>
       <c r="AC4" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD4" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE4" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>17.833200000000041</v>
       </c>
       <c r="AF4" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG4" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>376.83320000000003</v>
       </c>
       <c r="AH4" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>5.7974338461538339</v>
       </c>
       <c r="AI4" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>1.5004999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
@@ -3012,55 +3018,55 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N5" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O5" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.1599999999999997</v>
       </c>
       <c r="P5" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
       <c r="Q5" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.76</v>
       </c>
       <c r="R5" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.78</v>
       </c>
       <c r="S5" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.94</v>
       </c>
       <c r="T5" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.5849519999999999</v>
       </c>
       <c r="U5" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>2.79</v>
       </c>
       <c r="V5" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>444</v>
       </c>
       <c r="W5" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="X5" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>423.28042328042329</v>
       </c>
       <c r="Y5" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="Z5" s="11">
@@ -3068,43 +3074,43 @@
         <v>400</v>
       </c>
       <c r="AA5" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1512</v>
       </c>
       <c r="AB5" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>94.000000000000057</v>
       </c>
       <c r="AC5" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>200</v>
       </c>
       <c r="AD5" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE5" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>9.0095999999999776</v>
       </c>
       <c r="AF5" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG5" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>192.00959999999992</v>
       </c>
       <c r="AH5" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>2.0426553191489343</v>
       </c>
       <c r="AI5" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.9384999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3142,55 +3148,55 @@
         <v>2</v>
       </c>
       <c r="M6" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N6" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O6" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>3.38</v>
       </c>
       <c r="P6" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.61791590493601456</v>
       </c>
       <c r="Q6" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.2054</v>
       </c>
       <c r="R6" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.25</v>
       </c>
       <c r="S6" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.29</v>
       </c>
       <c r="T6" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.3163400000000003</v>
       </c>
       <c r="U6" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>-0.09</v>
       </c>
       <c r="V6" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1961</v>
       </c>
       <c r="W6" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1900</v>
       </c>
       <c r="X6" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>543.58974358974365</v>
       </c>
       <c r="Y6" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z6" s="11">
@@ -3198,43 +3204,43 @@
         <v>500</v>
       </c>
       <c r="AA6" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1625</v>
       </c>
       <c r="AB6" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>50.000000000000014</v>
       </c>
       <c r="AC6" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD6" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE6" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>250.0979999999999</v>
       </c>
       <c r="AF6" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG6" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>903.09799999999996</v>
       </c>
       <c r="AH6" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>18.061959999999996</v>
       </c>
       <c r="AI6" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>0.41100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -3272,55 +3278,55 @@
         <v>2</v>
       </c>
       <c r="M7" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N7" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O7" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.339999999999999</v>
       </c>
       <c r="P7" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>0.17402597402597397</v>
       </c>
       <c r="Q7" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>8.5977999999999994</v>
       </c>
       <c r="R7" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>8.56</v>
       </c>
       <c r="S7" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>8.5299999999999994</v>
       </c>
       <c r="T7" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>9.5224864000000018</v>
       </c>
       <c r="U7" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>11.56</v>
       </c>
       <c r="V7" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>2614</v>
       </c>
       <c r="W7" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>2600</v>
       </c>
       <c r="X7" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>206.38629283489095</v>
       </c>
       <c r="Y7" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Z7" s="11">
@@ -3328,39 +3334,39 @@
         <v>200</v>
       </c>
       <c r="AA7" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1712</v>
       </c>
       <c r="AB7" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>36.000000000000227</v>
       </c>
       <c r="AC7" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>100</v>
       </c>
       <c r="AD7" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>100</v>
       </c>
       <c r="AE7" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>66.248640000000137</v>
       </c>
       <c r="AF7" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG7" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>351.24864000000014</v>
       </c>
       <c r="AH7" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>9.7569066666666089</v>
       </c>
       <c r="AI7" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>11.11</v>
       </c>
     </row>
@@ -3378,17 +3384,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3408,7 +3414,7 @@
     <col min="19" max="19" width="10.140625" style="11" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" style="9" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -3419,7 +3425,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>55</v>
       </c>
@@ -3540,80 +3546,188 @@
         <v>2</v>
       </c>
       <c r="K2" s="36">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="L2" s="36">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="M2" s="36">
-        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
         <v>3.5199999999999996</v>
       </c>
       <c r="N2" s="38">
-        <f>[MEIO] / [INICIO] - 1</f>
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
         <v>-0.28478964401294493</v>
       </c>
       <c r="O2" s="40">
-        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
         <v>10.8</v>
       </c>
       <c r="P2" s="41">
-        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
         <v>11.09</v>
       </c>
       <c r="Q2" s="41">
-        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
         <v>9.5214960000000008</v>
       </c>
       <c r="R2" s="41">
-        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
-        <v>7.65</v>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]) - 0.02, Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]) + 0.02)</f>
+        <v>7.67</v>
       </c>
       <c r="S2" s="42">
-        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
         <v>313</v>
       </c>
       <c r="T2" s="42">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U2" s="41">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
         <v>3240</v>
       </c>
       <c r="V2" s="41">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
         <v>86.999999999999744</v>
       </c>
       <c r="W2" s="37">
-        <f>[QTDE] / 2</f>
+        <f>Tabela13[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X2" s="37">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y2" s="40">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
         <v>255.70079999999996</v>
       </c>
       <c r="Z2" s="37">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA2" s="41">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
-        <v>570.70080000000007</v>
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
+        <v>568.70080000000007</v>
       </c>
       <c r="AB2" s="43">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>6.5597793103448474</v>
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
+        <v>6.5367908045977208</v>
       </c>
       <c r="AC2" s="40">
-        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>8.1225000000000005</v>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <v>8.1395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="36">
+        <v>6000</v>
+      </c>
+      <c r="C3" s="37">
+        <v>26</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1.83</v>
+      </c>
+      <c r="E3" s="36">
+        <v>2.81</v>
+      </c>
+      <c r="F3" s="36">
+        <v>1.83</v>
+      </c>
+      <c r="G3" s="36">
+        <v>1.9</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1.83</v>
+      </c>
+      <c r="I3" s="38">
+        <v>0.436</v>
+      </c>
+      <c r="J3" s="39">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <v>4440</v>
+      </c>
+      <c r="L3" s="2">
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>88.8</v>
+      </c>
+      <c r="M3" s="2">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <v>0.98</v>
+      </c>
+      <c r="N3" s="4">
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <v>0.53551912568306004</v>
+      </c>
+      <c r="O3" s="12">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <v>1.92</v>
+      </c>
+      <c r="P3" s="20">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <v>1.81</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <v>2.1711360000000002</v>
+      </c>
+      <c r="R3" s="20">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]) - 0.02, Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]) + 0.02)</f>
+        <v>2.79</v>
+      </c>
+      <c r="S3" s="11">
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+        <v>1268</v>
+      </c>
+      <c r="T3" s="11">
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+        <v>1200</v>
+      </c>
+      <c r="U3" s="20">
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
+        <v>2304</v>
+      </c>
+      <c r="V3" s="20">
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+        <v>131.99999999999986</v>
+      </c>
+      <c r="W3" s="6">
+        <f>Tabela13[QTDE] / 2</f>
+        <v>600</v>
+      </c>
+      <c r="X3" s="6">
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+        <v>600</v>
+      </c>
+      <c r="Y3" s="12">
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
+        <v>150.68160000000015</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+        <v>600</v>
+      </c>
+      <c r="AA3" s="20">
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
+        <v>672.68160000000023</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
+        <v>5.0960727272727349</v>
+      </c>
+      <c r="AC3" s="12">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <v>2.6595</v>
       </c>
     </row>
   </sheetData>
@@ -3626,14 +3740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3641,7 +3755,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3649,7 +3763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -3661,7 +3775,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -3673,7 +3787,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -3685,7 +3799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -3697,7 +3811,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -3709,7 +3823,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -3727,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3737,7 +3851,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -3750,7 +3864,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3794,7 +3908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -3808,35 +3922,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -3844,11 +3958,11 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3862,35 +3976,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -3898,11 +4012,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3916,35 +4030,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -3952,11 +4066,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3968,35 +4082,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -4004,11 +4118,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>49</v>
       </c>
@@ -4022,35 +4136,35 @@
         <v>7.49</v>
       </c>
       <c r="E6" s="24">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>2.21</v>
       </c>
       <c r="F6" s="24">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>7.0399999999999991</v>
       </c>
       <c r="G6" s="24">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>7.42</v>
       </c>
       <c r="H6" s="24">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>7.64</v>
       </c>
       <c r="I6" s="25">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
       <c r="J6" s="25">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="K6" s="25">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
       <c r="L6" s="25">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
       <c r="M6" s="25">
@@ -4058,7 +4172,7 @@
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="N6" s="25">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>INICIO</t>
   </si>
@@ -286,19 +286,16 @@
   </si>
   <si>
     <t>BVMF3</t>
-  </si>
-  <si>
-    <t>INEP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,52 +386,52 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -460,42 +457,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -774,7 +735,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -810,7 +771,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -846,7 +807,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -900,25 +861,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -972,43 +933,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1302,7 +1281,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1338,7 +1317,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1374,7 +1353,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1428,7 +1407,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1536,79 +1533,79 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1952,73 +1949,73 @@
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="BASE RV" dataDxfId="69" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="RISCO" dataDxfId="68" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="67" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="66" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="RETORNO" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="64" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="63">
-      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="PARCIAL" dataDxfId="62">
-      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="61">
-      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="60">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE A" dataDxfId="59">
-      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="58">
-      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
+      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="33" name="QTDE MAX" dataDxfId="57">
-      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="32" name="QTDE" dataDxfId="56">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="55">
-      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="0">
-      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="54" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="53" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="52">
-      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="51" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="50">
-      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="49" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="48" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="54">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="53" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="52" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="51">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="50" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="49">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="48" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="47" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2026,75 +2023,75 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:AC3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC2" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A1:AC2"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="45"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="44" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="38" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="37" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="36" dataCellStyle="Porcentagem"/>
-    <tableColumn id="7" name="BASE RV" dataDxfId="35" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="33" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="32" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="31" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="30">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="29">
-      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="1">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]) - 0.02, Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]) + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="28">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="27">
-      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="26">
-      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="25">
-      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="24" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="23" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="22">
-      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="20">
-      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="18" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="31" name="ATIVO" dataDxfId="44"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="37" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="29">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="28">
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="27">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="25">
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="24">
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="23">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2102,42 +2099,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="15"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="14" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="11" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="10" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="9" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="8" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="7" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="6" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="4" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="ATIVO" dataDxfId="13"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2219,7 +2216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2254,7 +2250,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2430,17 +2425,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2479,7 +2474,7 @@
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -2586,7 +2581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="33" customFormat="1">
       <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2625,55 +2620,55 @@
         <v>1</v>
       </c>
       <c r="M2" s="26">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N2" s="26">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O2" s="26">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="P2" s="28">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
       <c r="Q2" s="26">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
       <c r="R2" s="26">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
       <c r="S2" s="26">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
       <c r="T2" s="26">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.4662858999999995</v>
       </c>
       <c r="U2" s="26">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.84</v>
       </c>
       <c r="V2" s="27">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W2" s="27">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X2" s="27">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>394.08866995073896</v>
       </c>
       <c r="Y2" s="27">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="Z2" s="27">
@@ -2681,43 +2676,43 @@
         <v>300</v>
       </c>
       <c r="AA2" s="31">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1217.9999999999998</v>
       </c>
       <c r="AB2" s="31">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>51.000000000000085</v>
       </c>
       <c r="AC2" s="27">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="AD2" s="27">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE2" s="31">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>88.742820000000023</v>
       </c>
       <c r="AF2" s="27">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG2" s="31">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>295.74281999999999</v>
       </c>
       <c r="AH2" s="32">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.7988788235294022</v>
       </c>
       <c r="AI2" s="26">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="21" t="s">
         <v>39</v>
       </c>
@@ -2756,55 +2751,55 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N3" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O3" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>0.45999999999999996</v>
       </c>
       <c r="P3" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.18110236220472442</v>
       </c>
       <c r="Q3" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>2.31</v>
       </c>
       <c r="R3" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="S3" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>2.35</v>
       </c>
       <c r="T3" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.080228</v>
       </c>
       <c r="U3" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.89</v>
       </c>
       <c r="V3" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>2367</v>
       </c>
       <c r="W3" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
       <c r="X3" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>689.65517241379314</v>
       </c>
       <c r="Y3" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>600</v>
       </c>
       <c r="Z3" s="11">
@@ -2812,43 +2807,43 @@
         <v>600</v>
       </c>
       <c r="AA3" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1392</v>
       </c>
       <c r="AB3" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>48.000000000000149</v>
       </c>
       <c r="AC3" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>300</v>
       </c>
       <c r="AD3" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE3" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>41.93159999999996</v>
       </c>
       <c r="AF3" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>300</v>
       </c>
       <c r="AG3" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>155.93159999999995</v>
       </c>
       <c r="AH3" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>3.2485749999999887</v>
       </c>
       <c r="AI3" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>1.9544999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
@@ -2887,55 +2882,55 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N4" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O4" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.9400000000000004</v>
       </c>
       <c r="P4" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.48138957816377181</v>
       </c>
       <c r="Q4" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.06</v>
       </c>
       <c r="R4" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.09</v>
       </c>
       <c r="S4" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.16</v>
       </c>
       <c r="T4" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.9305559999999997</v>
       </c>
       <c r="U4" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.22</v>
       </c>
       <c r="V4" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W4" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X4" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>517.79935275080913</v>
       </c>
       <c r="Y4" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z4" s="11">
@@ -2943,43 +2938,43 @@
         <v>500</v>
       </c>
       <c r="AA4" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1545</v>
       </c>
       <c r="AB4" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>65.000000000000142</v>
       </c>
       <c r="AC4" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD4" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE4" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>17.833200000000041</v>
       </c>
       <c r="AF4" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG4" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>376.83320000000003</v>
       </c>
       <c r="AH4" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.7974338461538339</v>
       </c>
       <c r="AI4" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>1.5004999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
@@ -3018,55 +3013,55 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N5" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O5" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.1599999999999997</v>
       </c>
       <c r="P5" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
       <c r="Q5" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.76</v>
       </c>
       <c r="R5" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.78</v>
       </c>
       <c r="S5" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.94</v>
       </c>
       <c r="T5" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.5849519999999999</v>
       </c>
       <c r="U5" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>2.79</v>
       </c>
       <c r="V5" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>444</v>
       </c>
       <c r="W5" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="X5" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>423.28042328042329</v>
       </c>
       <c r="Y5" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="Z5" s="11">
@@ -3074,43 +3069,43 @@
         <v>400</v>
       </c>
       <c r="AA5" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1512</v>
       </c>
       <c r="AB5" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>94.000000000000057</v>
       </c>
       <c r="AC5" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>200</v>
       </c>
       <c r="AD5" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE5" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>9.0095999999999776</v>
       </c>
       <c r="AF5" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG5" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>192.00959999999992</v>
       </c>
       <c r="AH5" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>2.0426553191489343</v>
       </c>
       <c r="AI5" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.9384999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,55 +3143,55 @@
         <v>2</v>
       </c>
       <c r="M6" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N6" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O6" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>3.38</v>
       </c>
       <c r="P6" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.61791590493601456</v>
       </c>
       <c r="Q6" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.2054</v>
       </c>
       <c r="R6" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.25</v>
       </c>
       <c r="S6" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.29</v>
       </c>
       <c r="T6" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.3163400000000003</v>
       </c>
       <c r="U6" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>-0.09</v>
       </c>
       <c r="V6" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1961</v>
       </c>
       <c r="W6" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1900</v>
       </c>
       <c r="X6" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>543.58974358974365</v>
       </c>
       <c r="Y6" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z6" s="11">
@@ -3204,43 +3199,43 @@
         <v>500</v>
       </c>
       <c r="AA6" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1625</v>
       </c>
       <c r="AB6" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>50.000000000000014</v>
       </c>
       <c r="AC6" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD6" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE6" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>250.0979999999999</v>
       </c>
       <c r="AF6" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG6" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>903.09799999999996</v>
       </c>
       <c r="AH6" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>18.061959999999996</v>
       </c>
       <c r="AI6" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>0.41100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -3278,55 +3273,55 @@
         <v>2</v>
       </c>
       <c r="M7" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N7" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O7" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.339999999999999</v>
       </c>
       <c r="P7" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>0.17402597402597397</v>
       </c>
       <c r="Q7" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>8.5977999999999994</v>
       </c>
       <c r="R7" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>8.56</v>
       </c>
       <c r="S7" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>8.5299999999999994</v>
       </c>
       <c r="T7" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>9.5224864000000018</v>
       </c>
       <c r="U7" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>11.56</v>
       </c>
       <c r="V7" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>2614</v>
       </c>
       <c r="W7" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>2600</v>
       </c>
       <c r="X7" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>206.38629283489095</v>
       </c>
       <c r="Y7" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Z7" s="11">
@@ -3334,39 +3329,39 @@
         <v>200</v>
       </c>
       <c r="AA7" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1712</v>
       </c>
       <c r="AB7" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>36.000000000000227</v>
       </c>
       <c r="AC7" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>100</v>
       </c>
       <c r="AD7" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>100</v>
       </c>
       <c r="AE7" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>66.248640000000137</v>
       </c>
       <c r="AF7" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG7" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>351.24864000000014</v>
       </c>
       <c r="AH7" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>9.7569066666666089</v>
       </c>
       <c r="AI7" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>11.11</v>
       </c>
     </row>
@@ -3384,17 +3379,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3414,7 +3409,7 @@
     <col min="19" max="19" width="10.140625" style="11" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" style="9" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -3425,7 +3420,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -3514,7 +3509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="35" t="s">
         <v>55</v>
       </c>
@@ -3543,191 +3538,83 @@
         <v>0.39460000000000001</v>
       </c>
       <c r="J2" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="36">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="L2" s="36">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="M2" s="36">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>3.5199999999999996</v>
       </c>
       <c r="N2" s="38">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.28478964401294493</v>
       </c>
       <c r="O2" s="40">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>10.8</v>
       </c>
       <c r="P2" s="41">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>11.09</v>
       </c>
       <c r="Q2" s="41">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
-        <v>9.5214960000000008</v>
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>10.160748000000002</v>
       </c>
       <c r="R2" s="41">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]) - 0.02, Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]) + 0.02)</f>
-        <v>7.67</v>
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
+        <v>7.65</v>
       </c>
       <c r="S2" s="42">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
         <v>313</v>
       </c>
       <c r="T2" s="42">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U2" s="41">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>3240</v>
       </c>
       <c r="V2" s="41">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>86.999999999999744</v>
       </c>
       <c r="W2" s="37">
-        <f>Tabela13[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X2" s="37">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y2" s="40">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>255.70079999999996</v>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>127.85039999999981</v>
       </c>
       <c r="Z2" s="37">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA2" s="41">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>568.70080000000007</v>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>442.85039999999987</v>
       </c>
       <c r="AB2" s="43">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>6.5367908045977208</v>
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>5.0902344827586345</v>
       </c>
       <c r="AC2" s="40">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
-        <v>8.1395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="36">
-        <v>6000</v>
-      </c>
-      <c r="C3" s="37">
-        <v>26</v>
-      </c>
-      <c r="D3" s="36">
-        <v>1.83</v>
-      </c>
-      <c r="E3" s="36">
-        <v>2.81</v>
-      </c>
-      <c r="F3" s="36">
-        <v>1.83</v>
-      </c>
-      <c r="G3" s="36">
-        <v>1.9</v>
-      </c>
-      <c r="H3" s="36">
-        <v>1.83</v>
-      </c>
-      <c r="I3" s="38">
-        <v>0.436</v>
-      </c>
-      <c r="J3" s="39">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
-        <v>4440</v>
-      </c>
-      <c r="L3" s="2">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>88.8</v>
-      </c>
-      <c r="M3" s="2">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
-        <v>0.98</v>
-      </c>
-      <c r="N3" s="4">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
-        <v>0.53551912568306004</v>
-      </c>
-      <c r="O3" s="12">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
-        <v>1.92</v>
-      </c>
-      <c r="P3" s="20">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
-        <v>1.81</v>
-      </c>
-      <c r="Q3" s="20">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
-        <v>2.1711360000000002</v>
-      </c>
-      <c r="R3" s="20">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]) - 0.02, Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]) + 0.02)</f>
-        <v>2.79</v>
-      </c>
-      <c r="S3" s="11">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
-        <v>1268</v>
-      </c>
-      <c r="T3" s="11">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
-        <v>1200</v>
-      </c>
-      <c r="U3" s="20">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
-        <v>2304</v>
-      </c>
-      <c r="V3" s="20">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
-        <v>131.99999999999986</v>
-      </c>
-      <c r="W3" s="6">
-        <f>Tabela13[QTDE] / 2</f>
-        <v>600</v>
-      </c>
-      <c r="X3" s="6">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
-        <v>600</v>
-      </c>
-      <c r="Y3" s="12">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>150.68160000000015</v>
-      </c>
-      <c r="Z3" s="6">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
-        <v>600</v>
-      </c>
-      <c r="AA3" s="20">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>672.68160000000023</v>
-      </c>
-      <c r="AB3" s="5">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>5.0960727272727349</v>
-      </c>
-      <c r="AC3" s="12">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
-        <v>2.6595</v>
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>8.1225000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3740,14 +3627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3755,7 +3642,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3763,7 +3650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -3775,7 +3662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -3787,7 +3674,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -3799,7 +3686,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -3811,7 +3698,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -3823,7 +3710,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -3841,7 +3728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3851,7 +3738,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -3864,7 +3751,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3908,7 +3795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -3922,35 +3809,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -3958,11 +3845,11 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3976,35 +3863,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -4012,11 +3899,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -4030,35 +3917,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -4066,11 +3953,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4082,35 +3969,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -4118,11 +4005,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="s">
         <v>49</v>
       </c>
@@ -4136,35 +4023,35 @@
         <v>7.49</v>
       </c>
       <c r="E6" s="24">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.21</v>
       </c>
       <c r="F6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>7.0399999999999991</v>
       </c>
       <c r="G6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>7.42</v>
       </c>
       <c r="H6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.64</v>
       </c>
       <c r="I6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
       <c r="J6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="K6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
       <c r="L6" s="25">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
       <c r="M6" s="25">
@@ -4172,7 +4059,7 @@
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="N6" s="25">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WTSa" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>INICIO</t>
   </si>
@@ -291,11 +291,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +360,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -386,54 +392,61 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -735,7 +748,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -771,7 +784,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -807,7 +820,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -861,25 +874,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -933,61 +946,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1281,7 +1294,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1317,7 +1330,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1353,7 +1366,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1407,25 +1420,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1533,79 +1546,79 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1949,73 +1962,73 @@
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="BASE RV" dataDxfId="69" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="RISCO" dataDxfId="68" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="67" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="66" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="RETORNO" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="64" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="63">
-      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="PARCIAL" dataDxfId="62">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="61">
-      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="60">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE A" dataDxfId="59">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="58">
-      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
+      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="33" name="QTDE MAX" dataDxfId="57">
-      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="32" name="QTDE" dataDxfId="56">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="55">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="PERDA" dataDxfId="54">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="53" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="QTDE PAR" dataDxfId="52" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" name="LUCRO PAR" dataDxfId="51">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" name="QTDE ALVO" dataDxfId="50" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="LUCRO ALVO" dataDxfId="49">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" name="RISCO:1" dataDxfId="48" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="% 85" dataDxfId="47" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2023,8 +2036,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC2" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A1:AC2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
     <tableColumn id="31" name="ATIVO" dataDxfId="44"/>
     <tableColumn id="5" name="PATRIM." dataDxfId="43" dataCellStyle="Moeda"/>
@@ -2037,61 +2050,61 @@
     <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
     <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem"/>
     <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="29">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="PARCIAL" dataDxfId="28">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="27">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE" dataDxfId="25">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="24">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="PERDA" dataDxfId="23">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2107,34 +2120,34 @@
     <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
     <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
     <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
+      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
+      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2216,6 +2229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2250,6 +2264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2425,17 +2440,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2474,7 +2489,7 @@
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -2581,7 +2596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="33" customFormat="1">
+    <row r="2" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2620,55 +2635,55 @@
         <v>1</v>
       </c>
       <c r="M2" s="26">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N2" s="26">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O2" s="26">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="P2" s="28">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
       <c r="Q2" s="26">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
       <c r="R2" s="26">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
       <c r="S2" s="26">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
       <c r="T2" s="26">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.4662858999999995</v>
       </c>
       <c r="U2" s="26">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.84</v>
       </c>
       <c r="V2" s="27">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W2" s="27">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X2" s="27">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>394.08866995073896</v>
       </c>
       <c r="Y2" s="27">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="Z2" s="27">
@@ -2676,43 +2691,43 @@
         <v>300</v>
       </c>
       <c r="AA2" s="31">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1217.9999999999998</v>
       </c>
       <c r="AB2" s="31">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>51.000000000000085</v>
       </c>
       <c r="AC2" s="27">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="AD2" s="27">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE2" s="31">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>88.742820000000023</v>
       </c>
       <c r="AF2" s="27">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG2" s="31">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>295.74281999999999</v>
       </c>
       <c r="AH2" s="32">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>5.7988788235294022</v>
       </c>
       <c r="AI2" s="26">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>39</v>
       </c>
@@ -2751,55 +2766,55 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N3" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O3" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>0.45999999999999996</v>
       </c>
       <c r="P3" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.18110236220472442</v>
       </c>
       <c r="Q3" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>2.31</v>
       </c>
       <c r="R3" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="S3" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>2.35</v>
       </c>
       <c r="T3" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.080228</v>
       </c>
       <c r="U3" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.89</v>
       </c>
       <c r="V3" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>2367</v>
       </c>
       <c r="W3" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
       <c r="X3" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>689.65517241379314</v>
       </c>
       <c r="Y3" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>600</v>
       </c>
       <c r="Z3" s="11">
@@ -2807,43 +2822,43 @@
         <v>600</v>
       </c>
       <c r="AA3" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1392</v>
       </c>
       <c r="AB3" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>48.000000000000149</v>
       </c>
       <c r="AC3" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>300</v>
       </c>
       <c r="AD3" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE3" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>41.93159999999996</v>
       </c>
       <c r="AF3" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>300</v>
       </c>
       <c r="AG3" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>155.93159999999995</v>
       </c>
       <c r="AH3" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>3.2485749999999887</v>
       </c>
       <c r="AI3" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>1.9544999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
@@ -2882,55 +2897,55 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N4" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O4" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.9400000000000004</v>
       </c>
       <c r="P4" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.48138957816377181</v>
       </c>
       <c r="Q4" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.06</v>
       </c>
       <c r="R4" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.09</v>
       </c>
       <c r="S4" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.16</v>
       </c>
       <c r="T4" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.9305559999999997</v>
       </c>
       <c r="U4" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>1.22</v>
       </c>
       <c r="V4" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W4" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X4" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>517.79935275080913</v>
       </c>
       <c r="Y4" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z4" s="11">
@@ -2938,43 +2953,43 @@
         <v>500</v>
       </c>
       <c r="AA4" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1545</v>
       </c>
       <c r="AB4" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>65.000000000000142</v>
       </c>
       <c r="AC4" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD4" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE4" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>17.833200000000041</v>
       </c>
       <c r="AF4" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG4" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>376.83320000000003</v>
       </c>
       <c r="AH4" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>5.7974338461538339</v>
       </c>
       <c r="AI4" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>1.5004999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
@@ -3013,55 +3028,55 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N5" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O5" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.1599999999999997</v>
       </c>
       <c r="P5" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
       <c r="Q5" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.76</v>
       </c>
       <c r="R5" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.78</v>
       </c>
       <c r="S5" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.94</v>
       </c>
       <c r="T5" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>3.5849519999999999</v>
       </c>
       <c r="U5" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>2.79</v>
       </c>
       <c r="V5" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>444</v>
       </c>
       <c r="W5" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="X5" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>423.28042328042329</v>
       </c>
       <c r="Y5" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="Z5" s="11">
@@ -3069,43 +3084,43 @@
         <v>400</v>
       </c>
       <c r="AA5" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1512</v>
       </c>
       <c r="AB5" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>94.000000000000057</v>
       </c>
       <c r="AC5" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>200</v>
       </c>
       <c r="AD5" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE5" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>9.0095999999999776</v>
       </c>
       <c r="AF5" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG5" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>192.00959999999992</v>
       </c>
       <c r="AH5" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>2.0426553191489343</v>
       </c>
       <c r="AI5" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>2.9384999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3143,55 +3158,55 @@
         <v>2</v>
       </c>
       <c r="M6" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N6" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O6" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>3.38</v>
       </c>
       <c r="P6" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>-0.61791590493601456</v>
       </c>
       <c r="Q6" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>3.2054</v>
       </c>
       <c r="R6" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>3.25</v>
       </c>
       <c r="S6" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>3.29</v>
       </c>
       <c r="T6" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>2.3163400000000003</v>
       </c>
       <c r="U6" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>-0.09</v>
       </c>
       <c r="V6" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>1961</v>
       </c>
       <c r="W6" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>1900</v>
       </c>
       <c r="X6" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>543.58974358974365</v>
       </c>
       <c r="Y6" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z6" s="11">
@@ -3199,43 +3214,43 @@
         <v>500</v>
       </c>
       <c r="AA6" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1625</v>
       </c>
       <c r="AB6" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>50.000000000000014</v>
       </c>
       <c r="AC6" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD6" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE6" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>250.0979999999999</v>
       </c>
       <c r="AF6" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG6" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>903.09799999999996</v>
       </c>
       <c r="AH6" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>18.061959999999996</v>
       </c>
       <c r="AI6" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>0.41100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -3273,55 +3288,55 @@
         <v>2</v>
       </c>
       <c r="M7" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N7" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O7" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.339999999999999</v>
       </c>
       <c r="P7" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
+        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
         <v>0.17402597402597397</v>
       </c>
       <c r="Q7" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>8.5977999999999994</v>
       </c>
       <c r="R7" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>8.56</v>
       </c>
       <c r="S7" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>8.5299999999999994</v>
       </c>
       <c r="T7" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
         <v>9.5224864000000018</v>
       </c>
       <c r="U7" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>11.56</v>
       </c>
       <c r="V7" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>2614</v>
       </c>
       <c r="W7" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>2600</v>
       </c>
       <c r="X7" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>206.38629283489095</v>
       </c>
       <c r="Y7" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Z7" s="11">
@@ -3329,39 +3344,39 @@
         <v>200</v>
       </c>
       <c r="AA7" s="20">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>1712</v>
       </c>
       <c r="AB7" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>36.000000000000227</v>
       </c>
       <c r="AC7" s="6">
-        <f>[QTDE] / 2</f>
+        <f>Tabela1[QTDE] / 2</f>
         <v>100</v>
       </c>
       <c r="AD7" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
         <v>100</v>
       </c>
       <c r="AE7" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
         <v>66.248640000000137</v>
       </c>
       <c r="AF7" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG7" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
         <v>351.24864000000014</v>
       </c>
       <c r="AH7" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
         <v>9.7569066666666089</v>
       </c>
       <c r="AI7" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>11.11</v>
       </c>
     </row>
@@ -3379,17 +3394,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3409,7 +3424,7 @@
     <col min="19" max="19" width="10.140625" style="11" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" style="9" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -3420,7 +3435,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -3509,7 +3524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>55</v>
       </c>
@@ -3541,80 +3556,188 @@
         <v>1</v>
       </c>
       <c r="K2" s="36">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="L2" s="36">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="M2" s="36">
-        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
         <v>3.5199999999999996</v>
       </c>
       <c r="N2" s="38">
-        <f>[MEIO] / [INICIO] - 1</f>
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
         <v>-0.28478964401294493</v>
       </c>
       <c r="O2" s="40">
-        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
         <v>10.8</v>
       </c>
       <c r="P2" s="41">
-        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
         <v>11.09</v>
       </c>
       <c r="Q2" s="41">
-        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
         <v>10.160748000000002</v>
       </c>
       <c r="R2" s="41">
-        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
         <v>7.65</v>
       </c>
       <c r="S2" s="42">
-        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
         <v>313</v>
       </c>
       <c r="T2" s="42">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U2" s="41">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
         <v>3240</v>
       </c>
       <c r="V2" s="41">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
         <v>86.999999999999744</v>
       </c>
       <c r="W2" s="37">
-        <f>[QTDE] / 2</f>
+        <f>Tabela13[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X2" s="37">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y2" s="40">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
         <v>127.85039999999981</v>
       </c>
       <c r="Z2" s="37">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA2" s="41">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
         <v>442.85039999999987</v>
       </c>
       <c r="AB2" s="43">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
         <v>5.0902344827586345</v>
       </c>
       <c r="AC2" s="40">
-        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
         <v>8.1225000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="36">
+        <v>6100</v>
+      </c>
+      <c r="C3" s="37">
+        <v>26</v>
+      </c>
+      <c r="D3" s="36">
+        <v>4.34</v>
+      </c>
+      <c r="E3" s="36">
+        <v>3.18</v>
+      </c>
+      <c r="F3" s="36">
+        <v>3.78</v>
+      </c>
+      <c r="G3" s="36">
+        <v>3.78</v>
+      </c>
+      <c r="H3" s="36">
+        <v>3.6</v>
+      </c>
+      <c r="I3" s="38">
+        <v>0.72050000000000003</v>
+      </c>
+      <c r="J3" s="39">
+        <v>1</v>
+      </c>
+      <c r="K3" s="44">
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <v>4514</v>
+      </c>
+      <c r="L3" s="44">
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+        <v>90.28</v>
+      </c>
+      <c r="M3" s="44">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <v>1.1599999999999997</v>
+      </c>
+      <c r="N3" s="46">
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <v>-0.26728110599078336</v>
+      </c>
+      <c r="O3" s="47">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <v>3.58</v>
+      </c>
+      <c r="P3" s="48">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <v>3.8</v>
+      </c>
+      <c r="Q3" s="48">
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <v>3.1930915</v>
+      </c>
+      <c r="R3" s="48">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+        <v>2.62</v>
+      </c>
+      <c r="S3" s="49">
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+        <v>501</v>
+      </c>
+      <c r="T3" s="49">
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+        <v>500</v>
+      </c>
+      <c r="U3" s="48">
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
+        <v>1790</v>
+      </c>
+      <c r="V3" s="48">
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+        <v>109.99999999999987</v>
+      </c>
+      <c r="W3" s="45">
+        <f>Tabela13[QTDE] / 2</f>
+        <v>250</v>
+      </c>
+      <c r="X3" s="45">
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="Y3" s="47">
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
+        <v>116.07255000000004</v>
+      </c>
+      <c r="Z3" s="45">
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+        <v>200</v>
+      </c>
+      <c r="AA3" s="48">
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
+        <v>308.07255000000004</v>
+      </c>
+      <c r="AB3" s="50">
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
+        <v>2.8006595454545491</v>
+      </c>
+      <c r="AC3" s="47">
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <v>2.7640000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3627,14 +3750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3642,7 +3765,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +3773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -3662,7 +3785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -3674,7 +3797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -3686,7 +3809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -3698,7 +3821,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -3710,7 +3833,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -3728,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3861,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -3751,7 +3874,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3795,7 +3918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -3809,35 +3932,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -3845,11 +3968,11 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3863,35 +3986,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -3899,11 +4022,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3917,35 +4040,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -3953,11 +4076,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3969,35 +4092,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -4005,11 +4128,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>49</v>
       </c>
@@ -4023,35 +4146,35 @@
         <v>7.49</v>
       </c>
       <c r="E6" s="24">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>2.21</v>
       </c>
       <c r="F6" s="24">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>7.0399999999999991</v>
       </c>
       <c r="G6" s="24">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>7.42</v>
       </c>
       <c r="H6" s="24">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>7.64</v>
       </c>
       <c r="I6" s="25">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
       <c r="J6" s="25">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="K6" s="25">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
       <c r="L6" s="25">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
       <c r="M6" s="25">
@@ -4059,7 +4182,7 @@
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="N6" s="25">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="WTSa" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>INICIO</t>
   </si>
@@ -291,11 +291,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,15 +355,8 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,61 +385,64 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -744,25 +740,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -780,25 +776,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -816,25 +812,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -852,7 +848,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -870,43 +866,43 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -924,7 +920,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -942,79 +938,79 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1032,58 +1028,58 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1101,7 +1097,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1119,92 +1115,92 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1222,79 +1218,79 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1330,7 +1326,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1366,7 +1362,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1420,25 +1416,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1546,79 +1542,79 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1944,8 +1940,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AI7" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:AI7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AI8" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:AI8"/>
   <tableColumns count="35">
     <tableColumn id="31" name="ATIVO" dataDxfId="81"/>
     <tableColumn id="5" name="PATRIM." dataDxfId="80" dataCellStyle="Moeda"/>
@@ -1962,73 +1958,73 @@
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="BASE RV" dataDxfId="69" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="RISCO" dataDxfId="68" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="67" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="66" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="RETORNO" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="64" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="63">
-      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="PARCIAL" dataDxfId="62">
-      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="61">
-      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="60">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE A" dataDxfId="59">
-      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="58">
-      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
+      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="33" name="QTDE MAX" dataDxfId="57">
-      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="32" name="QTDE" dataDxfId="56">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="55">
-      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="PERDA" dataDxfId="54">
-      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="53" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="QTDE PAR" dataDxfId="52" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" name="LUCRO PAR" dataDxfId="51">
-      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" name="QTDE ALVO" dataDxfId="50" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="LUCRO ALVO" dataDxfId="49">
-      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" name="RISCO:1" dataDxfId="48" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="% 85" dataDxfId="47" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2050,61 +2046,61 @@
     <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
     <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem"/>
     <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="29">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="PARCIAL" dataDxfId="28">
-      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="27">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE" dataDxfId="25">
-      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="24">
-      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="PERDA" dataDxfId="23">
-      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
-      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
-      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2120,34 +2116,34 @@
     <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
     <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
     <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
+      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
+      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2229,7 +2225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2264,7 +2259,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2440,17 +2434,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="15" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2461,14 +2455,14 @@
     <col min="7" max="7" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
@@ -2489,7 +2483,7 @@
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="33" customFormat="1">
       <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2635,55 +2629,55 @@
         <v>1</v>
       </c>
       <c r="M2" s="26">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N2" s="26">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O2" s="26">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="P2" s="28">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
       <c r="Q2" s="26">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
       <c r="R2" s="26">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
       <c r="S2" s="26">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
       <c r="T2" s="26">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.4662858999999995</v>
       </c>
       <c r="U2" s="26">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.84</v>
       </c>
       <c r="V2" s="27">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W2" s="27">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X2" s="27">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>394.08866995073896</v>
       </c>
       <c r="Y2" s="27">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="Z2" s="27">
@@ -2691,43 +2685,43 @@
         <v>300</v>
       </c>
       <c r="AA2" s="31">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1217.9999999999998</v>
       </c>
       <c r="AB2" s="31">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>51.000000000000085</v>
       </c>
       <c r="AC2" s="27">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="AD2" s="27">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE2" s="31">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>88.742820000000023</v>
       </c>
       <c r="AF2" s="27">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG2" s="31">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>295.74281999999999</v>
       </c>
       <c r="AH2" s="32">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.7988788235294022</v>
       </c>
       <c r="AI2" s="26">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3" s="21" t="s">
         <v>39</v>
       </c>
@@ -2766,55 +2760,55 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N3" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O3" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>0.45999999999999996</v>
       </c>
       <c r="P3" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.18110236220472442</v>
       </c>
       <c r="Q3" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>2.31</v>
       </c>
       <c r="R3" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="S3" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>2.35</v>
       </c>
       <c r="T3" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.080228</v>
       </c>
       <c r="U3" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.89</v>
       </c>
       <c r="V3" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>2367</v>
       </c>
       <c r="W3" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>2300</v>
       </c>
       <c r="X3" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>689.65517241379314</v>
       </c>
       <c r="Y3" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>600</v>
       </c>
       <c r="Z3" s="11">
@@ -2822,43 +2816,43 @@
         <v>600</v>
       </c>
       <c r="AA3" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1392</v>
       </c>
       <c r="AB3" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>48.000000000000149</v>
       </c>
       <c r="AC3" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>300</v>
       </c>
       <c r="AD3" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE3" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>41.93159999999996</v>
       </c>
       <c r="AF3" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>300</v>
       </c>
       <c r="AG3" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>155.93159999999995</v>
       </c>
       <c r="AH3" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>3.2485749999999887</v>
       </c>
       <c r="AI3" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>1.9544999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
@@ -2897,55 +2891,55 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N4" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O4" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.9400000000000004</v>
       </c>
       <c r="P4" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.48138957816377181</v>
       </c>
       <c r="Q4" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.06</v>
       </c>
       <c r="R4" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.09</v>
       </c>
       <c r="S4" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.16</v>
       </c>
       <c r="T4" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.9305559999999997</v>
       </c>
       <c r="U4" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.22</v>
       </c>
       <c r="V4" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
       <c r="W4" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
       <c r="X4" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>517.79935275080913</v>
       </c>
       <c r="Y4" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z4" s="11">
@@ -2953,43 +2947,43 @@
         <v>500</v>
       </c>
       <c r="AA4" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1545</v>
       </c>
       <c r="AB4" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>65.000000000000142</v>
       </c>
       <c r="AC4" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD4" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE4" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>17.833200000000041</v>
       </c>
       <c r="AF4" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG4" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>376.83320000000003</v>
       </c>
       <c r="AH4" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.7974338461538339</v>
       </c>
       <c r="AI4" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>1.5004999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
@@ -3028,55 +3022,55 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
       <c r="N5" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>71.040000000000006</v>
       </c>
       <c r="O5" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.1599999999999997</v>
       </c>
       <c r="P5" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
       <c r="Q5" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.76</v>
       </c>
       <c r="R5" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.78</v>
       </c>
       <c r="S5" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.94</v>
       </c>
       <c r="T5" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.5849519999999999</v>
       </c>
       <c r="U5" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>2.79</v>
       </c>
       <c r="V5" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>444</v>
       </c>
       <c r="W5" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="X5" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>423.28042328042329</v>
       </c>
       <c r="Y5" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>400</v>
       </c>
       <c r="Z5" s="11">
@@ -3084,43 +3078,43 @@
         <v>400</v>
       </c>
       <c r="AA5" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1512</v>
       </c>
       <c r="AB5" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>94.000000000000057</v>
       </c>
       <c r="AC5" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>200</v>
       </c>
       <c r="AD5" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="AE5" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>9.0095999999999776</v>
       </c>
       <c r="AF5" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG5" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>192.00959999999992</v>
       </c>
       <c r="AH5" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>2.0426553191489343</v>
       </c>
       <c r="AI5" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.9384999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3158,55 +3152,55 @@
         <v>2</v>
       </c>
       <c r="M6" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N6" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O6" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>3.38</v>
       </c>
       <c r="P6" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>-0.61791590493601456</v>
       </c>
       <c r="Q6" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>3.2054</v>
       </c>
       <c r="R6" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>3.25</v>
       </c>
       <c r="S6" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>3.29</v>
       </c>
       <c r="T6" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>2.3163400000000003</v>
       </c>
       <c r="U6" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>-0.09</v>
       </c>
       <c r="V6" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1961</v>
       </c>
       <c r="W6" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1900</v>
       </c>
       <c r="X6" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>543.58974358974365</v>
       </c>
       <c r="Y6" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="Z6" s="11">
@@ -3214,43 +3208,43 @@
         <v>500</v>
       </c>
       <c r="AA6" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1625</v>
       </c>
       <c r="AB6" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>50.000000000000014</v>
       </c>
       <c r="AC6" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="AD6" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="AE6" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>250.0979999999999</v>
       </c>
       <c r="AF6" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AG6" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>903.09799999999996</v>
       </c>
       <c r="AH6" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>18.061959999999996</v>
       </c>
       <c r="AI6" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>0.41100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -3288,55 +3282,55 @@
         <v>2</v>
       </c>
       <c r="M7" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="N7" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="O7" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.339999999999999</v>
       </c>
       <c r="P7" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
+        <f>[FIM] / [INICIO] - 1</f>
         <v>0.17402597402597397</v>
       </c>
       <c r="Q7" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>8.5977999999999994</v>
       </c>
       <c r="R7" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>8.56</v>
       </c>
       <c r="S7" s="20">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>8.5299999999999994</v>
       </c>
       <c r="T7" s="20">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>9.5224864000000018</v>
       </c>
       <c r="U7" s="20">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>11.56</v>
       </c>
       <c r="V7" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>2614</v>
       </c>
       <c r="W7" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>2600</v>
       </c>
       <c r="X7" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>206.38629283489095</v>
       </c>
       <c r="Y7" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Z7" s="11">
@@ -3344,40 +3338,170 @@
         <v>200</v>
       </c>
       <c r="AA7" s="20">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>1712</v>
       </c>
       <c r="AB7" s="20">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>36.000000000000227</v>
       </c>
       <c r="AC7" s="6">
-        <f>Tabela1[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>100</v>
       </c>
       <c r="AD7" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>100</v>
       </c>
       <c r="AE7" s="20">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>66.248640000000137</v>
       </c>
       <c r="AF7" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AG7" s="20">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>351.24864000000014</v>
       </c>
       <c r="AH7" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>9.7569066666666089</v>
       </c>
       <c r="AI7" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>11.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C8" s="6">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10.37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.4483999999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <v>4588</v>
+      </c>
+      <c r="N8" s="2">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>91.76</v>
+      </c>
+      <c r="O8" s="2">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>5.589999999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <f>[FIM] / [INICIO] - 1</f>
+        <v>-0.53905496624879456</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>6.6246999999999998</v>
+      </c>
+      <c r="R8" s="12">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>6.8</v>
+      </c>
+      <c r="S8" s="20">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>6.94</v>
+      </c>
+      <c r="T8" s="20">
+        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>5.3226319999999996</v>
+      </c>
+      <c r="U8" s="20">
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <v>1.36</v>
+      </c>
+      <c r="V8" s="11">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>655</v>
+      </c>
+      <c r="W8" s="11">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>600</v>
+      </c>
+      <c r="X8" s="11">
+        <f>([PATRIM.] / 3) / [START]</f>
+        <v>303.92156862745094</v>
+      </c>
+      <c r="Y8" s="11">
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="Z8" s="11">
+        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
+        <v>300</v>
+      </c>
+      <c r="AA8" s="20">
+        <f>[QTDE] * [START]</f>
+        <v>2040</v>
+      </c>
+      <c r="AB8" s="20">
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>72.000000000000171</v>
+      </c>
+      <c r="AC8" s="6">
+        <f>[QTDE] / 2</f>
+        <v>150</v>
+      </c>
+      <c r="AD8" s="6">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>200</v>
+      </c>
+      <c r="AE8" s="20">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
+        <v>265.47360000000003</v>
+      </c>
+      <c r="AF8" s="6">
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>100</v>
+      </c>
+      <c r="AG8" s="20">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
+        <v>794.47360000000003</v>
+      </c>
+      <c r="AH8" s="5">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>11.03435555555553</v>
+      </c>
+      <c r="AI8" s="12">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>2.1760000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3394,17 +3518,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3435,7 +3559,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
@@ -3524,7 +3648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="33" customFormat="1">
       <c r="A2" s="35" t="s">
         <v>55</v>
       </c>
@@ -3556,208 +3680,209 @@
         <v>1</v>
       </c>
       <c r="K2" s="36">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="L2" s="36">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="M2" s="36">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>3.5199999999999996</v>
       </c>
       <c r="N2" s="38">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.28478964401294493</v>
       </c>
       <c r="O2" s="40">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>10.8</v>
       </c>
       <c r="P2" s="41">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>11.09</v>
       </c>
       <c r="Q2" s="41">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>10.160748000000002</v>
       </c>
       <c r="R2" s="41">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>7.65</v>
       </c>
       <c r="S2" s="42">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
         <v>313</v>
       </c>
       <c r="T2" s="42">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U2" s="41">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>3240</v>
       </c>
       <c r="V2" s="41">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>86.999999999999744</v>
       </c>
       <c r="W2" s="37">
-        <f>Tabela13[QTDE] / 2</f>
+        <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X2" s="37">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y2" s="40">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
         <v>127.85039999999981</v>
       </c>
       <c r="Z2" s="37">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA2" s="41">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
         <v>442.85039999999987</v>
       </c>
       <c r="AB2" s="43">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
+        <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.0902344827586345</v>
       </c>
       <c r="AC2" s="40">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>8.1225000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:29" s="53" customFormat="1">
+      <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="45">
         <v>6100</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="46">
         <v>26</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="45">
         <v>4.34</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="45">
         <v>3.18</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="45">
         <v>3.78</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="45">
         <v>3.78</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="45">
         <v>3.6</v>
       </c>
-      <c r="I3" s="38">
-        <v>0.72050000000000003</v>
-      </c>
-      <c r="J3" s="39">
+      <c r="I3" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="48">
         <v>1</v>
       </c>
-      <c r="K3" s="44">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+      <c r="K3" s="45">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>4514</v>
       </c>
-      <c r="L3" s="44">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
+      <c r="L3" s="45">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>90.28</v>
       </c>
-      <c r="M3" s="44">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+      <c r="M3" s="45">
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>1.1599999999999997</v>
       </c>
-      <c r="N3" s="46">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+      <c r="N3" s="47">
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
-      <c r="O3" s="47">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+      <c r="O3" s="49">
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>3.58</v>
       </c>
-      <c r="P3" s="48">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+      <c r="P3" s="50">
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>3.8</v>
       </c>
-      <c r="Q3" s="48">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
-        <v>3.1930915</v>
-      </c>
-      <c r="R3" s="48">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+      <c r="Q3" s="50">
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <v>3.2040999999999999</v>
+      </c>
+      <c r="R3" s="50">
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>2.62</v>
       </c>
-      <c r="S3" s="49">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+      <c r="S3" s="51">
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
         <v>501</v>
       </c>
-      <c r="T3" s="49">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+      <c r="T3" s="51">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>500</v>
       </c>
-      <c r="U3" s="48">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
+      <c r="U3" s="50">
+        <f>[QTDE] * [START]</f>
         <v>1790</v>
       </c>
-      <c r="V3" s="48">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
+      <c r="V3" s="50">
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>109.99999999999987</v>
       </c>
-      <c r="W3" s="45">
-        <f>Tabela13[QTDE] / 2</f>
+      <c r="W3" s="46">
+        <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
-      <c r="X3" s="45">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
+      <c r="X3" s="46">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
-      <c r="Y3" s="47">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>116.07255000000004</v>
-      </c>
-      <c r="Z3" s="45">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
+      <c r="Y3" s="49">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>112.77000000000004</v>
+      </c>
+      <c r="Z3" s="46">
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
-      <c r="AA3" s="48">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>308.07255000000004</v>
-      </c>
-      <c r="AB3" s="50">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>2.8006595454545491</v>
-      </c>
-      <c r="AC3" s="47">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+      <c r="AA3" s="50">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>304.77000000000004</v>
+      </c>
+      <c r="AB3" s="52">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>2.7706363636363673</v>
+      </c>
+      <c r="AC3" s="49">
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.7640000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3765,7 +3890,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -3773,7 +3898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -3785,7 +3910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -3797,7 +3922,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -3809,7 +3934,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -3821,7 +3946,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -3833,7 +3958,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -3851,7 +3976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3986,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -3874,7 +3999,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3918,7 +4043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -3932,35 +4057,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -3968,11 +4093,11 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3986,35 +4111,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -4022,11 +4147,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -4040,35 +4165,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -4076,11 +4201,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4092,35 +4217,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -4128,11 +4253,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="s">
         <v>49</v>
       </c>
@@ -4146,35 +4271,35 @@
         <v>7.49</v>
       </c>
       <c r="E6" s="24">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.21</v>
       </c>
       <c r="F6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>7.0399999999999991</v>
       </c>
       <c r="G6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>7.42</v>
       </c>
       <c r="H6" s="24">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.64</v>
       </c>
       <c r="I6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
       <c r="J6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="K6" s="25">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
       <c r="L6" s="25">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
       <c r="M6" s="25">
@@ -4182,7 +4307,7 @@
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="N6" s="25">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>INICIO</t>
   </si>
@@ -216,9 +216,6 @@
     <t>RSID3</t>
   </si>
   <si>
-    <t>GFSA3</t>
-  </si>
-  <si>
     <t>PATRIM.</t>
   </si>
   <si>
@@ -279,13 +276,13 @@
     <t>QTDE MAX</t>
   </si>
   <si>
-    <t>ALLL3</t>
-  </si>
-  <si>
     <t>TGT +</t>
   </si>
   <si>
     <t>BVMF3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
   </si>
 </sst>
 </file>
@@ -295,7 +292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,19 +356,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -388,7 +385,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -408,7 +405,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -423,7 +419,6 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -443,6 +438,20 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -466,6 +475,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -1633,23 +1660,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1940,8 +1950,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AI8" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:AI8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AI5" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:AI5"/>
   <tableColumns count="35">
     <tableColumn id="31" name="ATIVO" dataDxfId="81"/>
     <tableColumn id="5" name="PATRIM." dataDxfId="80" dataCellStyle="Moeda"/>
@@ -1960,70 +1970,70 @@
     <tableColumn id="7" name="BASE RV" dataDxfId="69" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="68" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="67" dataCellStyle="Moeda">
+    <tableColumn id="8" name="RISCO" dataDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, IF([BASE RV] &lt; SETUP!$A$4, [BASE RV] * SETUP!$B$4, IF([BASE RV] &lt; SETUP!$A$5, [BASE RV] * SETUP!$B$5, 0))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="68" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="66" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="% PERNA" dataDxfId="67" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="RETORNO" dataDxfId="65" dataCellStyle="Moeda">
+    <tableColumn id="15" name="RETORNO" dataDxfId="66" dataCellStyle="Moeda">
       <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="64" dataCellStyle="Moeda">
+    <tableColumn id="16" name="START" dataDxfId="65" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="63">
+    <tableColumn id="17" name="STOP" dataDxfId="64">
       <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="62">
+    <tableColumn id="18" name="PARCIAL" dataDxfId="63">
       <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="61">
+    <tableColumn id="20" name="TGT" dataDxfId="62">
       <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="60">
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="61">
       <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="QTDE A" dataDxfId="59">
+    <tableColumn id="22" name="QTDE A" dataDxfId="60">
       <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="58">
+    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="59">
       <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="QTDE MAX" dataDxfId="57">
+    <tableColumn id="33" name="QTDE MAX" dataDxfId="58">
       <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="QTDE" dataDxfId="56">
+    <tableColumn id="32" name="QTDE" dataDxfId="57">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="55">
+    <tableColumn id="23" name="VOLUME" dataDxfId="56">
       <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="54">
+    <tableColumn id="24" name="PERDA" dataDxfId="55">
       <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="53" dataCellStyle="Moeda">
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="54" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="52" dataCellStyle="Moeda">
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="53" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="51">
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="52">
       <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="50" dataCellStyle="Moeda">
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="51" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="49">
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="50">
       <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="48" dataCellStyle="Moeda">
+    <tableColumn id="30" name="RISCO:1" dataDxfId="49" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="47" dataCellStyle="Moeda">
+    <tableColumn id="14" name="% 85" dataDxfId="48" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2032,74 +2042,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="44"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="38" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="37" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem"/>
-    <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
+    <tableColumn id="31" name="ATIVO" dataDxfId="45"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="44" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="37" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="36" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" name="BASE RV" dataDxfId="35" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
+    <tableColumn id="8" name="RISCO" dataDxfId="34" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
+    <tableColumn id="3" name="PERNA" dataDxfId="33" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="% PERNA" dataDxfId="32" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
+    <tableColumn id="16" name="START" dataDxfId="31" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="29">
+    <tableColumn id="17" name="STOP" dataDxfId="30">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="28">
+    <tableColumn id="18" name="PARCIAL" dataDxfId="29">
       <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="27">
+    <tableColumn id="20" name="TGT" dataDxfId="28">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="27">
       <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="25">
+    <tableColumn id="22" name="QTDE" dataDxfId="26">
       <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="24">
+    <tableColumn id="23" name="VOLUME" dataDxfId="25">
       <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="23">
+    <tableColumn id="24" name="PERDA" dataDxfId="24">
       <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="23" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="21">
       <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="19">
       <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="30" name="RISCO:1" dataDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="14" name="% 85" dataDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2108,41 +2118,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="13"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="1" name="ATIVO" dataDxfId="14"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="8" name="33%" dataDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="7" name="50%" dataDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="6" name="60%" dataDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="12" name="DIF 33%" dataDxfId="6" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="11" name="DIF 50%" dataDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="10" name="DIF 60%" dataDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="13" name="% PERNA" dataDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2435,22 +2445,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="4" bestFit="1" customWidth="1"/>
@@ -2458,11 +2468,10 @@
     <col min="10" max="10" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
@@ -2472,7 +2481,7 @@
     <col min="24" max="25" width="10.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="10.5703125" style="11" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
@@ -2488,10 +2497,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2500,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>7</v>
@@ -2512,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>24</v>
@@ -2551,13 +2560,13 @@
         <v>13</v>
       </c>
       <c r="W1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>14</v>
@@ -2590,152 +2599,152 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="33" customFormat="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:35" s="32" customFormat="1">
+      <c r="A2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>4800</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>26</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>5.17</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>2.87</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="27">
         <v>1.5E-3</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="27">
         <v>0.97489999999999999</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="28">
         <v>0.5</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="29">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3552</v>
       </c>
-      <c r="N2" s="26">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+      <c r="N2" s="25">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, IF([BASE RV] &lt; SETUP!$A$4, [BASE RV] * SETUP!$B$4, IF([BASE RV] &lt; SETUP!$A$5, [BASE RV] * SETUP!$B$5, 0))))</f>
         <v>71.040000000000006</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="27">
         <f>[FIM] / [INICIO] - 1</f>
         <v>-0.44487427466150864</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>4.0599999999999996</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="25">
         <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>4.13</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T2" s="25">
         <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.4662858999999995</v>
       </c>
-      <c r="U2" s="26">
+      <c r="U2" s="25">
         <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>1.84</v>
       </c>
-      <c r="V2" s="27">
+      <c r="V2" s="26">
         <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
         <v>1014</v>
       </c>
-      <c r="W2" s="27">
+      <c r="W2" s="26">
         <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>1000</v>
       </c>
-      <c r="X2" s="27">
+      <c r="X2" s="26">
         <f>([PATRIM.] / 3) / [START]</f>
         <v>394.08866995073896</v>
       </c>
-      <c r="Y2" s="27">
+      <c r="Y2" s="26">
         <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>300</v>
       </c>
-      <c r="Z2" s="27">
+      <c r="Z2" s="26">
         <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
         <v>300</v>
       </c>
-      <c r="AA2" s="31">
+      <c r="AA2" s="30">
         <f>[QTDE] * [START]</f>
         <v>1217.9999999999998</v>
       </c>
-      <c r="AB2" s="31">
+      <c r="AB2" s="30">
         <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>51.000000000000085</v>
       </c>
-      <c r="AC2" s="27">
+      <c r="AC2" s="26">
         <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
-      <c r="AD2" s="27">
+      <c r="AD2" s="26">
         <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
-      <c r="AE2" s="31">
+      <c r="AE2" s="30">
         <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
         <v>88.742820000000023</v>
       </c>
-      <c r="AF2" s="27">
+      <c r="AF2" s="26">
         <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
-      <c r="AG2" s="31">
+      <c r="AG2" s="30">
         <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
         <v>295.74281999999999</v>
       </c>
-      <c r="AH2" s="32">
+      <c r="AH2" s="31">
         <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.7988788235294022</v>
       </c>
-      <c r="AI2" s="26">
+      <c r="AI2" s="25">
         <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.173</v>
       </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="21" t="s">
-        <v>39</v>
+      <c r="A3" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="14">
-        <v>4800</v>
+        <v>100000</v>
       </c>
       <c r="C3" s="15">
         <v>26</v>
       </c>
       <c r="D3" s="14">
-        <v>2.54</v>
+        <v>18.41</v>
       </c>
       <c r="E3" s="14">
-        <v>2.08</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
@@ -2744,16 +2753,16 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H3" s="16">
-        <v>7.4000000000000003E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I3" s="16">
         <v>1.5E-3</v>
       </c>
       <c r="J3" s="16">
-        <v>0.68899999999999995</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="K3" s="17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L3" s="10">
         <f>1</f>
@@ -2761,112 +2770,112 @@
       </c>
       <c r="M3" s="2">
         <f>[PATRIM.] * (1 - [AGE] / 100)</f>
-        <v>3552</v>
+        <v>74000</v>
       </c>
       <c r="N3" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
-        <v>71.040000000000006</v>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, IF([BASE RV] &lt; SETUP!$A$4, [BASE RV] * SETUP!$B$4, IF([BASE RV] &lt; SETUP!$A$5, [BASE RV] * SETUP!$B$5, 0))))</f>
+        <v>555</v>
       </c>
       <c r="O3" s="2">
         <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
-        <v>0.45999999999999996</v>
+        <v>1.8999999999999986</v>
       </c>
       <c r="P3" s="4">
         <f>[FIM] / [INICIO] - 1</f>
-        <v>-0.18110236220472442</v>
+        <v>0.10320478001086353</v>
       </c>
       <c r="Q3" s="12">
         <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
-        <v>2.31</v>
+        <v>19.683</v>
       </c>
       <c r="R3" s="12">
         <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="S3" s="20">
+        <v>19.63</v>
+      </c>
+      <c r="S3" s="19">
         <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
-        <v>2.35</v>
-      </c>
-      <c r="T3" s="20">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="T3" s="19">
         <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
-        <v>2.080228</v>
-      </c>
-      <c r="U3" s="20">
+        <v>20.7942553</v>
+      </c>
+      <c r="U3" s="19">
         <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
-        <v>1.89</v>
+        <v>21.44</v>
       </c>
       <c r="V3" s="11">
         <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
-        <v>2367</v>
+        <v>11099</v>
       </c>
       <c r="W3" s="11">
         <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
-        <v>2300</v>
+        <v>11000</v>
       </c>
       <c r="X3" s="11">
         <f>([PATRIM.] / 3) / [START]</f>
-        <v>689.65517241379314</v>
+        <v>1698.081168279844</v>
       </c>
       <c r="Y3" s="11">
         <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="Z3" s="11">
         <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>600</v>
-      </c>
-      <c r="AA3" s="20">
+        <v>1600</v>
+      </c>
+      <c r="AA3" s="19">
         <f>[QTDE] * [START]</f>
-        <v>1392</v>
-      </c>
-      <c r="AB3" s="20">
+        <v>31408</v>
+      </c>
+      <c r="AB3" s="19">
         <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>48.000000000000149</v>
+        <v>110.00000000000114</v>
       </c>
       <c r="AC3" s="6">
         <f>[QTDE] / 2</f>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="AD3" s="6">
         <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>300</v>
-      </c>
-      <c r="AE3" s="20">
+        <v>800</v>
+      </c>
+      <c r="AE3" s="19">
         <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>41.93159999999996</v>
+        <v>901.40424000000053</v>
       </c>
       <c r="AF3" s="6">
         <f>[QTDE] - [QTDE PAR]</f>
-        <v>300</v>
-      </c>
-      <c r="AG3" s="20">
+        <v>800</v>
+      </c>
+      <c r="AG3" s="19">
         <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>155.93159999999995</v>
+        <v>2334.4042400000026</v>
       </c>
       <c r="AH3" s="5">
         <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>3.2485749999999887</v>
+        <v>21.221856727272531</v>
       </c>
       <c r="AI3" s="12">
         <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>1.9544999999999999</v>
+        <v>21.168500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="19" t="s">
-        <v>32</v>
+      <c r="A4" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="14">
-        <v>4800</v>
+        <v>100000</v>
       </c>
       <c r="C4" s="15">
         <v>26</v>
       </c>
       <c r="D4" s="14">
-        <v>4.03</v>
+        <v>18.41</v>
       </c>
       <c r="E4" s="14">
-        <v>2.09</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="F4" s="14">
         <v>0</v>
@@ -2875,13 +2884,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H4" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I4" s="16">
         <v>1.5E-3</v>
       </c>
       <c r="J4" s="16">
-        <v>0.34399999999999997</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="K4" s="17">
         <v>0.5</v>
@@ -2890,114 +2899,114 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="52">
         <f>[PATRIM.] * (1 - [AGE] / 100)</f>
-        <v>3552</v>
-      </c>
-      <c r="N4" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
-        <v>71.040000000000006</v>
-      </c>
-      <c r="O4" s="2">
+        <v>74000</v>
+      </c>
+      <c r="N4" s="55">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, IF([BASE RV] &lt; SETUP!$A$4, [BASE RV] * SETUP!$B$4, IF([BASE RV] &lt; SETUP!$A$5, [BASE RV] * SETUP!$B$5, 0))))</f>
+        <v>555</v>
+      </c>
+      <c r="O4" s="52">
         <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
-        <v>1.9400000000000004</v>
-      </c>
-      <c r="P4" s="4">
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="P4" s="54">
         <f>[FIM] / [INICIO] - 1</f>
-        <v>-0.48138957816377181</v>
-      </c>
-      <c r="Q4" s="12">
+        <v>0.10320478001086353</v>
+      </c>
+      <c r="Q4" s="55">
         <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
-        <v>3.06</v>
-      </c>
-      <c r="R4" s="12">
+        <v>19.36</v>
+      </c>
+      <c r="R4" s="55">
         <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
-        <v>3.09</v>
-      </c>
-      <c r="S4" s="20">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="S4" s="56">
         <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
-        <v>3.16</v>
-      </c>
-      <c r="T4" s="20">
+        <v>19.27</v>
+      </c>
+      <c r="T4" s="56">
         <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
-        <v>2.9305559999999997</v>
-      </c>
-      <c r="U4" s="20">
+        <v>20.455276099999999</v>
+      </c>
+      <c r="U4" s="56">
         <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
-        <v>1.22</v>
-      </c>
-      <c r="V4" s="11">
+        <v>21.13</v>
+      </c>
+      <c r="V4" s="57">
         <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
-        <v>1014</v>
-      </c>
-      <c r="W4" s="11">
+        <v>13875</v>
+      </c>
+      <c r="W4" s="57">
         <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
-        <v>1000</v>
-      </c>
-      <c r="X4" s="11">
+        <v>13800</v>
+      </c>
+      <c r="X4" s="57">
         <f>([PATRIM.] / 3) / [START]</f>
-        <v>517.79935275080913</v>
-      </c>
-      <c r="Y4" s="11">
+        <v>1726.2213015708617</v>
+      </c>
+      <c r="Y4" s="57">
         <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
-        <v>500</v>
-      </c>
-      <c r="Z4" s="11">
+        <v>1700</v>
+      </c>
+      <c r="Z4" s="57">
         <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>500</v>
-      </c>
-      <c r="AA4" s="20">
+        <v>1700</v>
+      </c>
+      <c r="AA4" s="56">
         <f>[QTDE] * [START]</f>
-        <v>1545</v>
-      </c>
-      <c r="AB4" s="20">
+        <v>32827</v>
+      </c>
+      <c r="AB4" s="56">
         <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>65.000000000000142</v>
-      </c>
-      <c r="AC4" s="6">
+        <v>97.99999999999855</v>
+      </c>
+      <c r="AC4" s="53">
         <f>[QTDE] / 2</f>
-        <v>250</v>
-      </c>
-      <c r="AD4" s="6">
+        <v>850</v>
+      </c>
+      <c r="AD4" s="53">
         <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>300</v>
-      </c>
-      <c r="AE4" s="20">
+        <v>900</v>
+      </c>
+      <c r="AE4" s="56">
         <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>17.833200000000041</v>
-      </c>
-      <c r="AF4" s="6">
+        <v>1000.7484900000002</v>
+      </c>
+      <c r="AF4" s="53">
         <f>[QTDE] - [QTDE PAR]</f>
-        <v>200</v>
-      </c>
-      <c r="AG4" s="20">
+        <v>800</v>
+      </c>
+      <c r="AG4" s="55">
         <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>376.83320000000003</v>
-      </c>
-      <c r="AH4" s="5">
+        <v>2441.7484900000004</v>
+      </c>
+      <c r="AH4" s="58">
         <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>5.7974338461538339</v>
-      </c>
-      <c r="AI4" s="12">
+        <v>24.915800918367719</v>
+      </c>
+      <c r="AI4" s="55">
         <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>1.5004999999999999</v>
+        <v>20.856999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="21" t="s">
-        <v>29</v>
+      <c r="A5" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="14">
-        <v>4800</v>
+        <v>100000</v>
       </c>
       <c r="C5" s="15">
         <v>26</v>
       </c>
       <c r="D5" s="14">
-        <v>4.34</v>
+        <v>18.41</v>
       </c>
       <c r="E5" s="14">
-        <v>3.18</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="F5" s="14">
         <v>0</v>
@@ -3006,510 +3015,117 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H5" s="16">
-        <v>1.6799999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="I5" s="16">
         <v>1.5E-3</v>
       </c>
       <c r="J5" s="16">
-        <v>0.34399999999999997</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="K5" s="17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L5" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="59">
         <f>[PATRIM.] * (1 - [AGE] / 100)</f>
-        <v>3552</v>
-      </c>
-      <c r="N5" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
-        <v>71.040000000000006</v>
-      </c>
-      <c r="O5" s="2">
+        <v>74000</v>
+      </c>
+      <c r="N5" s="62">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, IF([BASE RV] &lt; SETUP!$A$4, [BASE RV] * SETUP!$B$4, IF([BASE RV] &lt; SETUP!$A$5, [BASE RV] * SETUP!$B$5, 0))))</f>
+        <v>555</v>
+      </c>
+      <c r="O5" s="59">
         <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
-        <v>1.1599999999999997</v>
-      </c>
-      <c r="P5" s="4">
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="P5" s="61">
         <f>[FIM] / [INICIO] - 1</f>
-        <v>-0.26728110599078336</v>
-      </c>
-      <c r="Q5" s="12">
+        <v>0.10320478001086353</v>
+      </c>
+      <c r="Q5" s="62">
         <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
-        <v>3.76</v>
-      </c>
-      <c r="R5" s="12">
+        <v>19.169999999999998</v>
+      </c>
+      <c r="R5" s="62">
         <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
-        <v>3.78</v>
-      </c>
-      <c r="S5" s="20">
+        <v>19.12</v>
+      </c>
+      <c r="S5" s="63">
         <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
-        <v>3.94</v>
-      </c>
-      <c r="T5" s="20">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="T5" s="63">
         <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
-        <v>3.5849519999999999</v>
-      </c>
-      <c r="U5" s="20">
+        <v>20.2540072</v>
+      </c>
+      <c r="U5" s="63">
         <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
-        <v>2.79</v>
-      </c>
-      <c r="V5" s="11">
+        <v>20.94</v>
+      </c>
+      <c r="V5" s="64">
         <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
-        <v>444</v>
-      </c>
-      <c r="W5" s="11">
+        <v>13874</v>
+      </c>
+      <c r="W5" s="64">
         <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
-        <v>400</v>
-      </c>
-      <c r="X5" s="11">
+        <v>13800</v>
+      </c>
+      <c r="X5" s="64">
         <f>([PATRIM.] / 3) / [START]</f>
-        <v>423.28042328042329</v>
-      </c>
-      <c r="Y5" s="11">
+        <v>1743.3751743375174</v>
+      </c>
+      <c r="Y5" s="64">
         <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
-        <v>400</v>
-      </c>
-      <c r="Z5" s="11">
+        <v>1700</v>
+      </c>
+      <c r="Z5" s="64">
         <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>400</v>
-      </c>
-      <c r="AA5" s="20">
+        <v>1700</v>
+      </c>
+      <c r="AA5" s="63">
         <f>[QTDE] * [START]</f>
-        <v>1512</v>
-      </c>
-      <c r="AB5" s="20">
+        <v>32504</v>
+      </c>
+      <c r="AB5" s="63">
         <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>94.000000000000057</v>
-      </c>
-      <c r="AC5" s="6">
+        <v>98.00000000000459</v>
+      </c>
+      <c r="AC5" s="60">
         <f>[QTDE] / 2</f>
-        <v>200</v>
-      </c>
-      <c r="AD5" s="6">
+        <v>850</v>
+      </c>
+      <c r="AD5" s="60">
         <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>200</v>
-      </c>
-      <c r="AE5" s="20">
+        <v>900</v>
+      </c>
+      <c r="AE5" s="63">
         <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>9.0095999999999776</v>
-      </c>
-      <c r="AF5" s="6">
+        <v>990.60647999999924</v>
+      </c>
+      <c r="AF5" s="60">
         <f>[QTDE] - [QTDE PAR]</f>
-        <v>200</v>
-      </c>
-      <c r="AG5" s="20">
+        <v>800</v>
+      </c>
+      <c r="AG5" s="62">
         <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>192.00959999999992</v>
-      </c>
-      <c r="AH5" s="5">
+        <v>2431.6064799999995</v>
+      </c>
+      <c r="AH5" s="65">
         <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>2.0426553191489343</v>
-      </c>
-      <c r="AI5" s="12">
+        <v>24.812311020406995</v>
+      </c>
+      <c r="AI5" s="62">
         <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>2.9384999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5300</v>
-      </c>
-      <c r="C6" s="6">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5.47</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.95760000000000001</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="L6" s="10">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
-        <v>3922</v>
-      </c>
-      <c r="N6" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
-        <v>78.44</v>
-      </c>
-      <c r="O6" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
-        <v>-0.61791590493601456</v>
-      </c>
-      <c r="Q6" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
-        <v>3.2054</v>
-      </c>
-      <c r="R6" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
-        <v>3.25</v>
-      </c>
-      <c r="S6" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
-        <v>3.29</v>
-      </c>
-      <c r="T6" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
-        <v>2.3163400000000003</v>
-      </c>
-      <c r="U6" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
-        <v>-0.09</v>
-      </c>
-      <c r="V6" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
-        <v>1961</v>
-      </c>
-      <c r="W6" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
-        <v>1900</v>
-      </c>
-      <c r="X6" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
-        <v>543.58974358974365</v>
-      </c>
-      <c r="Y6" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
-        <v>500</v>
-      </c>
-      <c r="Z6" s="11">
-        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>500</v>
-      </c>
-      <c r="AA6" s="20">
-        <f>[QTDE] * [START]</f>
-        <v>1625</v>
-      </c>
-      <c r="AB6" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>50.000000000000014</v>
-      </c>
-      <c r="AC6" s="6">
-        <f>[QTDE] / 2</f>
-        <v>250</v>
-      </c>
-      <c r="AD6" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>300</v>
-      </c>
-      <c r="AE6" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>250.0979999999999</v>
-      </c>
-      <c r="AF6" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
-        <v>200</v>
-      </c>
-      <c r="AG6" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>903.09799999999996</v>
-      </c>
-      <c r="AH6" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>18.061959999999996</v>
-      </c>
-      <c r="AI6" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>0.41100000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5300</v>
-      </c>
-      <c r="C7" s="6">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="F7" s="2">
-        <v>11.56</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.37480000000000002</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="L7" s="34">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
-        <v>3922</v>
-      </c>
-      <c r="N7" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
-        <v>78.44</v>
-      </c>
-      <c r="O7" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
-        <v>1.339999999999999</v>
-      </c>
-      <c r="P7" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
-        <v>0.17402597402597397</v>
-      </c>
-      <c r="Q7" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
-        <v>8.5977999999999994</v>
-      </c>
-      <c r="R7" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
-        <v>8.56</v>
-      </c>
-      <c r="S7" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="T7" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
-        <v>9.5224864000000018</v>
-      </c>
-      <c r="U7" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
-        <v>11.56</v>
-      </c>
-      <c r="V7" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
-        <v>2614</v>
-      </c>
-      <c r="W7" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
-        <v>2600</v>
-      </c>
-      <c r="X7" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
-        <v>206.38629283489095</v>
-      </c>
-      <c r="Y7" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
-        <v>200</v>
-      </c>
-      <c r="Z7" s="11">
-        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>200</v>
-      </c>
-      <c r="AA7" s="20">
-        <f>[QTDE] * [START]</f>
-        <v>1712</v>
-      </c>
-      <c r="AB7" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>36.000000000000227</v>
-      </c>
-      <c r="AC7" s="6">
-        <f>[QTDE] / 2</f>
-        <v>100</v>
-      </c>
-      <c r="AD7" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>100</v>
-      </c>
-      <c r="AE7" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>66.248640000000137</v>
-      </c>
-      <c r="AF7" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
-        <v>100</v>
-      </c>
-      <c r="AG7" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>351.24864000000014</v>
-      </c>
-      <c r="AH7" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>9.7569066666666089</v>
-      </c>
-      <c r="AI7" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6200</v>
-      </c>
-      <c r="C8" s="6">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10.37</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.78</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1.4483999999999999</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
-        <v>4588</v>
-      </c>
-      <c r="N8" s="2">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
-        <v>91.76</v>
-      </c>
-      <c r="O8" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
-        <v>5.589999999999999</v>
-      </c>
-      <c r="P8" s="4">
-        <f>[FIM] / [INICIO] - 1</f>
-        <v>-0.53905496624879456</v>
-      </c>
-      <c r="Q8" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
-        <v>6.6246999999999998</v>
-      </c>
-      <c r="R8" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
-        <v>6.8</v>
-      </c>
-      <c r="S8" s="20">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
-        <v>6.94</v>
-      </c>
-      <c r="T8" s="20">
-        <f>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
-        <v>5.3226319999999996</v>
-      </c>
-      <c r="U8" s="20">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
-        <v>1.36</v>
-      </c>
-      <c r="V8" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
-        <v>655</v>
-      </c>
-      <c r="W8" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
-        <v>600</v>
-      </c>
-      <c r="X8" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
-        <v>303.92156862745094</v>
-      </c>
-      <c r="Y8" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
-        <v>300</v>
-      </c>
-      <c r="Z8" s="11">
-        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>300</v>
-      </c>
-      <c r="AA8" s="20">
-        <f>[QTDE] * [START]</f>
-        <v>2040</v>
-      </c>
-      <c r="AB8" s="20">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
-        <v>72.000000000000171</v>
-      </c>
-      <c r="AC8" s="6">
-        <f>[QTDE] / 2</f>
-        <v>150</v>
-      </c>
-      <c r="AD8" s="6">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
-        <v>200</v>
-      </c>
-      <c r="AE8" s="20">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</f>
-        <v>265.47360000000003</v>
-      </c>
-      <c r="AF8" s="6">
-        <f>[QTDE] - [QTDE PAR]</f>
-        <v>100</v>
-      </c>
-      <c r="AG8" s="20">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</f>
-        <v>794.47360000000003</v>
-      </c>
-      <c r="AH8" s="5">
-        <f>[LUCRO ALVO] / [PERDA]</f>
-        <v>11.03435555555553</v>
-      </c>
-      <c r="AI8" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
-        <v>2.1760000000000002</v>
+        <v>20.667000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L6" calculatedColumn="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -3564,28 +3180,28 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>23</v>
@@ -3648,218 +3264,218 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="33" customFormat="1">
-      <c r="A2" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="36">
+    <row r="2" spans="1:29" s="32" customFormat="1">
+      <c r="A2" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="34">
         <v>5300</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="35">
         <v>26</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="34">
         <v>12.36</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>8.84</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="34">
         <v>11.17</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="34">
         <v>11.07</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>10.82</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="36">
         <v>0.39460000000000001</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="37">
         <v>1</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="34">
         <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="34">
         <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="34">
         <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>3.5199999999999996</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="36">
         <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.28478964401294493</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="38">
         <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>10.8</v>
       </c>
-      <c r="P2" s="41">
+      <c r="P2" s="39">
         <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>11.09</v>
       </c>
-      <c r="Q2" s="41">
+      <c r="Q2" s="39">
         <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>10.160748000000002</v>
       </c>
-      <c r="R2" s="41">
+      <c r="R2" s="39">
         <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>7.65</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="40">
         <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
         <v>313</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="40">
         <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>300</v>
       </c>
-      <c r="U2" s="41">
+      <c r="U2" s="39">
         <f>[QTDE] * [START]</f>
         <v>3240</v>
       </c>
-      <c r="V2" s="41">
+      <c r="V2" s="39">
         <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>86.999999999999744</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="35">
         <f>[QTDE] / 2</f>
         <v>150</v>
       </c>
-      <c r="X2" s="37">
+      <c r="X2" s="35">
         <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
-      <c r="Y2" s="40">
+      <c r="Y2" s="38">
         <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
         <v>127.85039999999981</v>
       </c>
-      <c r="Z2" s="37">
+      <c r="Z2" s="35">
         <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
-      <c r="AA2" s="41">
+      <c r="AA2" s="39">
         <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
         <v>442.85039999999987</v>
       </c>
-      <c r="AB2" s="43">
+      <c r="AB2" s="41">
         <f>[LUCRO ALVO] / [PERDA]</f>
         <v>5.0902344827586345</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="38">
         <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>8.1225000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="53" customFormat="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:29" s="51" customFormat="1">
+      <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="43">
         <v>6100</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="44">
         <v>26</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="43">
         <v>4.34</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="43">
         <v>3.18</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="43">
         <v>3.78</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="43">
         <v>3.78</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="43">
         <v>3.6</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="45">
         <v>0.7</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="46">
         <v>1</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="43">
         <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>4514</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="43">
         <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
         <v>90.28</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="43">
         <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>1.1599999999999997</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="45">
         <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="47">
         <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>3.58</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="48">
         <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>3.8</v>
       </c>
-      <c r="Q3" s="50">
+      <c r="Q3" s="48">
         <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.2040999999999999</v>
       </c>
-      <c r="R3" s="50">
+      <c r="R3" s="48">
         <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>2.62</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S3" s="49">
         <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
         <v>501</v>
       </c>
-      <c r="T3" s="51">
+      <c r="T3" s="49">
         <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>500</v>
       </c>
-      <c r="U3" s="50">
+      <c r="U3" s="48">
         <f>[QTDE] * [START]</f>
         <v>1790</v>
       </c>
-      <c r="V3" s="50">
+      <c r="V3" s="48">
         <f>ABS([START] - [STOP]) * [QTDE]</f>
         <v>109.99999999999987</v>
       </c>
-      <c r="W3" s="46">
+      <c r="W3" s="44">
         <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
-      <c r="X3" s="46">
+      <c r="X3" s="44">
         <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
-      <c r="Y3" s="49">
+      <c r="Y3" s="47">
         <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
         <v>112.77000000000004</v>
       </c>
-      <c r="Z3" s="46">
+      <c r="Z3" s="44">
         <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
-      <c r="AA3" s="50">
+      <c r="AA3" s="48">
         <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
         <v>304.77000000000004</v>
       </c>
-      <c r="AB3" s="52">
+      <c r="AB3" s="50">
         <f>[LUCRO ALVO] / [PERDA]</f>
         <v>2.7706363636363673</v>
       </c>
-      <c r="AC3" s="49">
+      <c r="AC3" s="47">
         <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.7640000000000002</v>
       </c>
@@ -3879,7 +3495,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4010,42 +3626,42 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
         <v>2.74</v>
@@ -4099,7 +3715,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
         <v>3.23</v>
@@ -4258,55 +3874,55 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="24">
+      <c r="A6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="23">
         <v>8.52</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>6.31</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>7.49</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f>[INICIO]-[FIM]</f>
         <v>2.21</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>7.0399999999999991</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>7.42</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.64</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <f>1 - [FIM]/[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <f t="array" ref="M6">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</f>
         <v>9.4339622641510523E-3</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="24">
         <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625"/>
   </bookViews>
   <sheets>
-    <sheet name="WTSa" sheetId="1" r:id="rId1"/>
-    <sheet name="WTS" sheetId="3" r:id="rId2"/>
-    <sheet name="SETUP" sheetId="2" r:id="rId3"/>
-    <sheet name="SOMBRA" sheetId="4" r:id="rId4"/>
+    <sheet name="MANEJO" sheetId="5" r:id="rId1"/>
+    <sheet name="WTSa" sheetId="1" r:id="rId2"/>
+    <sheet name="WTS" sheetId="3" r:id="rId3"/>
+    <sheet name="SETUP" sheetId="2" r:id="rId4"/>
+    <sheet name="SOMBRA" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>INICIO</t>
   </si>
@@ -283,14 +284,75 @@
   </si>
   <si>
     <t>PETR4</t>
+  </si>
+  <si>
+    <t>PATRIMONIO</t>
+  </si>
+  <si>
+    <t>RISCO/TRADE</t>
+  </si>
+  <si>
+    <t>QTDE TMP 1</t>
+  </si>
+  <si>
+    <t>QTDE 1</t>
+  </si>
+  <si>
+    <t>QTDE TMP 2</t>
+  </si>
+  <si>
+    <t>QTDE 2</t>
+  </si>
+  <si>
+    <t>RISCO MAX</t>
+  </si>
+  <si>
+    <t>PETRH20</t>
+  </si>
+  <si>
+    <t>COTAÇÃO</t>
+  </si>
+  <si>
+    <t>PROTEÇÃO</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>LUCRO</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>GFSA3</t>
+  </si>
+  <si>
+    <t>TGT SALARIO</t>
+  </si>
+  <si>
+    <t>VOLAT.</t>
+  </si>
+  <si>
+    <t>SALÁRIO</t>
+  </si>
+  <si>
+    <t>RENTAB.</t>
+  </si>
+  <si>
+    <t>SALÁRIO MAX</t>
+  </si>
+  <si>
+    <t>REAPLICAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -385,7 +447,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -452,13 +514,23 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="108">
     <dxf>
       <font>
         <b val="0"/>
@@ -493,6 +565,130 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -511,6 +707,129 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -547,6 +866,108 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -601,6 +1022,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1677,6 +2152,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1950,91 +2443,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AI5" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:AI5"/>
-  <tableColumns count="35">
-    <tableColumn id="31" name="ATIVO" dataDxfId="81"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="80" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="79" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="78" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="FIM" dataDxfId="77" dataCellStyle="Moeda"/>
-    <tableColumn id="35" name="TGT +" dataDxfId="76" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="75" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="74" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TGT" dataDxfId="73" dataCellStyle="Porcentagem"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="72" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="71" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="70" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="69" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="0" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, IF([BASE RV] &lt; SETUP!$A$4, [BASE RV] * SETUP!$B$4, IF([BASE RV] &lt; SETUP!$A$5, [BASE RV] * SETUP!$B$5, 0))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="68" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="67" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="RETORNO" dataDxfId="66" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="64">
-      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="63">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="62">
-      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="61">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE A" dataDxfId="60">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="59">
-      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="33" name="QTDE MAX" dataDxfId="58">
-      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="32" name="QTDE" dataDxfId="57">
-      <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="56">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="55">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="54" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="53" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="52">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="51" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="50">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="49" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="48" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:V4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:V4">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
+    <filterColumn colId="11"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+    <filterColumn colId="14"/>
+    <filterColumn colId="15"/>
+    <filterColumn colId="16"/>
+    <filterColumn colId="17"/>
+    <filterColumn colId="18"/>
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
+  </autoFilter>
+  <tableColumns count="22">
+    <tableColumn id="13" name="ATIVO" dataDxfId="23"/>
+    <tableColumn id="14" name="COTAÇÃO" dataDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="PATRIMONIO" dataDxfId="21" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="START" dataDxfId="20" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="STOP" dataDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="17" name="TARGET" dataDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="VOLAT." dataDxfId="17" dataCellStyle="Porcentagem"/>
+    <tableColumn id="22" name="RISCO/TRADE" dataDxfId="16" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="RISCO" dataDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIMONIO]*[RISCO/TRADE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="QTDE TMP 1" dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="QTDE 1" dataDxfId="14" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="QTDE TMP 2" dataDxfId="13">
+      <calculatedColumnFormula>ROUNDDOWN([PATRIMONIO]/3/[START],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="QTDE 2" dataDxfId="12">
+      <calculatedColumnFormula>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="QTDE" dataDxfId="11">
+      <calculatedColumnFormula>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="RISCO MAX" dataDxfId="10" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE]*[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="PROTEÇÃO" dataDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="LUCRO" dataDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE]*ABS([TARGET]-[START])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="RENTAB." dataDxfId="8" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[LUCRO]/[PATRIMONIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="PESO" dataDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO]/[RISCO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="SALÁRIO" dataDxfId="4" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="TGT SALARIO" dataDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>([SALÁRIO]/ (32% * [QTDE]))+[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="REAPLICAR" dataDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO]*80%-[SALÁRIO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2042,75 +2524,91 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:AC3"/>
-  <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="45"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="44" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="38" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="37" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="36" dataCellStyle="Porcentagem"/>
-    <tableColumn id="7" name="BASE RV" dataDxfId="35" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AI5" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="A1:AI5"/>
+  <tableColumns count="35">
+    <tableColumn id="31" name="ATIVO" dataDxfId="105"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="104" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="103" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="102" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="FIM" dataDxfId="101" dataCellStyle="Moeda"/>
+    <tableColumn id="35" name="TGT +" dataDxfId="100" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="99" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="98" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="97" dataCellStyle="Porcentagem"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="96" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="95" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="94" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="BASE RV" dataDxfId="93" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="33" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="32" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="31" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="30">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="29">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="28">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="27">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="26">
+    <tableColumn id="8" name="RISCO" dataDxfId="92" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, IF([BASE RV] &lt; SETUP!$A$4, [BASE RV] * SETUP!$B$4, IF([BASE RV] &lt; SETUP!$A$5, [BASE RV] * SETUP!$B$5, 0))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="91" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="90" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[FIM] / [INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="RETORNO" dataDxfId="89" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="88" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="87">
+      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="86">
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [FIM], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="85">
+      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="84">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE A" dataDxfId="83">
       <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="25">
+    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="82">
+      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" name="QTDE MAX" dataDxfId="81">
+      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" name="QTDE" dataDxfId="80">
+      <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="79">
       <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="24">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="23" dataCellStyle="Moeda">
+    <tableColumn id="24" name="PERDA" dataDxfId="78">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="77" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="76" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="21">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="75">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR] - 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="74" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="19">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="73">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR] - 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="72" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="14" name="% 85" dataDxfId="71" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2118,41 +2616,117 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+  <autoFilter ref="A1:AC3"/>
+  <tableColumns count="29">
+    <tableColumn id="31" name="ATIVO" dataDxfId="68"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="67" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="66" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="65" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="64" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="63" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="62" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="61" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="60" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="59" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" name="BASE RV" dataDxfId="58" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="57" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="56" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="55" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="54" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="53">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="52">
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="51">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="50">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="49">
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="48">
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="47">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="46" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="45" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="44">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="43" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="42">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="41" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="40" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="14"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="1" name="ATIVO" dataDxfId="37"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="36" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="35" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="34" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="33" dataCellStyle="Moeda">
       <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="8" name="33%" dataDxfId="32" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="7" name="50%" dataDxfId="31" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="6" name="60%" dataDxfId="30" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="12" name="DIF 33%" dataDxfId="29" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="11" name="DIF 50%" dataDxfId="28" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="10" name="DIF 60%" dataDxfId="27" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="13" name="% PERNA" dataDxfId="26" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="25" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="24" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2445,9 +3019,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="6.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2">
+        <v>21.46</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.3075</v>
+      </c>
+      <c r="H2" s="4">
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="I2" s="2">
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>60</v>
+      </c>
+      <c r="J2" s="6">
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>428</v>
+      </c>
+      <c r="K2" s="6">
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+        <v>400</v>
+      </c>
+      <c r="L2" s="6">
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>1923</v>
+      </c>
+      <c r="M2" s="6">
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>1900</v>
+      </c>
+      <c r="N2" s="71">
+        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
+        <v>400</v>
+      </c>
+      <c r="O2" s="2">
+        <f>[QTDE]*[START]</f>
+        <v>208</v>
+      </c>
+      <c r="P2" s="2">
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.7899475</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>251.99999999999994</v>
+      </c>
+      <c r="R2" s="4">
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>8.3999999999999977E-2</v>
+      </c>
+      <c r="S2" s="66">
+        <f>[LUCRO]/[RISCO]</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="T2" s="2">
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
+        <v>90</v>
+      </c>
+      <c r="U2" s="2">
+        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
+        <v>1.223125</v>
+      </c>
+      <c r="V2" s="2">
+        <f>[LUCRO]*80%-[SALÁRIO]</f>
+        <v>111.59999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="67">
+        <v>3.79</v>
+      </c>
+      <c r="C3" s="67">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="67">
+        <v>3.79</v>
+      </c>
+      <c r="E3" s="67">
+        <v>3.62</v>
+      </c>
+      <c r="F3" s="67">
+        <v>5.45</v>
+      </c>
+      <c r="G3" s="68">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H3" s="68">
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="I3" s="67">
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>100</v>
+      </c>
+      <c r="J3" s="69">
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>588</v>
+      </c>
+      <c r="K3" s="69">
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+        <v>500</v>
+      </c>
+      <c r="L3" s="20">
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>439</v>
+      </c>
+      <c r="M3" s="20">
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>400</v>
+      </c>
+      <c r="N3" s="72">
+        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
+        <v>400</v>
+      </c>
+      <c r="O3" s="67">
+        <f>[QTDE]*[START]</f>
+        <v>1516</v>
+      </c>
+      <c r="P3" s="67">
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>3.9755205</v>
+      </c>
+      <c r="Q3" s="67">
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>664</v>
+      </c>
+      <c r="R3" s="68">
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>0.1328</v>
+      </c>
+      <c r="S3" s="70">
+        <f>[LUCRO]/[RISCO]</f>
+        <v>6.64</v>
+      </c>
+      <c r="T3" s="67">
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
+        <v>150</v>
+      </c>
+      <c r="U3" s="2">
+        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
+        <v>4.961875</v>
+      </c>
+      <c r="V3" s="2">
+        <f>[LUCRO]*80%-[SALÁRIO]</f>
+        <v>381.20000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11.89</v>
+      </c>
+      <c r="C4" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11.89</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12.03</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.37259999999999999</v>
+      </c>
+      <c r="H4" s="68">
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I4" s="74">
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>525</v>
+      </c>
+      <c r="J4" s="69">
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>3750</v>
+      </c>
+      <c r="K4" s="69">
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+        <v>3700</v>
+      </c>
+      <c r="L4" s="20">
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>1962</v>
+      </c>
+      <c r="M4" s="20">
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>1900</v>
+      </c>
+      <c r="N4" s="72">
+        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
+        <v>1900</v>
+      </c>
+      <c r="O4" s="67">
+        <f>[QTDE]*[START]</f>
+        <v>22591</v>
+      </c>
+      <c r="P4" s="74">
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>11.668489300000001</v>
+      </c>
+      <c r="Q4" s="67">
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>1691.0000000000011</v>
+      </c>
+      <c r="R4" s="68">
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>2.4157142857142874E-2</v>
+      </c>
+      <c r="S4" s="70">
+        <f>[LUCRO]/[RISCO]</f>
+        <v>3.220952380952383</v>
+      </c>
+      <c r="T4" s="74">
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
+        <v>2100</v>
+      </c>
+      <c r="U4" s="74">
+        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
+        <v>15.343947368421054</v>
+      </c>
+      <c r="V4" s="67">
+        <f>[LUCRO]*80%-[SALÁRIO]</f>
+        <v>-747.19999999999891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3133,7 +4067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -3490,12 +4424,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3503,18 +4437,22 @@
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="75" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -3525,8 +4463,11 @@
         <f>A2*B2</f>
         <v>200</v>
       </c>
+      <c r="D2" s="2">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -3538,7 +4479,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -3550,7 +4491,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -3562,7 +4503,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -3574,7 +4515,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -3591,7 +4532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625"/>
@@ -13,7 +13,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId4"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -23,21 +23,7 @@
     <author>Engelbert</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>IDADE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,24 +37,6 @@
 33%
 50%
 60%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">PERÍODO:
-1 = DIARIO
-2 = SEMANAL
-3 = MENSAL
-</t>
         </r>
       </text>
     </comment>
@@ -119,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>INICIO</t>
   </si>
@@ -205,9 +173,6 @@
     <t>ATIVO</t>
   </si>
   <si>
-    <t>PDGR3</t>
-  </si>
-  <si>
     <t>BISA3</t>
   </si>
   <si>
@@ -307,9 +272,6 @@
     <t>RISCO MAX</t>
   </si>
   <si>
-    <t>PETRH20</t>
-  </si>
-  <si>
     <t>COTAÇÃO</t>
   </si>
   <si>
@@ -347,17 +309,32 @@
   </si>
   <si>
     <t>% VAR</t>
+  </si>
+  <si>
+    <t>PETRI22</t>
+  </si>
+  <si>
+    <t>PETRI23</t>
+  </si>
+  <si>
+    <t>VALEI37</t>
+  </si>
+  <si>
+    <t>VALEI36</t>
+  </si>
+  <si>
+    <t>% LUCRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +405,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -448,111 +431,85 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <font>
         <b val="0"/>
@@ -587,24 +544,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -640,6 +580,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -730,6 +724,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -900,7 +912,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -936,7 +948,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -972,7 +984,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1026,7 +1038,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1044,7 +1056,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1098,7 +1110,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1116,7 +1128,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1134,7 +1146,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1152,7 +1164,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1446,24 +1458,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1482,7 +1476,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1518,24 +1530,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1572,42 +1566,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1644,6 +1602,480 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1680,97 +2112,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1806,93 +2148,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -1911,429 +2166,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -2482,67 +2314,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:X6" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
-  <autoFilter ref="A1:X6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:X5" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+  <autoFilter ref="A1:X5"/>
   <sortState ref="A2:X6">
     <sortCondition ref="C1:C6"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="13" name="ATIVO" dataDxfId="107"/>
-    <tableColumn id="14" name="COTAÇÃO" dataDxfId="106" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="EXERCÍCIO" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="PATRIMONIO" dataDxfId="105" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="START" dataDxfId="104" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="STOP" dataDxfId="103" dataCellStyle="Moeda"/>
-    <tableColumn id="17" name="TARGET" dataDxfId="102" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="VOLAT." dataDxfId="101" dataCellStyle="Porcentagem"/>
-    <tableColumn id="22" name="RISCO/TRADE" dataDxfId="100" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="RISCO" dataDxfId="99" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="QTDE TMP 1" dataDxfId="98" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="QTDE 1" dataDxfId="97" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="QTDE TMP 2" dataDxfId="96">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="QTDE 2" dataDxfId="95">
-      <calculatedColumnFormula>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="QTDE" dataDxfId="94">
+    <tableColumn id="13" name="ATIVO" dataDxfId="99"/>
+    <tableColumn id="14" name="COTAÇÃO" dataDxfId="98" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="EXERCÍCIO" dataDxfId="97" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="PATRIMONIO" dataDxfId="96" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="START" dataDxfId="95" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="STOP" dataDxfId="94" dataCellStyle="Moeda"/>
+    <tableColumn id="17" name="TARGET" dataDxfId="93" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="VOLAT." dataDxfId="92" dataCellStyle="Porcentagem"/>
+    <tableColumn id="22" name="RISCO/TRADE" dataDxfId="91" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="RISCO" dataDxfId="90" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIMONIO]*[RISCO/TRADE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="QTDE TMP 1" dataDxfId="89" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="QTDE 1" dataDxfId="88" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="QTDE TMP 2" dataDxfId="87">
+      <calculatedColumnFormula>ROUNDDOWN([PATRIMONIO]/3/[START],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="QTDE 2" dataDxfId="86">
+      <calculatedColumnFormula>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="QTDE" dataDxfId="85">
       <calculatedColumnFormula>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="RISCO MAX" dataDxfId="93" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[QTDE]*Tabela4[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="PROTEÇÃO" dataDxfId="92" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="LUCRO" dataDxfId="91" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="RENTAB." dataDxfId="90" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="PESO" dataDxfId="89" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[LUCRO]/Tabela4[RISCO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="SALÁRIO" dataDxfId="0" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="TGT SALARIO" dataDxfId="88" dataCellStyle="Moeda">
-      <calculatedColumnFormula>(Tabela4[SALÁRIO]/ (32% * Tabela4[QTDE]))+Tabela4[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="REAPLICAR" dataDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[LUCRO]*80%-Tabela4[SALÁRIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="% VAR" dataDxfId="1" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</calculatedColumnFormula>
+    <tableColumn id="11" name="RISCO MAX" dataDxfId="84" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE]*[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="PROTEÇÃO" dataDxfId="83" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="LUCRO" dataDxfId="82" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE]*ABS([TARGET]-[START])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="RENTAB." dataDxfId="81" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[LUCRO]/[PATRIMONIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="PESO" dataDxfId="80" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO]/[RISCO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="SALÁRIO" dataDxfId="79" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="TGT SALARIO" dataDxfId="78" dataCellStyle="Moeda">
+      <calculatedColumnFormula>([SALÁRIO]/ (32% * [QTDE]))+[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="REAPLICAR" dataDxfId="77" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO]*80%-[SALÁRIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="% VAR" dataDxfId="76" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2550,91 +2382,73 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AI5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
-  <autoFilter ref="A1:AI5"/>
-  <tableColumns count="35">
-    <tableColumn id="31" name="ATIVO" dataDxfId="85"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="84" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="83" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="82" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="FIM" dataDxfId="81" dataCellStyle="Moeda"/>
-    <tableColumn id="35" name="TGT +" dataDxfId="80" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="79" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="78" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TGT" dataDxfId="77" dataCellStyle="Porcentagem"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="76" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="75" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="74" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="BASE RV" dataDxfId="73" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="72" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, IF(Tabela1[BASE RV] &lt; SETUP!$A$4, Tabela1[BASE RV] * SETUP!$B$4, IF(Tabela1[BASE RV] &lt; SETUP!$A$5, Tabela1[BASE RV] * SETUP!$B$5, 0))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="71" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="70" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela1[FIM] / Tabela1[INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="RETORNO" dataDxfId="69" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="68" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="67">
-      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="66">
-      <calculatedColumnFormula>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="65">
-      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="64">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE A" dataDxfId="63">
-      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="62">
-      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="33" name="QTDE MAX" dataDxfId="61">
-      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="32" name="QTDE" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AA4" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+  <autoFilter ref="A1:AA4">
+    <filterColumn colId="26"/>
+  </autoFilter>
+  <tableColumns count="27">
+    <tableColumn id="31" name="ATIVO" dataDxfId="73"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="72" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="71" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="FIM" dataDxfId="70" dataCellStyle="Moeda"/>
+    <tableColumn id="35" name="TGT +" dataDxfId="69" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="68" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="67" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="66" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="65" dataCellStyle="Porcentagem"/>
+    <tableColumn id="8" name="RISCO" dataDxfId="4" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="64" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>([FIM] / [INICIO] - 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="RETORNO" dataDxfId="63" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="62">
+      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="61">
+      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="60">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE A" dataDxfId="59">
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="58">
+      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" name="QTDE MAX" dataDxfId="57">
+      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" name="QTDE" dataDxfId="56">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="59">
-      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="58">
-      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="57" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="56" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="55">
-      <calculatedColumnFormula>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="54" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[QTDE] - Tabela1[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="53">
-      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="52" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="51" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="23" name="VOLUME" dataDxfId="55">
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="54">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO" dataDxfId="5">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="53" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="% LUCRO" dataDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[LUCRO]/[PATRIM.]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2642,75 +2456,75 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="48"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="47" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="46" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="45" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="44" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="40" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="39" dataCellStyle="Porcentagem"/>
-    <tableColumn id="7" name="BASE RV" dataDxfId="38" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="37" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="36" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="35" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="33">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="32">
-      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="31">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="30">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="29">
-      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="28">
-      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="27">
-      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="26" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="25" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="24">
-      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="23" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="22">
-      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="20" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="31" name="ATIVO" dataDxfId="50"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="49" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="48" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="47" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="46" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="45" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="44" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="42" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="41" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" name="BASE RV" dataDxfId="40" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="39" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="38" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="37" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="36" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="35">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="34">
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="33">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="32">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="31">
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="30">
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="29">
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="28" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="27" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="26">
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="25" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="24">
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="23" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="22" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2718,42 +2532,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="17"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="16" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="14" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="13" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="12" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="11" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="10" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="9" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="8" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="7" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="6" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="ATIVO" dataDxfId="19"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="17" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="16" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="33%" dataDxfId="14" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="50%" dataDxfId="13" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="60%" dataDxfId="12" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="DIF 33%" dataDxfId="11" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="DIF 50%" dataDxfId="10" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="DIF 60%" dataDxfId="9" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="% PERNA" dataDxfId="8" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="4" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="6" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2835,7 +2649,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2870,7 +2683,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -3046,54 +2858,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E5"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="6.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -3102,502 +2914,418 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2">
+        <v>21.45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21.83</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="I2" s="4">
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="12">
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>130</v>
+      </c>
+      <c r="K2" s="6">
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>1000</v>
+      </c>
+      <c r="L2" s="6">
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>5416</v>
+      </c>
+      <c r="N2" s="1">
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>5400</v>
+      </c>
+      <c r="O2" s="57">
+        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
+        <v>1000</v>
+      </c>
+      <c r="P2" s="2">
+        <f>[QTDE]*[START]</f>
+        <v>400</v>
+      </c>
+      <c r="Q2" s="12">
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.769068749999999</v>
+      </c>
+      <c r="R2" s="12">
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>779.99999999999989</v>
+      </c>
+      <c r="S2" s="4">
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="T2" s="56">
+        <f>[LUCRO]/[RISCO]</f>
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="U2" s="12">
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
+        <v>195</v>
+      </c>
+      <c r="V2" s="12">
+        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
+        <v>1.0093749999999999</v>
+      </c>
+      <c r="W2" s="12">
+        <f>[LUCRO]*80%-[SALÁRIO]</f>
+        <v>429</v>
+      </c>
+      <c r="X2" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</f>
+        <v>7.2727272727272751E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B3" s="2">
+        <v>21.45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22.83</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="12">
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
+      </c>
+      <c r="K3" s="6">
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>833</v>
+      </c>
+      <c r="L3" s="6">
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+        <v>800</v>
+      </c>
+      <c r="M3" s="1">
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>6944</v>
+      </c>
+      <c r="N3" s="1">
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>6900</v>
+      </c>
+      <c r="O3" s="57">
+        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
+        <v>800</v>
+      </c>
+      <c r="P3" s="2">
+        <f>[QTDE]*[START]</f>
+        <v>96</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.769068749999999</v>
+      </c>
+      <c r="R3" s="12">
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>231.99999999999997</v>
+      </c>
+      <c r="S3" s="4">
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="T3" s="56">
+        <f>[LUCRO]/[RISCO]</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="U3" s="12">
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
+        <v>75</v>
+      </c>
+      <c r="V3" s="12">
+        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
+        <v>0.41296875</v>
+      </c>
+      <c r="W3" s="12">
+        <f>[LUCRO]*80%-[SALÁRIO]</f>
+        <v>110.6</v>
+      </c>
+      <c r="X3" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</f>
+        <v>8.3449883449883355E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>21.53</v>
-      </c>
-      <c r="C2" s="2">
-        <v>19.829999999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.68</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5.65</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.3075</v>
-      </c>
-      <c r="I2" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="J2" s="12">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>40</v>
-      </c>
-      <c r="K2" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>181</v>
-      </c>
-      <c r="L2" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
-        <v>100</v>
-      </c>
-      <c r="M2" s="1">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>701</v>
-      </c>
-      <c r="N2" s="1">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+    <row r="4" spans="1:24">
+      <c r="A4" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="C4" s="2">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="2">
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
+      </c>
+      <c r="K4" s="6">
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>714</v>
+      </c>
+      <c r="L4" s="6">
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
         <v>700</v>
       </c>
-      <c r="O2" s="71">
+      <c r="M4" s="6">
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>5952</v>
+      </c>
+      <c r="N4" s="6">
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>5900</v>
+      </c>
+      <c r="O4" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>100</v>
-      </c>
-      <c r="P2" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>190</v>
-      </c>
-      <c r="Q2" s="12">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.861023750000001</v>
-      </c>
-      <c r="R2" s="12">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>375.00000000000006</v>
-      </c>
-      <c r="S2" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>9.3750000000000014E-2</v>
-      </c>
-      <c r="T2" s="66">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>9.3750000000000018</v>
-      </c>
-      <c r="U2" s="12">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
-        <v>120</v>
-      </c>
-      <c r="V2" s="12">
-        <f>(Tabela4[SALÁRIO]/ (32% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>5.65</v>
-      </c>
-      <c r="W2" s="12">
-        <f>Tabela4[LUCRO]*80%-Tabela4[SALÁRIO]</f>
-        <v>180.00000000000006</v>
-      </c>
-      <c r="X2" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>0.18346493265211317</v>
+        <v>700</v>
+      </c>
+      <c r="P4" s="2">
+        <f>[QTDE]*[START]</f>
+        <v>98.000000000000014</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>34.120805399999995</v>
+      </c>
+      <c r="R4" s="2">
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>230.99999999999997</v>
+      </c>
+      <c r="S4" s="4">
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>9.2399999999999982E-2</v>
+      </c>
+      <c r="T4" s="56">
+        <f>[LUCRO]/[RISCO]</f>
+        <v>4.6199999999999992</v>
+      </c>
+      <c r="U4" s="2">
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
+        <v>75</v>
+      </c>
+      <c r="V4" s="2">
+        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
+        <v>0.47482142857142856</v>
+      </c>
+      <c r="W4" s="2">
+        <f>[LUCRO]*80%-[SALÁRIO]</f>
+        <v>109.79999999999998</v>
+      </c>
+      <c r="X4" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</f>
+        <v>0.11319073083778974</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>21.53</v>
-      </c>
-      <c r="C3" s="2">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2.88</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.3075</v>
-      </c>
-      <c r="I3" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="J3" s="12">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>40</v>
-      </c>
-      <c r="K3" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>222</v>
-      </c>
-      <c r="L3" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
-        <v>200</v>
-      </c>
-      <c r="M3" s="1">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>1333</v>
-      </c>
-      <c r="N3" s="1">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
-        <v>1300</v>
-      </c>
-      <c r="O3" s="71">
+    <row r="5" spans="1:24">
+      <c r="A5" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="C5" s="62">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="D5" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="62">
+        <v>0.43</v>
+      </c>
+      <c r="F5" s="62">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G5" s="62">
+        <v>1.21</v>
+      </c>
+      <c r="H5" s="63">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="I5" s="63">
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="64">
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
+      </c>
+      <c r="K5" s="65">
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>357</v>
+      </c>
+      <c r="L5" s="65">
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+        <v>300</v>
+      </c>
+      <c r="M5" s="61">
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>1937</v>
+      </c>
+      <c r="N5" s="61">
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>1900</v>
+      </c>
+      <c r="O5" s="66">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>200</v>
-      </c>
-      <c r="P3" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>200</v>
-      </c>
-      <c r="Q3" s="12">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.861023750000001</v>
-      </c>
-      <c r="R3" s="12">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>376</v>
-      </c>
-      <c r="S3" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>9.4E-2</v>
-      </c>
-      <c r="T3" s="66">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>9.4</v>
-      </c>
-      <c r="U3" s="12">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
-        <v>120</v>
-      </c>
-      <c r="V3" s="12">
-        <f>(Tabela4[SALÁRIO]/ (32% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>2.875</v>
-      </c>
-      <c r="W3" s="12">
-        <f>Tabela4[LUCRO]*80%-Tabela4[SALÁRIO]</f>
-        <v>180.8</v>
-      </c>
-      <c r="X3" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>0.10915002322340905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="2">
-        <v>21.53</v>
-      </c>
-      <c r="C4" s="2">
-        <v>21.83</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.3075</v>
-      </c>
-      <c r="I4" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="J4" s="2">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>40</v>
-      </c>
-      <c r="K4" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>285</v>
-      </c>
-      <c r="L4" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
-        <v>200</v>
-      </c>
-      <c r="M4" s="6">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>2515</v>
-      </c>
-      <c r="N4" s="6">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
-        <v>2500</v>
-      </c>
-      <c r="O4" s="71">
-        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>200</v>
-      </c>
-      <c r="P4" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>106</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.861023750000001</v>
-      </c>
-      <c r="R4" s="2">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>376</v>
-      </c>
-      <c r="S4" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>9.4E-2</v>
-      </c>
-      <c r="T4" s="66">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>9.4</v>
-      </c>
-      <c r="U4" s="2">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
-        <v>120</v>
-      </c>
-      <c r="V4" s="2">
-        <f>(Tabela4[SALÁRIO]/ (32% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>2.4050000000000002</v>
-      </c>
-      <c r="W4" s="2">
-        <f>Tabela4[LUCRO]*80%-Tabela4[SALÁRIO]</f>
-        <v>180.8</v>
-      </c>
-      <c r="X4" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>0.12587087784486739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="2">
-        <v>21.53</v>
-      </c>
-      <c r="C5" s="2">
-        <v>22.83</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.3075</v>
-      </c>
-      <c r="I5" s="68">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="J5" s="67">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>40</v>
-      </c>
-      <c r="K5" s="69">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>444</v>
-      </c>
-      <c r="L5" s="69">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
-        <v>400</v>
-      </c>
-      <c r="M5" s="20">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>7017</v>
-      </c>
-      <c r="N5" s="20">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
-        <v>7000</v>
-      </c>
-      <c r="O5" s="72">
-        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>400</v>
-      </c>
-      <c r="P5" s="67">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>76</v>
-      </c>
-      <c r="Q5" s="67">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.861023750000001</v>
-      </c>
-      <c r="R5" s="67">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>376</v>
-      </c>
-      <c r="S5" s="68">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>9.4E-2</v>
-      </c>
-      <c r="T5" s="70">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>9.4</v>
-      </c>
-      <c r="U5" s="67">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
-        <v>120</v>
-      </c>
-      <c r="V5" s="2">
-        <f>(Tabela4[SALÁRIO]/ (32% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>1.1274999999999999</v>
-      </c>
-      <c r="W5" s="2">
-        <f>Tabela4[LUCRO]*80%-Tabela4[SALÁRIO]</f>
-        <v>180.8</v>
-      </c>
-      <c r="X5" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>0.11286576869484422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21.53</v>
-      </c>
-      <c r="C6" s="2">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.3075</v>
-      </c>
-      <c r="I6" s="68">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="74">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>40</v>
-      </c>
-      <c r="K6" s="69">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>571</v>
-      </c>
-      <c r="L6" s="69">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
-        <v>500</v>
-      </c>
-      <c r="M6" s="20">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>16666</v>
-      </c>
-      <c r="N6" s="20">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
-        <v>16600</v>
-      </c>
-      <c r="O6" s="72">
-        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>500</v>
-      </c>
-      <c r="P6" s="67">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>40</v>
-      </c>
-      <c r="Q6" s="74">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.861023750000001</v>
-      </c>
-      <c r="R6" s="67">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>375</v>
-      </c>
-      <c r="S6" s="68">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>9.375E-2</v>
-      </c>
-      <c r="T6" s="70">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>9.375</v>
-      </c>
-      <c r="U6" s="74">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
-        <v>120</v>
-      </c>
-      <c r="V6" s="74">
-        <f>(Tabela4[SALÁRIO]/ (32% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>0.83</v>
-      </c>
-      <c r="W6" s="67">
-        <f>Tabela4[LUCRO]*80%-Tabela4[SALÁRIO]</f>
-        <v>180</v>
-      </c>
-      <c r="X6" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>0.15327450069670223</v>
+        <v>300</v>
+      </c>
+      <c r="P5" s="62">
+        <f>[QTDE]*[START]</f>
+        <v>129</v>
+      </c>
+      <c r="Q5" s="64">
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>34.120805399999995</v>
+      </c>
+      <c r="R5" s="64">
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>234</v>
+      </c>
+      <c r="S5" s="63">
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="T5" s="67">
+        <f>[LUCRO]/[RISCO]</f>
+        <v>4.68</v>
+      </c>
+      <c r="U5" s="64">
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
+        <v>75</v>
+      </c>
+      <c r="V5" s="64">
+        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
+        <v>1.2112499999999999</v>
+      </c>
+      <c r="W5" s="64">
+        <f>[LUCRO]*80%-[SALÁRIO]</f>
+        <v>112.20000000000002</v>
+      </c>
+      <c r="X5" s="63">
+        <f>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</f>
+        <v>7.8431372549019773E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3610,683 +3338,432 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="10.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" style="11" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="9" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="4"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>52</v>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>23</v>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="V1" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="60" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="25">
-        <v>4800</v>
-      </c>
-      <c r="C2" s="26">
-        <v>26</v>
-      </c>
-      <c r="D2" s="25">
-        <v>5.17</v>
-      </c>
-      <c r="E2" s="25">
-        <v>2.87</v>
-      </c>
-      <c r="F2" s="25">
-        <v>0</v>
-      </c>
-      <c r="G2" s="27">
+    <row r="2" spans="1:27">
+      <c r="A2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="14">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>33.5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>31.95</v>
+      </c>
+      <c r="E2" s="14">
+        <v>27.98</v>
+      </c>
+      <c r="F2" s="15">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H2" s="27">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I2" s="27">
+      <c r="G2" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="H2" s="15">
         <v>1.5E-3</v>
       </c>
-      <c r="J2" s="27">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="K2" s="28">
+      <c r="I2" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="J2" s="2">
+        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <v>375</v>
+      </c>
+      <c r="K2" s="2">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="L2" s="4">
+        <f>([FIM] / [INICIO] - 1)</f>
+        <v>-4.6268656716417889E-2</v>
+      </c>
+      <c r="M2" s="12">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>32.461500000000001</v>
+      </c>
+      <c r="N2" s="12">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>32.49</v>
+      </c>
+      <c r="O2" s="18">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>32.520000000000003</v>
+      </c>
+      <c r="P2" s="18">
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <v>27.98</v>
+      </c>
+      <c r="Q2" s="11">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>12499</v>
+      </c>
+      <c r="R2" s="11">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>12400</v>
+      </c>
+      <c r="S2" s="11">
+        <f>([PATRIM.] / 3) / [START]</f>
+        <v>512.97835231353235</v>
+      </c>
+      <c r="T2" s="11">
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <v>500</v>
+      </c>
+      <c r="U2" s="11">
+        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
+        <v>500</v>
+      </c>
+      <c r="V2" s="18">
+        <f>[QTDE] * [START]</f>
+        <v>16245.000000000002</v>
+      </c>
+      <c r="W2" s="18">
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>45.000000000000568</v>
+      </c>
+      <c r="X2" s="18">
+        <f>ABS([TGT] - [START]) * [QTDE]</f>
+        <v>2255.0000000000009</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>[LUCRO] / [PERDA]</f>
+        <v>50.111111111110496</v>
+      </c>
+      <c r="Z2" s="12">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>28.656500000000001</v>
+      </c>
+      <c r="AA2" s="60">
+        <f>[LUCRO]/[PATRIM.]</f>
+        <v>4.5100000000000015E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="14">
+        <v>50000</v>
+      </c>
+      <c r="C3" s="14">
+        <v>33.5</v>
+      </c>
+      <c r="D3" s="14">
+        <v>31.95</v>
+      </c>
+      <c r="E3" s="14">
+        <v>27.98</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I3" s="16">
         <v>0.5</v>
       </c>
-      <c r="L2" s="29">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="25">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>3552</v>
-      </c>
-      <c r="N2" s="25">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, IF(Tabela1[BASE RV] &lt; SETUP!$A$4, Tabela1[BASE RV] * SETUP!$B$4, IF(Tabela1[BASE RV] &lt; SETUP!$A$5, Tabela1[BASE RV] * SETUP!$B$5, 0))))</f>
-        <v>35.520000000000003</v>
-      </c>
-      <c r="O2" s="25">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P2" s="27">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>-0.44487427466150864</v>
-      </c>
-      <c r="Q2" s="25">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="R2" s="25">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="S2" s="25">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>4.13</v>
-      </c>
-      <c r="T2" s="25">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>3.4662858999999995</v>
-      </c>
-      <c r="U2" s="25">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
-        <v>1.84</v>
-      </c>
-      <c r="V2" s="26">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>507</v>
-      </c>
-      <c r="W2" s="26">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
+      <c r="J3" s="46">
+        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <v>375</v>
+      </c>
+      <c r="K3" s="44">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="L3" s="45">
+        <f>([FIM] / [INICIO] - 1)</f>
+        <v>-4.6268656716417889E-2</v>
+      </c>
+      <c r="M3" s="46">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>32.725000000000001</v>
+      </c>
+      <c r="N3" s="46">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>32.76</v>
+      </c>
+      <c r="O3" s="47">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>32.79</v>
+      </c>
+      <c r="P3" s="47">
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <v>27.98</v>
+      </c>
+      <c r="Q3" s="48">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>12499</v>
+      </c>
+      <c r="R3" s="48">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>12400</v>
+      </c>
+      <c r="S3" s="48">
+        <f>([PATRIM.] / 3) / [START]</f>
+        <v>508.7505087505088</v>
+      </c>
+      <c r="T3" s="48">
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
-      <c r="X2" s="26">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
-        <v>394.08866995073896</v>
-      </c>
-      <c r="Y2" s="26">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
-        <v>300</v>
-      </c>
-      <c r="Z2" s="26">
+      <c r="U3" s="48">
         <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>300</v>
-      </c>
-      <c r="AA2" s="30">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>1217.9999999999998</v>
-      </c>
-      <c r="AB2" s="30">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>51.000000000000085</v>
-      </c>
-      <c r="AC2" s="26">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>150</v>
-      </c>
-      <c r="AD2" s="26">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>200</v>
-      </c>
-      <c r="AE2" s="30">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>88.742820000000023</v>
-      </c>
-      <c r="AF2" s="26">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>100</v>
-      </c>
-      <c r="AG2" s="30">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>295.74281999999999</v>
-      </c>
-      <c r="AH2" s="31">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>5.7988788235294022</v>
-      </c>
-      <c r="AI2" s="25">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>2.173</v>
+        <v>500</v>
+      </c>
+      <c r="V3" s="47">
+        <f>[QTDE] * [START]</f>
+        <v>16379.999999999998</v>
+      </c>
+      <c r="W3" s="47">
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>45.000000000000568</v>
+      </c>
+      <c r="X3" s="46">
+        <f>ABS([TGT] - [START]) * [QTDE]</f>
+        <v>2389.9999999999986</v>
+      </c>
+      <c r="Y3" s="49">
+        <f>[LUCRO] / [PERDA]</f>
+        <v>53.111111111110411</v>
+      </c>
+      <c r="Z3" s="46">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>28.696999999999999</v>
+      </c>
+      <c r="AA3" s="60">
+        <f>[LUCRO]/[PATRIM.]</f>
+        <v>4.7799999999999974E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="14">
-        <v>100000</v>
-      </c>
-      <c r="C3" s="15">
-        <v>26</v>
-      </c>
-      <c r="D3" s="14">
-        <v>18.41</v>
-      </c>
-      <c r="E3" s="14">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
+    <row r="4" spans="1:27">
+      <c r="A4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="14">
+        <v>50000</v>
+      </c>
+      <c r="C4" s="14">
+        <v>33.5</v>
+      </c>
+      <c r="D4" s="14">
+        <v>31.95</v>
+      </c>
+      <c r="E4" s="14">
+        <v>27.98</v>
+      </c>
+      <c r="F4" s="15">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H3" s="16">
+      <c r="G4" s="15">
         <v>2E-3</v>
       </c>
-      <c r="I3" s="16">
+      <c r="H4" s="15">
         <v>1.5E-3</v>
       </c>
-      <c r="J3" s="16">
-        <v>0.39539999999999997</v>
-      </c>
-      <c r="K3" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="L3" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>74000</v>
-      </c>
-      <c r="N3" s="2">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, IF(Tabela1[BASE RV] &lt; SETUP!$A$4, Tabela1[BASE RV] * SETUP!$B$4, IF(Tabela1[BASE RV] &lt; SETUP!$A$5, Tabela1[BASE RV] * SETUP!$B$5, 0))))</f>
-        <v>259</v>
-      </c>
-      <c r="O3" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>1.8999999999999986</v>
-      </c>
-      <c r="P3" s="4">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>0.10320478001086353</v>
-      </c>
-      <c r="Q3" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>19.683</v>
-      </c>
-      <c r="R3" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>19.63</v>
-      </c>
-      <c r="S3" s="19">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>19.579999999999998</v>
-      </c>
-      <c r="T3" s="19">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>20.7942553</v>
-      </c>
-      <c r="U3" s="19">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
-        <v>21.44</v>
-      </c>
-      <c r="V3" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>5179</v>
-      </c>
-      <c r="W3" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>5100</v>
-      </c>
-      <c r="X3" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
-        <v>1698.081168279844</v>
-      </c>
-      <c r="Y3" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
-        <v>1600</v>
-      </c>
-      <c r="Z3" s="11">
+      <c r="I4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="52">
+        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <v>375</v>
+      </c>
+      <c r="K4" s="50">
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="L4" s="51">
+        <f>([FIM] / [INICIO] - 1)</f>
+        <v>-4.6268656716417889E-2</v>
+      </c>
+      <c r="M4" s="52">
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="N4" s="52">
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <v>32.909999999999997</v>
+      </c>
+      <c r="O4" s="53">
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <v>32.94</v>
+      </c>
+      <c r="P4" s="53">
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <v>27.98</v>
+      </c>
+      <c r="Q4" s="54">
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>12499</v>
+      </c>
+      <c r="R4" s="54">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>12400</v>
+      </c>
+      <c r="S4" s="54">
+        <f>([PATRIM.] / 3) / [START]</f>
+        <v>506.4316823660489</v>
+      </c>
+      <c r="T4" s="54">
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <v>500</v>
+      </c>
+      <c r="U4" s="54">
         <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>1600</v>
-      </c>
-      <c r="AA3" s="19">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>31408</v>
-      </c>
-      <c r="AB3" s="19">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>110.00000000000114</v>
-      </c>
-      <c r="AC3" s="6">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>800</v>
-      </c>
-      <c r="AD3" s="6">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>800</v>
-      </c>
-      <c r="AE3" s="19">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>901.40424000000053</v>
-      </c>
-      <c r="AF3" s="6">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>800</v>
-      </c>
-      <c r="AG3" s="19">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>2334.4042400000026</v>
-      </c>
-      <c r="AH3" s="5">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>21.221856727272531</v>
-      </c>
-      <c r="AI3" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>21.168500000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="14">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="15">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14">
-        <v>18.41</v>
-      </c>
-      <c r="E4" s="14">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2E-3</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0.39539999999999997</v>
-      </c>
-      <c r="K4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="52">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>74000</v>
-      </c>
-      <c r="N4" s="55">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, IF(Tabela1[BASE RV] &lt; SETUP!$A$4, Tabela1[BASE RV] * SETUP!$B$4, IF(Tabela1[BASE RV] &lt; SETUP!$A$5, Tabela1[BASE RV] * SETUP!$B$5, 0))))</f>
-        <v>259</v>
-      </c>
-      <c r="O4" s="52">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>1.8999999999999986</v>
-      </c>
-      <c r="P4" s="54">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>0.10320478001086353</v>
-      </c>
-      <c r="Q4" s="55">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>19.36</v>
-      </c>
-      <c r="R4" s="55">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>19.309999999999999</v>
-      </c>
-      <c r="S4" s="56">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>19.27</v>
-      </c>
-      <c r="T4" s="56">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>20.455276099999999</v>
-      </c>
-      <c r="U4" s="56">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
-        <v>21.13</v>
-      </c>
-      <c r="V4" s="57">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>6475</v>
-      </c>
-      <c r="W4" s="57">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>6400</v>
-      </c>
-      <c r="X4" s="57">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
-        <v>1726.2213015708617</v>
-      </c>
-      <c r="Y4" s="57">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
-        <v>1700</v>
-      </c>
-      <c r="Z4" s="57">
-        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>1700</v>
-      </c>
-      <c r="AA4" s="56">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>32827</v>
-      </c>
-      <c r="AB4" s="56">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>97.99999999999855</v>
-      </c>
-      <c r="AC4" s="53">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>850</v>
-      </c>
-      <c r="AD4" s="53">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>900</v>
-      </c>
-      <c r="AE4" s="56">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>1000.7484900000002</v>
-      </c>
-      <c r="AF4" s="53">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>800</v>
-      </c>
-      <c r="AG4" s="55">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>2441.7484900000004</v>
-      </c>
-      <c r="AH4" s="58">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>24.915800918367719</v>
-      </c>
-      <c r="AI4" s="55">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>20.856999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="14">
-        <v>100000</v>
-      </c>
-      <c r="C5" s="15">
-        <v>26</v>
-      </c>
-      <c r="D5" s="14">
-        <v>18.41</v>
-      </c>
-      <c r="E5" s="14">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H5" s="16">
-        <v>2E-3</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0.39539999999999997</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="L5" s="10">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="59">
-        <f>Tabela1[PATRIM.] * (1 - Tabela1[AGE] / 100)</f>
-        <v>74000</v>
-      </c>
-      <c r="N5" s="62">
-        <f>IF(Tabela1[BASE RV] &lt; SETUP!$A$2, Tabela1[BASE RV] * SETUP!$B$2, IF(Tabela1[BASE RV] &lt; SETUP!$A$3, Tabela1[BASE RV] * SETUP!$B$3, IF(Tabela1[BASE RV] &lt; SETUP!$A$4, Tabela1[BASE RV] * SETUP!$B$4, IF(Tabela1[BASE RV] &lt; SETUP!$A$5, Tabela1[BASE RV] * SETUP!$B$5, 0))))</f>
-        <v>259</v>
-      </c>
-      <c r="O5" s="59">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
-        <v>1.8999999999999986</v>
-      </c>
-      <c r="P5" s="61">
-        <f>Tabela1[FIM] / Tabela1[INICIO] - 1</f>
-        <v>0.10320478001086353</v>
-      </c>
-      <c r="Q5" s="62">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
-        <v>19.169999999999998</v>
-      </c>
-      <c r="R5" s="62">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
-        <v>19.12</v>
-      </c>
-      <c r="S5" s="63">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
-        <v>19.079999999999998</v>
-      </c>
-      <c r="T5" s="63">
-        <f>Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 + Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]), (1 - Tabela1[% VOL] / 10 * 1.5 * Tabela1[PER]))</f>
-        <v>20.2540072</v>
-      </c>
-      <c r="U5" s="63">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
-        <v>20.94</v>
-      </c>
-      <c r="V5" s="64">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>6474</v>
-      </c>
-      <c r="W5" s="64">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>6400</v>
-      </c>
-      <c r="X5" s="64">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
-        <v>1743.3751743375174</v>
-      </c>
-      <c r="Y5" s="64">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
-        <v>1700</v>
-      </c>
-      <c r="Z5" s="64">
-        <f>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</f>
-        <v>1700</v>
-      </c>
-      <c r="AA5" s="63">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
-        <v>32504</v>
-      </c>
-      <c r="AB5" s="63">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
-        <v>98.00000000000459</v>
-      </c>
-      <c r="AC5" s="60">
-        <f>Tabela1[QTDE] / 2</f>
-        <v>850</v>
-      </c>
-      <c r="AD5" s="60">
-        <f>Tabela1[QTDE PAR TMP] + MOD(Tabela1[QTDE PAR TMP], 100)</f>
-        <v>900</v>
-      </c>
-      <c r="AE5" s="63">
-        <f>ABS(Tabela1[PARCIAL] - Tabela1[START]) * Tabela1[QTDE PAR] - 30</f>
-        <v>990.60647999999924</v>
-      </c>
-      <c r="AF5" s="60">
-        <f>Tabela1[QTDE] - Tabela1[QTDE PAR]</f>
-        <v>800</v>
-      </c>
-      <c r="AG5" s="62">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE ALVO] + Tabela1[LUCRO PAR] - 15</f>
-        <v>2431.6064799999995</v>
-      </c>
-      <c r="AH5" s="65">
-        <f>Tabela1[LUCRO ALVO] / Tabela1[PERDA]</f>
-        <v>24.812311020406995</v>
-      </c>
-      <c r="AI5" s="62">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
-        <v>20.667000000000002</v>
+        <v>500</v>
+      </c>
+      <c r="V4" s="53">
+        <f>[QTDE] * [START]</f>
+        <v>16455</v>
+      </c>
+      <c r="W4" s="53">
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <v>45.000000000000568</v>
+      </c>
+      <c r="X4" s="52">
+        <f>ABS([TGT] - [START]) * [QTDE]</f>
+        <v>2464.9999999999982</v>
+      </c>
+      <c r="Y4" s="55">
+        <f>[LUCRO] / [PERDA]</f>
+        <v>54.777777777777047</v>
+      </c>
+      <c r="Z4" s="52">
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <v>28.7195</v>
+      </c>
+      <c r="AA4" s="60">
+        <f>[LUCRO]/[PATRIM.]</f>
+        <v>4.9299999999999962E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4300,7 +3777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4310,7 +3787,7 @@
       <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -4341,33 +3818,33 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>23</v>
@@ -4430,219 +3907,219 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="34">
+    <row r="2" spans="1:29" s="24" customFormat="1">
+      <c r="A2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="26">
         <v>5300</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="27">
         <v>26</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="26">
         <v>12.36</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="26">
         <v>8.84</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="26">
         <v>11.17</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="26">
         <v>11.07</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="26">
         <v>10.82</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="28">
         <v>0.39460000000000001</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="29">
         <v>1</v>
       </c>
-      <c r="K2" s="34">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+      <c r="K2" s="26">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
-      <c r="L2" s="34">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>39.22</v>
-      </c>
-      <c r="M2" s="34">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+      <c r="L2" s="26">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>78.44</v>
+      </c>
+      <c r="M2" s="26">
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>3.5199999999999996</v>
       </c>
-      <c r="N2" s="36">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+      <c r="N2" s="28">
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.28478964401294493</v>
       </c>
-      <c r="O2" s="38">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+      <c r="O2" s="30">
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>10.8</v>
       </c>
-      <c r="P2" s="39">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+      <c r="P2" s="31">
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>11.09</v>
       </c>
-      <c r="Q2" s="39">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+      <c r="Q2" s="31">
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>10.160748000000002</v>
       </c>
-      <c r="R2" s="39">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+      <c r="R2" s="31">
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>7.65</v>
       </c>
-      <c r="S2" s="40">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
-        <v>156</v>
-      </c>
-      <c r="T2" s="40">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+      <c r="S2" s="32">
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <v>313</v>
+      </c>
+      <c r="T2" s="32">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="U2" s="31">
+        <f>[QTDE] * [START]</f>
+        <v>3240</v>
+      </c>
+      <c r="V2" s="31">
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <v>86.999999999999744</v>
+      </c>
+      <c r="W2" s="27">
+        <f>[QTDE] / 2</f>
+        <v>150</v>
+      </c>
+      <c r="X2" s="27">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>200</v>
+      </c>
+      <c r="Y2" s="30">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>127.85039999999981</v>
+      </c>
+      <c r="Z2" s="27">
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>100</v>
       </c>
-      <c r="U2" s="39">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
-        <v>1080</v>
-      </c>
-      <c r="V2" s="39">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
-        <v>28.999999999999915</v>
-      </c>
-      <c r="W2" s="35">
-        <f>Tabela13[QTDE] / 2</f>
-        <v>50</v>
-      </c>
-      <c r="X2" s="35">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
-        <v>100</v>
-      </c>
-      <c r="Y2" s="38">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>63.925199999999904</v>
-      </c>
-      <c r="Z2" s="35">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="39">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>63.925199999999904</v>
-      </c>
-      <c r="AB2" s="41">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>2.2043172413793135</v>
-      </c>
-      <c r="AC2" s="38">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+      <c r="AA2" s="31">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>442.85039999999987</v>
+      </c>
+      <c r="AB2" s="33">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>5.0902344827586345</v>
+      </c>
+      <c r="AC2" s="30">
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>8.1225000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="43">
+    <row r="3" spans="1:29" s="43" customFormat="1">
+      <c r="A3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="35">
         <v>6100</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="36">
         <v>26</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="35">
         <v>4.34</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="35">
         <v>3.18</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="35">
         <v>3.78</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="35">
         <v>3.78</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="35">
         <v>3.6</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="37">
         <v>0.7</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="38">
         <v>1</v>
       </c>
-      <c r="K3" s="43">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+      <c r="K3" s="35">
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>4514</v>
       </c>
-      <c r="L3" s="43">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>45.14</v>
-      </c>
-      <c r="M3" s="43">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+      <c r="L3" s="35">
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>90.28</v>
+      </c>
+      <c r="M3" s="35">
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>1.1599999999999997</v>
       </c>
-      <c r="N3" s="45">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+      <c r="N3" s="37">
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
-      <c r="O3" s="47">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+      <c r="O3" s="39">
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>3.58</v>
       </c>
-      <c r="P3" s="48">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+      <c r="P3" s="40">
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>3.8</v>
       </c>
-      <c r="Q3" s="48">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+      <c r="Q3" s="40">
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.2040999999999999</v>
       </c>
-      <c r="R3" s="48">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+      <c r="R3" s="40">
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>2.62</v>
       </c>
-      <c r="S3" s="49">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
+      <c r="S3" s="41">
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <v>501</v>
+      </c>
+      <c r="T3" s="41">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>500</v>
+      </c>
+      <c r="U3" s="40">
+        <f>[QTDE] * [START]</f>
+        <v>1790</v>
+      </c>
+      <c r="V3" s="40">
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <v>109.99999999999987</v>
+      </c>
+      <c r="W3" s="36">
+        <f>[QTDE] / 2</f>
         <v>250</v>
       </c>
-      <c r="T3" s="49">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
+      <c r="X3" s="36">
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="Y3" s="39">
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>112.77000000000004</v>
+      </c>
+      <c r="Z3" s="36">
+        <f>[QTDE] - [QTDE PAR]</f>
         <v>200</v>
       </c>
-      <c r="U3" s="48">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
-        <v>716</v>
-      </c>
-      <c r="V3" s="48">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
-        <v>43.99999999999995</v>
-      </c>
-      <c r="W3" s="44">
-        <f>Tabela13[QTDE] / 2</f>
-        <v>100</v>
-      </c>
-      <c r="X3" s="44">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
-        <v>100</v>
-      </c>
-      <c r="Y3" s="47">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>37.590000000000011</v>
-      </c>
-      <c r="Z3" s="44">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
-        <v>100</v>
-      </c>
-      <c r="AA3" s="48">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>133.59</v>
-      </c>
-      <c r="AB3" s="50">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>3.0361363636363672</v>
-      </c>
-      <c r="AC3" s="47">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+      <c r="AA3" s="40">
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>304.77000000000004</v>
+      </c>
+      <c r="AB3" s="42">
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>2.7706363636363673</v>
+      </c>
+      <c r="AC3" s="39">
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.7640000000000002</v>
       </c>
     </row>
@@ -4657,14 +4134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -4673,81 +4150,96 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>72</v>
+      <c r="D1" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
       <c r="B2" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="2">
         <f>A2*B2</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2">
         <v>3600</v>
       </c>
+      <c r="G2" s="4">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
       <c r="B3" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C7" si="0">A3*B3</f>
-        <v>150</v>
+        <v>300</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
       <c r="B4" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
       <c r="B5" s="4">
-        <v>3.5000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>750</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
       <c r="B6" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -4757,6 +4249,9 @@
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>2500</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4775,7 +4270,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -4788,7 +4283,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4799,42 +4294,42 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>2.74</v>
@@ -4846,35 +4341,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -4882,13 +4377,13 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>3.23</v>
@@ -4900,35 +4395,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -4936,13 +4431,13 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>5.47</v>
@@ -4954,35 +4449,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -4990,13 +4485,13 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>8.6999999999999993</v>
@@ -5006,35 +4501,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -5042,61 +4537,61 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="23">
+    <row r="6" spans="1:14">
+      <c r="A6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="22">
         <v>8.52</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>6.31</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>7.49</v>
       </c>
-      <c r="E6" s="23">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+      <c r="E6" s="22">
+        <f>[INICIO]-[FIM]</f>
         <v>2.21</v>
       </c>
-      <c r="F6" s="23">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+      <c r="F6" s="22">
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>7.0399999999999991</v>
       </c>
-      <c r="G6" s="23">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+      <c r="G6" s="22">
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>7.42</v>
       </c>
-      <c r="H6" s="23">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+      <c r="H6" s="22">
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.64</v>
       </c>
-      <c r="I6" s="24">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+      <c r="I6" s="23">
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
-      <c r="J6" s="24">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+      <c r="J6" s="23">
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
-      <c r="K6" s="24">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+      <c r="K6" s="23">
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
-      <c r="L6" s="24">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+      <c r="L6" s="23">
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="23">
         <f t="array" ref="M6">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</f>
         <v>9.4339622641510523E-3</v>
       </c>
-      <c r="N6" s="24">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+      <c r="N6" s="23">
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625"/>
@@ -13,7 +13,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId4"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>INICIO</t>
   </si>
@@ -302,9 +302,6 @@
     <t>SALÁRIO MAX</t>
   </si>
   <si>
-    <t>REAPLICAR</t>
-  </si>
-  <si>
     <t>EXERCÍCIO</t>
   </si>
   <si>
@@ -317,24 +314,33 @@
     <t>PETRI23</t>
   </si>
   <si>
-    <t>VALEI37</t>
-  </si>
-  <si>
-    <t>VALEI36</t>
-  </si>
-  <si>
     <t>% LUCRO</t>
+  </si>
+  <si>
+    <t>PETRI21</t>
+  </si>
+  <si>
+    <t>EXTRINSICO</t>
+  </si>
+  <si>
+    <t>PETRI20</t>
+  </si>
+  <si>
+    <t>PETRI19</t>
+  </si>
+  <si>
+    <t>PETRI18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +415,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -431,78 +438,71 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -526,6 +526,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -544,24 +580,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -580,60 +598,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -706,6 +670,446 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -720,7 +1124,76 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -738,181 +1211,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
         <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -930,6 +1232,196 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -944,25 +1436,61 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -980,25 +1508,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1016,7 +1526,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1034,43 +1544,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1088,7 +1562,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1106,79 +1580,79 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1196,58 +1670,409 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1265,110 +2090,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1386,733 +2108,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2314,10 +2314,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:X5" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
-  <autoFilter ref="A1:X5"/>
-  <sortState ref="A2:X6">
-    <sortCondition ref="C1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:X7" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+  <autoFilter ref="A1:X7"/>
+  <sortState ref="A2:Y7">
+    <sortCondition ref="C1:C7"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="13" name="ATIVO" dataDxfId="99"/>
@@ -2329,52 +2329,52 @@
     <tableColumn id="17" name="TARGET" dataDxfId="93" dataCellStyle="Moeda"/>
     <tableColumn id="12" name="VOLAT." dataDxfId="92" dataCellStyle="Porcentagem"/>
     <tableColumn id="22" name="RISCO/TRADE" dataDxfId="91" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="RISCO" dataDxfId="90" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIMONIO]*[RISCO/TRADE]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="QTDE TMP 1" dataDxfId="89" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="QTDE 1" dataDxfId="88" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="QTDE TMP 2" dataDxfId="87">
-      <calculatedColumnFormula>ROUNDDOWN([PATRIMONIO]/3/[START],0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="QTDE 2" dataDxfId="86">
-      <calculatedColumnFormula>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="QTDE" dataDxfId="85">
       <calculatedColumnFormula>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="RISCO MAX" dataDxfId="84" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE]*[START]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela4[QTDE]*Tabela4[START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="PROTEÇÃO" dataDxfId="83" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" name="LUCRO" dataDxfId="82" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE]*ABS([TARGET]-[START])</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="RENTAB." dataDxfId="81" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[LUCRO]/[PATRIMONIO]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="PESO" dataDxfId="80" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO]/[RISCO]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela4[LUCRO]/Tabela4[RISCO]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="SALÁRIO" dataDxfId="79" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="TGT SALARIO" dataDxfId="78" dataCellStyle="Moeda">
-      <calculatedColumnFormula>([SALÁRIO]/ (32% * [QTDE]))+[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="REAPLICAR" dataDxfId="77" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO]*80%-[SALÁRIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="% VAR" dataDxfId="76" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</calculatedColumnFormula>
+      <calculatedColumnFormula>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="TGT SALARIO" dataDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="% VAR" dataDxfId="78" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="EXTRINSICO" dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2382,73 +2382,71 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AA4" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
-  <autoFilter ref="A1:AA4">
-    <filterColumn colId="26"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AA4" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+  <autoFilter ref="A1:AA4"/>
   <tableColumns count="27">
-    <tableColumn id="31" name="ATIVO" dataDxfId="73"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="72" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="71" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="FIM" dataDxfId="70" dataCellStyle="Moeda"/>
-    <tableColumn id="35" name="TGT +" dataDxfId="69" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="68" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="67" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TGT" dataDxfId="66" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="65" dataCellStyle="Porcentagem"/>
-    <tableColumn id="8" name="RISCO" dataDxfId="4" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="64" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>([FIM] / [INICIO] - 1)</calculatedColumnFormula>
+    <tableColumn id="31" name="ATIVO" dataDxfId="75"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="74" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="73" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="FIM" dataDxfId="72" dataCellStyle="Moeda"/>
+    <tableColumn id="35" name="TGT +" dataDxfId="71" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="70" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="69" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="68" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="67" dataCellStyle="Porcentagem"/>
+    <tableColumn id="8" name="RISCO" dataDxfId="66" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[PATRIM.] &lt; SETUP!$A$2, Tabela1[PATRIM.] * SETUP!$B$2, IF(Tabela1[PATRIM.] &lt; SETUP!$A$3, Tabela1[PATRIM.] * SETUP!$B$3, IF(Tabela1[PATRIM.] &lt; SETUP!$A$4, Tabela1[PATRIM.] * SETUP!$B$4, IF(Tabela1[PATRIM.] &lt; SETUP!$A$5, Tabela1[PATRIM.] * SETUP!$B$5, IF(Tabela1[PATRIM.] &lt; SETUP!$A$6, Tabela1[PATRIM.] * SETUP!$B$6, Tabela1[PATRIM.] * SETUP!$B$7)))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="65" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="64" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>(Tabela1[FIM] / Tabela1[INICIO] - 1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="RETORNO" dataDxfId="63" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="3" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="62">
-      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="61">
-      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="60">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE A" dataDxfId="59">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="58">
-      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="33" name="QTDE MAX" dataDxfId="57">
-      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="32" name="QTDE" dataDxfId="56">
+      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="62" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="61">
+      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="60">
+      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="59">
+      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE A" dataDxfId="58">
+      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="57">
+      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" name="QTDE MAX" dataDxfId="56">
+      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" name="QTDE" dataDxfId="55">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="55">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="54">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO" dataDxfId="5">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="53" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO] / [PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="% LUCRO" dataDxfId="0" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[LUCRO]/[PATRIM.]</calculatedColumnFormula>
+    <tableColumn id="23" name="VOLUME" dataDxfId="54">
+      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="53">
+      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO" dataDxfId="52">
+      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="51" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[LUCRO] / Tabela1[PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="50" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="% LUCRO" dataDxfId="49" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela1[LUCRO]/Tabela1[PATRIM.]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2456,75 +2454,75 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="50"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="49" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="48" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="47" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="46" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="45" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="44" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="42" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="41" dataCellStyle="Porcentagem"/>
-    <tableColumn id="7" name="BASE RV" dataDxfId="40" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="39" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="38" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="37" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="36" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="35">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="34">
-      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="33">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="32">
-      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="31">
-      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="30">
-      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="29">
-      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="28" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="27" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="26">
-      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="25" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="24">
-      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="23" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="22" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
+    <tableColumn id="31" name="ATIVO" dataDxfId="46"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="45" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="44" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="38" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="37" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" name="BASE RV" dataDxfId="36" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="RISCO" dataDxfId="35" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PERNA" dataDxfId="34" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="% PERNA" dataDxfId="33" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="START" dataDxfId="32" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="STOP" dataDxfId="31">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PARCIAL" dataDxfId="30">
+      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TGT" dataDxfId="29">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="28">
+      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="QTDE" dataDxfId="27">
+      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="VOLUME" dataDxfId="26">
+      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="PERDA" dataDxfId="25">
+      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="24" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="23" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="22">
+      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="21" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="20">
+      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="RISCO:1" dataDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="% 85" dataDxfId="18" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2532,42 +2530,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="19"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="18" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="17" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="16" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="15" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="14" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="13" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="12" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="11" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="10" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="9" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="8" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="ATIVO" dataDxfId="15"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="11" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="33%" dataDxfId="10" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="50%" dataDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="60%" dataDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="DIF 33%" dataDxfId="7" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="DIF 50%" dataDxfId="6" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="DIF 60%" dataDxfId="5" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="% PERNA" dataDxfId="4" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="6" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2649,6 +2647,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2683,6 +2682,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2858,17 +2858,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2889,12 +2889,12 @@
     <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>54</v>
@@ -2961,371 +2961,551 @@
       <c r="V1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>71</v>
+      <c r="W1" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2">
-        <v>21.45</v>
+        <v>21.55</v>
       </c>
       <c r="C2" s="2">
-        <v>21.83</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="D2" s="2">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="E2" s="2">
-        <v>0.4</v>
+        <v>3.87</v>
       </c>
       <c r="F2" s="2">
-        <v>0.27</v>
+        <v>3.33</v>
       </c>
       <c r="G2" s="2">
-        <v>1.18</v>
+        <v>5.75</v>
       </c>
       <c r="H2" s="4">
-        <v>0.29749999999999999</v>
+        <v>0.27379999999999999</v>
       </c>
       <c r="I2" s="4">
-        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
         <v>0.02</v>
       </c>
       <c r="J2" s="12">
-        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
-        <v>130</v>
+        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
+        <v>100</v>
       </c>
       <c r="K2" s="6">
-        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>1000</v>
+        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
+        <v>185</v>
       </c>
       <c r="L2" s="6">
-        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>1000</v>
+        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <v>100</v>
       </c>
       <c r="M2" s="1">
-        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>5416</v>
+        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
+        <v>430</v>
       </c>
       <c r="N2" s="1">
-        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>5400</v>
+        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+        <v>400</v>
       </c>
       <c r="O2" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P2" s="2">
-        <f>[QTDE]*[START]</f>
-        <v>400</v>
+        <f>Tabela4[QTDE]*Tabela4[START]</f>
+        <v>387</v>
       </c>
       <c r="Q2" s="12">
-        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.769068749999999</v>
+        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
+        <v>21.845019499999999</v>
       </c>
       <c r="R2" s="12">
-        <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>779.99999999999989</v>
+        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
+        <v>188</v>
       </c>
       <c r="S2" s="4">
-        <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>0.11999999999999998</v>
+        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="T2" s="56">
-        <f>[LUCRO]/[RISCO]</f>
-        <v>5.9999999999999991</v>
+        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
+        <v>1.88</v>
       </c>
       <c r="U2" s="12">
-        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
-        <v>195</v>
+        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <v>150</v>
       </c>
       <c r="V2" s="12">
-        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
-        <v>1.0093749999999999</v>
-      </c>
-      <c r="W2" s="12">
-        <f>[LUCRO]*80%-[SALÁRIO]</f>
-        <v>429</v>
-      </c>
-      <c r="X2" s="4">
-        <f>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</f>
-        <v>7.2727272727272751E-2</v>
+        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="W2" s="4">
+        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
+        <v>9.419953596287689E-2</v>
+      </c>
+      <c r="X2" s="12">
+        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
+        <v>0.14999999999999769</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2">
-        <v>21.45</v>
+        <v>21.55</v>
       </c>
       <c r="C3" s="2">
-        <v>22.83</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="2">
-        <v>0.12</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="2">
-        <v>0.06</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G3" s="2">
-        <v>0.41</v>
+        <v>3.62</v>
       </c>
       <c r="H3" s="4">
-        <v>0.29749999999999999</v>
+        <v>0.27379999999999999</v>
       </c>
       <c r="I3" s="4">
-        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
         <v>0.02</v>
       </c>
       <c r="J3" s="12">
-        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
-        <v>50</v>
+        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
+        <v>100</v>
       </c>
       <c r="K3" s="6">
-        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>833</v>
+        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
+        <v>208</v>
       </c>
       <c r="L3" s="6">
-        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>800</v>
+        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <v>200</v>
       </c>
       <c r="M3" s="1">
-        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>6944</v>
+        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
+        <v>621</v>
       </c>
       <c r="N3" s="1">
-        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>6900</v>
+        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+        <v>600</v>
       </c>
       <c r="O3" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="P3" s="2">
-        <f>[QTDE]*[START]</f>
-        <v>96</v>
+        <f>Tabela4[QTDE]*Tabela4[START]</f>
+        <v>536</v>
       </c>
       <c r="Q3" s="12">
-        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.769068749999999</v>
+        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
+        <v>21.845019499999999</v>
       </c>
       <c r="R3" s="12">
-        <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>231.99999999999997</v>
+        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
+        <v>188</v>
       </c>
       <c r="S3" s="4">
-        <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>9.2799999999999994E-2</v>
+        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="T3" s="56">
-        <f>[LUCRO]/[RISCO]</f>
-        <v>4.6399999999999997</v>
+        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
+        <v>1.88</v>
       </c>
       <c r="U3" s="12">
-        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
-        <v>75</v>
+        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <v>150</v>
       </c>
       <c r="V3" s="12">
-        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
-        <v>0.41296875</v>
-      </c>
-      <c r="W3" s="12">
-        <f>[LUCRO]*80%-[SALÁRIO]</f>
-        <v>110.6</v>
-      </c>
-      <c r="X3" s="4">
-        <f>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</f>
-        <v>8.3449883449883355E-2</v>
+        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
+        <v>3.6175000000000002</v>
+      </c>
+      <c r="W3" s="4">
+        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
+        <v>4.9651972157772617E-2</v>
+      </c>
+      <c r="X3" s="12">
+        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
+        <v>0.12999999999999945</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="58" t="s">
-        <v>76</v>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B4" s="2">
-        <v>33.659999999999997</v>
+        <v>21.55</v>
       </c>
       <c r="C4" s="2">
-        <v>37</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="2">
-        <v>0.14000000000000001</v>
+        <v>1.86</v>
       </c>
       <c r="F4" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>1.46</v>
       </c>
       <c r="G4" s="2">
-        <v>0.47</v>
+        <v>2.8</v>
       </c>
       <c r="H4" s="4">
         <v>0.27379999999999999</v>
       </c>
       <c r="I4" s="4">
-        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
         <v>0.02</v>
       </c>
-      <c r="J4" s="2">
-        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
-        <v>50</v>
+      <c r="J4" s="12">
+        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
+        <v>100</v>
       </c>
       <c r="K4" s="6">
-        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>714</v>
+        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
+        <v>250</v>
       </c>
       <c r="L4" s="6">
-        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>700</v>
-      </c>
-      <c r="M4" s="6">
-        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>5952</v>
-      </c>
-      <c r="N4" s="6">
-        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>5900</v>
+        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <v>200</v>
+      </c>
+      <c r="M4" s="1">
+        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
+        <v>896</v>
+      </c>
+      <c r="N4" s="1">
+        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+        <v>800</v>
       </c>
       <c r="O4" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="P4" s="2">
-        <f>[QTDE]*[START]</f>
-        <v>98.000000000000014</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>34.120805399999995</v>
-      </c>
-      <c r="R4" s="2">
-        <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>230.99999999999997</v>
+        <f>Tabela4[QTDE]*Tabela4[START]</f>
+        <v>372</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
+        <v>21.845019499999999</v>
+      </c>
+      <c r="R4" s="12">
+        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
+        <v>187.99999999999994</v>
       </c>
       <c r="S4" s="4">
-        <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>9.2399999999999982E-2</v>
+        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
+        <v>3.7599999999999988E-2</v>
       </c>
       <c r="T4" s="56">
-        <f>[LUCRO]/[RISCO]</f>
-        <v>4.6199999999999992</v>
-      </c>
-      <c r="U4" s="2">
-        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
-        <v>75</v>
-      </c>
-      <c r="V4" s="2">
-        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
-        <v>0.47482142857142856</v>
-      </c>
-      <c r="W4" s="2">
-        <f>[LUCRO]*80%-[SALÁRIO]</f>
-        <v>109.79999999999998</v>
-      </c>
-      <c r="X4" s="4">
-        <f>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</f>
-        <v>0.11319073083778974</v>
+        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
+        <v>1.8799999999999994</v>
+      </c>
+      <c r="U4" s="12">
+        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <v>150</v>
+      </c>
+      <c r="V4" s="12">
+        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
+        <v>2.7975000000000003</v>
+      </c>
+      <c r="W4" s="4">
+        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
+        <v>5.0116009280742446E-2</v>
+      </c>
+      <c r="X4" s="12">
+        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
+        <v>0.13999999999999768</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="61" t="s">
-        <v>77</v>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="B5" s="2">
-        <v>33.659999999999997</v>
-      </c>
-      <c r="C5" s="62">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="D5" s="62">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="62">
-        <v>0.43</v>
-      </c>
-      <c r="F5" s="62">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G5" s="62">
-        <v>1.21</v>
-      </c>
-      <c r="H5" s="63">
+        <v>21.55</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.27379999999999999</v>
       </c>
-      <c r="I5" s="63">
-        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+      <c r="I5" s="4">
+        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
         <v>0.02</v>
       </c>
-      <c r="J5" s="64">
-        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
-        <v>50</v>
-      </c>
-      <c r="K5" s="65">
-        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>357</v>
-      </c>
-      <c r="L5" s="65">
-        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+      <c r="J5" s="2">
+        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
+        <v>100</v>
+      </c>
+      <c r="K5" s="6">
+        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
+        <v>344</v>
+      </c>
+      <c r="L5" s="6">
+        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
         <v>300</v>
       </c>
-      <c r="M5" s="61">
-        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>1937</v>
-      </c>
-      <c r="N5" s="61">
-        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>1900</v>
-      </c>
-      <c r="O5" s="66">
+      <c r="M5" s="6">
+        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
+        <v>1872</v>
+      </c>
+      <c r="N5" s="6">
+        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+        <v>1800</v>
+      </c>
+      <c r="O5" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
         <v>300</v>
       </c>
-      <c r="P5" s="62">
-        <f>[QTDE]*[START]</f>
-        <v>129</v>
-      </c>
-      <c r="Q5" s="64">
-        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>34.120805399999995</v>
-      </c>
-      <c r="R5" s="64">
-        <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>234</v>
-      </c>
-      <c r="S5" s="63">
-        <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="T5" s="67">
-        <f>[LUCRO]/[RISCO]</f>
-        <v>4.68</v>
-      </c>
-      <c r="U5" s="64">
-        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
-        <v>75</v>
-      </c>
-      <c r="V5" s="64">
-        <f>([SALÁRIO]/ (32% * [QTDE]))+[START]</f>
-        <v>1.2112499999999999</v>
-      </c>
-      <c r="W5" s="64">
-        <f>[LUCRO]*80%-[SALÁRIO]</f>
-        <v>112.20000000000002</v>
-      </c>
-      <c r="X5" s="63">
-        <f>IF([EXERCÍCIO] &gt; 0, [EXERCÍCIO]+[TARGET],[TARGET])/[COTAÇÃO]-1</f>
-        <v>7.8431372549019773E-2</v>
+      <c r="P5" s="2">
+        <f>Tabela4[QTDE]*Tabela4[START]</f>
+        <v>267</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
+        <v>21.845019499999999</v>
+      </c>
+      <c r="R5" s="2">
+        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
+        <v>189</v>
+      </c>
+      <c r="S5" s="4">
+        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
+        <v>3.78E-2</v>
+      </c>
+      <c r="T5" s="56">
+        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
+        <v>1.89</v>
+      </c>
+      <c r="U5" s="2">
+        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <v>150</v>
+      </c>
+      <c r="V5" s="2">
+        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
+        <v>1.5150000000000001</v>
+      </c>
+      <c r="W5" s="4">
+        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
+        <v>4.5011600928074103E-2</v>
+      </c>
+      <c r="X5" s="12">
+        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
+        <v>0.3399999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2">
+        <v>21.55</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21.83</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="12">
+        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
+        <v>100</v>
+      </c>
+      <c r="K6" s="6">
+        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
+        <v>588</v>
+      </c>
+      <c r="L6" s="6">
+        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <v>500</v>
+      </c>
+      <c r="M6" s="1">
+        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
+        <v>4166</v>
+      </c>
+      <c r="N6" s="1">
+        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+        <v>4100</v>
+      </c>
+      <c r="O6" s="57">
+        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
+        <v>500</v>
+      </c>
+      <c r="P6" s="2">
+        <f>Tabela4[QTDE]*Tabela4[START]</f>
+        <v>200</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
+        <v>21.845019499999999</v>
+      </c>
+      <c r="R6" s="12">
+        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
+        <v>190</v>
+      </c>
+      <c r="S6" s="4">
+        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T6" s="56">
+        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
+        <v>1.9</v>
+      </c>
+      <c r="U6" s="12">
+        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <v>150</v>
+      </c>
+      <c r="V6" s="12">
+        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="W6" s="4">
+        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
+        <v>4.9187935034802788E-2</v>
+      </c>
+      <c r="X6" s="12">
+        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2">
+        <v>21.55</v>
+      </c>
+      <c r="C7" s="2">
+        <v>22.83</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="I7" s="4">
+        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="12">
+        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
+        <v>1250</v>
+      </c>
+      <c r="L7" s="6">
+        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <v>1200</v>
+      </c>
+      <c r="M7" s="1">
+        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
+        <v>13888</v>
+      </c>
+      <c r="N7" s="1">
+        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+        <v>13800</v>
+      </c>
+      <c r="O7" s="57">
+        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
+        <v>1200</v>
+      </c>
+      <c r="P7" s="2">
+        <f>Tabela4[QTDE]*Tabela4[START]</f>
+        <v>144</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
+        <v>21.845019499999999</v>
+      </c>
+      <c r="R7" s="12">
+        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
+        <v>192.00000000000003</v>
+      </c>
+      <c r="S7" s="4">
+        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="T7" s="56">
+        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
+        <v>1.9200000000000004</v>
+      </c>
+      <c r="U7" s="12">
+        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <v>150</v>
+      </c>
+      <c r="V7" s="12">
+        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
+        <v>0.27625</v>
+      </c>
+      <c r="W7" s="4">
+        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
+        <v>7.2389791183294694E-2</v>
+      </c>
+      <c r="X7" s="12">
+        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +3518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3348,7 +3528,7 @@
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -3380,7 +3560,7 @@
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
@@ -3460,10 +3640,10 @@
         <v>25</v>
       </c>
       <c r="AA1" s="60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>53</v>
       </c>
@@ -3492,47 +3672,47 @@
         <v>0.33</v>
       </c>
       <c r="J2" s="2">
-        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <f>IF(Tabela1[PATRIM.] &lt; SETUP!$A$2, Tabela1[PATRIM.] * SETUP!$B$2, IF(Tabela1[PATRIM.] &lt; SETUP!$A$3, Tabela1[PATRIM.] * SETUP!$B$3, IF(Tabela1[PATRIM.] &lt; SETUP!$A$4, Tabela1[PATRIM.] * SETUP!$B$4, IF(Tabela1[PATRIM.] &lt; SETUP!$A$5, Tabela1[PATRIM.] * SETUP!$B$5, IF(Tabela1[PATRIM.] &lt; SETUP!$A$6, Tabela1[PATRIM.] * SETUP!$B$6, Tabela1[PATRIM.] * SETUP!$B$7)))))</f>
         <v>375</v>
       </c>
       <c r="K2" s="2">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.5500000000000007</v>
       </c>
       <c r="L2" s="4">
-        <f>([FIM] / [INICIO] - 1)</f>
+        <f>(Tabela1[FIM] / Tabela1[INICIO] - 1)</f>
         <v>-4.6268656716417889E-2</v>
       </c>
       <c r="M2" s="12">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>32.461500000000001</v>
       </c>
       <c r="N2" s="12">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>32.49</v>
       </c>
       <c r="O2" s="18">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>32.520000000000003</v>
       </c>
       <c r="P2" s="18">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>27.98</v>
       </c>
       <c r="Q2" s="11">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>12499</v>
       </c>
       <c r="R2" s="11">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>12400</v>
       </c>
       <c r="S2" s="11">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>512.97835231353235</v>
       </c>
       <c r="T2" s="11">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="U2" s="11">
@@ -3540,31 +3720,31 @@
         <v>500</v>
       </c>
       <c r="V2" s="18">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>16245.000000000002</v>
       </c>
       <c r="W2" s="18">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>45.000000000000568</v>
       </c>
       <c r="X2" s="18">
-        <f>ABS([TGT] - [START]) * [QTDE]</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE]</f>
         <v>2255.0000000000009</v>
       </c>
       <c r="Y2" s="5">
-        <f>[LUCRO] / [PERDA]</f>
+        <f>Tabela1[LUCRO] / Tabela1[PERDA]</f>
         <v>50.111111111110496</v>
       </c>
       <c r="Z2" s="12">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>28.656500000000001</v>
       </c>
       <c r="AA2" s="60">
-        <f>[LUCRO]/[PATRIM.]</f>
+        <f>Tabela1[LUCRO]/Tabela1[PATRIM.]</f>
         <v>4.5100000000000015E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
@@ -3593,47 +3773,47 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="46">
-        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <f>IF(Tabela1[PATRIM.] &lt; SETUP!$A$2, Tabela1[PATRIM.] * SETUP!$B$2, IF(Tabela1[PATRIM.] &lt; SETUP!$A$3, Tabela1[PATRIM.] * SETUP!$B$3, IF(Tabela1[PATRIM.] &lt; SETUP!$A$4, Tabela1[PATRIM.] * SETUP!$B$4, IF(Tabela1[PATRIM.] &lt; SETUP!$A$5, Tabela1[PATRIM.] * SETUP!$B$5, IF(Tabela1[PATRIM.] &lt; SETUP!$A$6, Tabela1[PATRIM.] * SETUP!$B$6, Tabela1[PATRIM.] * SETUP!$B$7)))))</f>
         <v>375</v>
       </c>
       <c r="K3" s="44">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.5500000000000007</v>
       </c>
       <c r="L3" s="45">
-        <f>([FIM] / [INICIO] - 1)</f>
+        <f>(Tabela1[FIM] / Tabela1[INICIO] - 1)</f>
         <v>-4.6268656716417889E-2</v>
       </c>
       <c r="M3" s="46">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>32.725000000000001</v>
       </c>
       <c r="N3" s="46">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>32.76</v>
       </c>
       <c r="O3" s="47">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>32.79</v>
       </c>
       <c r="P3" s="47">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>27.98</v>
       </c>
       <c r="Q3" s="48">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>12499</v>
       </c>
       <c r="R3" s="48">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>12400</v>
       </c>
       <c r="S3" s="48">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>508.7505087505088</v>
       </c>
       <c r="T3" s="48">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="U3" s="48">
@@ -3641,31 +3821,31 @@
         <v>500</v>
       </c>
       <c r="V3" s="47">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>16379.999999999998</v>
       </c>
       <c r="W3" s="47">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>45.000000000000568</v>
       </c>
       <c r="X3" s="46">
-        <f>ABS([TGT] - [START]) * [QTDE]</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE]</f>
         <v>2389.9999999999986</v>
       </c>
       <c r="Y3" s="49">
-        <f>[LUCRO] / [PERDA]</f>
+        <f>Tabela1[LUCRO] / Tabela1[PERDA]</f>
         <v>53.111111111110411</v>
       </c>
       <c r="Z3" s="46">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>28.696999999999999</v>
       </c>
       <c r="AA3" s="60">
-        <f>[LUCRO]/[PATRIM.]</f>
+        <f>Tabela1[LUCRO]/Tabela1[PATRIM.]</f>
         <v>4.7799999999999974E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>53</v>
       </c>
@@ -3694,47 +3874,47 @@
         <v>0.6</v>
       </c>
       <c r="J4" s="52">
-        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <f>IF(Tabela1[PATRIM.] &lt; SETUP!$A$2, Tabela1[PATRIM.] * SETUP!$B$2, IF(Tabela1[PATRIM.] &lt; SETUP!$A$3, Tabela1[PATRIM.] * SETUP!$B$3, IF(Tabela1[PATRIM.] &lt; SETUP!$A$4, Tabela1[PATRIM.] * SETUP!$B$4, IF(Tabela1[PATRIM.] &lt; SETUP!$A$5, Tabela1[PATRIM.] * SETUP!$B$5, IF(Tabela1[PATRIM.] &lt; SETUP!$A$6, Tabela1[PATRIM.] * SETUP!$B$6, Tabela1[PATRIM.] * SETUP!$B$7)))))</f>
         <v>375</v>
       </c>
       <c r="K4" s="50">
-        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
         <v>1.5500000000000007</v>
       </c>
       <c r="L4" s="51">
-        <f>([FIM] / [INICIO] - 1)</f>
+        <f>(Tabela1[FIM] / Tabela1[INICIO] - 1)</f>
         <v>-4.6268656716417889E-2</v>
       </c>
       <c r="M4" s="52">
-        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
+        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
         <v>32.880000000000003</v>
       </c>
       <c r="N4" s="52">
-        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
         <v>32.909999999999997</v>
       </c>
       <c r="O4" s="53">
-        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
+        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
         <v>32.94</v>
       </c>
       <c r="P4" s="53">
-        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
+        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
         <v>27.98</v>
       </c>
       <c r="Q4" s="54">
-        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
         <v>12499</v>
       </c>
       <c r="R4" s="54">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
         <v>12400</v>
       </c>
       <c r="S4" s="54">
-        <f>([PATRIM.] / 3) / [START]</f>
+        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
         <v>506.4316823660489</v>
       </c>
       <c r="T4" s="54">
-        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
+        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="U4" s="54">
@@ -3742,27 +3922,27 @@
         <v>500</v>
       </c>
       <c r="V4" s="53">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela1[QTDE] * Tabela1[START]</f>
         <v>16455</v>
       </c>
       <c r="W4" s="53">
-        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
+        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
         <v>45.000000000000568</v>
       </c>
       <c r="X4" s="52">
-        <f>ABS([TGT] - [START]) * [QTDE]</f>
+        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE]</f>
         <v>2464.9999999999982</v>
       </c>
       <c r="Y4" s="55">
-        <f>[LUCRO] / [PERDA]</f>
+        <f>Tabela1[LUCRO] / Tabela1[PERDA]</f>
         <v>54.777777777777047</v>
       </c>
       <c r="Z4" s="52">
-        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
         <v>28.7195</v>
       </c>
       <c r="AA4" s="60">
-        <f>[LUCRO]/[PATRIM.]</f>
+        <f>Tabela1[LUCRO]/Tabela1[PATRIM.]</f>
         <v>4.9299999999999962E-2</v>
       </c>
     </row>
@@ -3777,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3787,7 +3967,7 @@
       <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3818,7 +3998,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
@@ -3907,7 +4087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="24" customFormat="1">
+    <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>52</v>
       </c>
@@ -3939,83 +4119,83 @@
         <v>1</v>
       </c>
       <c r="K2" s="26">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="L2" s="26">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
         <v>78.44</v>
       </c>
       <c r="M2" s="26">
-        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
         <v>3.5199999999999996</v>
       </c>
       <c r="N2" s="28">
-        <f>[MEIO] / [INICIO] - 1</f>
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
         <v>-0.28478964401294493</v>
       </c>
       <c r="O2" s="30">
-        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
         <v>10.8</v>
       </c>
       <c r="P2" s="31">
-        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
         <v>11.09</v>
       </c>
       <c r="Q2" s="31">
-        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
         <v>10.160748000000002</v>
       </c>
       <c r="R2" s="31">
-        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
         <v>7.65</v>
       </c>
       <c r="S2" s="32">
-        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
         <v>313</v>
       </c>
       <c r="T2" s="32">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="U2" s="31">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
         <v>3240</v>
       </c>
       <c r="V2" s="31">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
         <v>86.999999999999744</v>
       </c>
       <c r="W2" s="27">
-        <f>[QTDE] / 2</f>
+        <f>Tabela13[QTDE] / 2</f>
         <v>150</v>
       </c>
       <c r="X2" s="27">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
         <v>200</v>
       </c>
       <c r="Y2" s="30">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
         <v>127.85039999999981</v>
       </c>
       <c r="Z2" s="27">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
         <v>100</v>
       </c>
       <c r="AA2" s="31">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
         <v>442.85039999999987</v>
       </c>
       <c r="AB2" s="33">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
         <v>5.0902344827586345</v>
       </c>
       <c r="AC2" s="30">
-        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
         <v>8.1225000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="43" customFormat="1">
+    <row r="3" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>28</v>
       </c>
@@ -4047,79 +4227,79 @@
         <v>1</v>
       </c>
       <c r="K3" s="35">
-        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
+        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
         <v>4514</v>
       </c>
       <c r="L3" s="35">
-        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
         <v>90.28</v>
       </c>
       <c r="M3" s="35">
-        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
         <v>1.1599999999999997</v>
       </c>
       <c r="N3" s="37">
-        <f>[MEIO] / [INICIO] - 1</f>
+        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
       <c r="O3" s="39">
-        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
         <v>3.58</v>
       </c>
       <c r="P3" s="40">
-        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
         <v>3.8</v>
       </c>
       <c r="Q3" s="40">
-        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
+        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
         <v>3.2040999999999999</v>
       </c>
       <c r="R3" s="40">
-        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
         <v>2.62</v>
       </c>
       <c r="S3" s="41">
-        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
         <v>501</v>
       </c>
       <c r="T3" s="41">
-        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="U3" s="40">
-        <f>[QTDE] * [START]</f>
+        <f>Tabela13[QTDE] * Tabela13[START]</f>
         <v>1790</v>
       </c>
       <c r="V3" s="40">
-        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
         <v>109.99999999999987</v>
       </c>
       <c r="W3" s="36">
-        <f>[QTDE] / 2</f>
+        <f>Tabela13[QTDE] / 2</f>
         <v>250</v>
       </c>
       <c r="X3" s="36">
-        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
         <v>300</v>
       </c>
       <c r="Y3" s="39">
-        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
         <v>112.77000000000004</v>
       </c>
       <c r="Z3" s="36">
-        <f>[QTDE] - [QTDE PAR]</f>
+        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
         <v>200</v>
       </c>
       <c r="AA3" s="40">
-        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
         <v>304.77000000000004</v>
       </c>
       <c r="AB3" s="42">
-        <f>[LUCRO ALVO] / [PERDA]</f>
+        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
         <v>2.7706363636363673</v>
       </c>
       <c r="AC3" s="39">
-        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
+        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
         <v>2.7640000000000002</v>
       </c>
     </row>
@@ -4134,14 +4314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -4150,7 +4330,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4161,7 +4341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -4173,13 +4353,16 @@
         <v>200</v>
       </c>
       <c r="D2" s="2">
-        <v>3600</v>
+        <v>250</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.02</v>
       </c>
       <c r="G2" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
@@ -4190,11 +4373,14 @@
         <f t="shared" ref="C3:C7" si="0">A3*B3</f>
         <v>300</v>
       </c>
+      <c r="F3" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="G3" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
@@ -4205,11 +4391,14 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
+      <c r="F4" s="4">
+        <v>0.01</v>
+      </c>
       <c r="G4" s="4">
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
@@ -4220,11 +4409,14 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
+      <c r="F5" s="4">
+        <v>7.4999999999999997E-3</v>
+      </c>
       <c r="G5" s="4">
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
@@ -4235,11 +4427,14 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
+      <c r="F6" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="G6" s="4">
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
@@ -4249,6 +4444,9 @@
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>2500</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G7" s="4">
         <v>3.0000000000000001E-3</v>
@@ -4260,7 +4458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4270,7 +4468,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -4283,7 +4481,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4327,7 +4525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -4341,35 +4539,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -4377,11 +4575,11 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -4395,35 +4593,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -4431,11 +4629,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -4449,35 +4647,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -4485,11 +4683,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -4501,35 +4699,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -4537,11 +4735,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
@@ -4555,35 +4753,35 @@
         <v>7.49</v>
       </c>
       <c r="E6" s="22">
-        <f>[INICIO]-[FIM]</f>
+        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
         <v>2.21</v>
       </c>
       <c r="F6" s="22">
-        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
         <v>7.0399999999999991</v>
       </c>
       <c r="G6" s="22">
-        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
         <v>7.42</v>
       </c>
       <c r="H6" s="22">
-        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
+        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
         <v>7.64</v>
       </c>
       <c r="I6" s="23">
-        <f>[INFLEXAO MAX]/[33%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
       <c r="J6" s="23">
-        <f>[INFLEXAO MAX]/[50%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="K6" s="23">
-        <f>[INFLEXAO MAX]/[60%] - 1</f>
+        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
       <c r="L6" s="23">
-        <f>1 - [FIM]/[INICIO]</f>
+        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
       <c r="M6" s="23">
@@ -4591,7 +4789,7 @@
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="N6" s="23">
-        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
+        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="11910" windowHeight="5625"/>
@@ -13,7 +13,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId4"/>
     <sheet name="SOMBRA" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>INICIO</t>
   </si>
@@ -320,9 +320,6 @@
     <t>PETRI21</t>
   </si>
   <si>
-    <t>EXTRINSICO</t>
-  </si>
-  <si>
     <t>PETRI20</t>
   </si>
   <si>
@@ -330,17 +327,23 @@
   </si>
   <si>
     <t>PETRI18</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>COT. SALAR.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,67 +441,67 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -509,43 +512,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="103">
     <dxf>
       <font>
         <b val="0"/>
@@ -580,6 +547,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -670,6 +655,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -840,7 +843,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -876,7 +879,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -912,7 +915,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -966,7 +969,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -984,7 +987,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1038,7 +1041,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1056,7 +1059,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1074,7 +1077,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1092,7 +1095,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1404,7 +1407,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1440,43 +1443,43 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1584,61 +1587,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1691,7 +1694,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1899,6 +1902,78 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -1917,79 +1992,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2112,7 +2133,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2314,67 +2335,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:X7" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
-  <autoFilter ref="A1:X7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:Y7" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+  <autoFilter ref="A1:Y7">
+    <filterColumn colId="22"/>
+  </autoFilter>
   <sortState ref="A2:Y7">
     <sortCondition ref="C1:C7"/>
   </sortState>
-  <tableColumns count="24">
-    <tableColumn id="13" name="ATIVO" dataDxfId="99"/>
-    <tableColumn id="14" name="COTAÇÃO" dataDxfId="98" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="EXERCÍCIO" dataDxfId="97" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="PATRIMONIO" dataDxfId="96" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="START" dataDxfId="95" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="STOP" dataDxfId="94" dataCellStyle="Moeda"/>
-    <tableColumn id="17" name="TARGET" dataDxfId="93" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="VOLAT." dataDxfId="92" dataCellStyle="Porcentagem"/>
-    <tableColumn id="22" name="RISCO/TRADE" dataDxfId="91" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="RISCO" dataDxfId="90" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="QTDE TMP 1" dataDxfId="89" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="QTDE 1" dataDxfId="88" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="QTDE TMP 2" dataDxfId="87">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="QTDE 2" dataDxfId="86">
-      <calculatedColumnFormula>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="QTDE" dataDxfId="85">
+  <tableColumns count="25">
+    <tableColumn id="13" name="ATIVO" dataDxfId="100"/>
+    <tableColumn id="14" name="COTAÇÃO" dataDxfId="99" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="EXERCÍCIO" dataDxfId="98" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="PATRIMONIO" dataDxfId="97" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="START" dataDxfId="96" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="STOP" dataDxfId="95" dataCellStyle="Moeda"/>
+    <tableColumn id="17" name="TARGET" dataDxfId="94" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="VOLAT." dataDxfId="93" dataCellStyle="Porcentagem"/>
+    <tableColumn id="22" name="RISCO/TRADE" dataDxfId="92" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="RISCO" dataDxfId="91" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIMONIO]*[RISCO/TRADE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="QTDE TMP 1" dataDxfId="90" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="QTDE 1" dataDxfId="89" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="QTDE TMP 2" dataDxfId="88">
+      <calculatedColumnFormula>ROUNDDOWN([PATRIMONIO]/3/[START],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="QTDE 2" dataDxfId="87">
+      <calculatedColumnFormula>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="QTDE" dataDxfId="86">
       <calculatedColumnFormula>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="RISCO MAX" dataDxfId="84" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[QTDE]*Tabela4[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="PROTEÇÃO" dataDxfId="83" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="LUCRO" dataDxfId="82" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="RENTAB." dataDxfId="81" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="PESO" dataDxfId="80" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela4[LUCRO]/Tabela4[RISCO]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" name="SALÁRIO" dataDxfId="79" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="TGT SALARIO" dataDxfId="0" dataCellStyle="Moeda">
-      <calculatedColumnFormula>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="% VAR" dataDxfId="78" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="EXTRINSICO" dataDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</calculatedColumnFormula>
+    <tableColumn id="11" name="RISCO MAX" dataDxfId="85" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE]*[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="PROTEÇÃO" dataDxfId="84" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="LUCRO" dataDxfId="83" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE]*ABS([TARGET]-[START])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="RENTAB." dataDxfId="82" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[LUCRO]/[PATRIMONIO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="PESO" dataDxfId="81" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO]/[RISCO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="SALÁRIO" dataDxfId="80" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="TGT SALARIO" dataDxfId="79" dataCellStyle="Moeda">
+      <calculatedColumnFormula>([SALÁRIO]/ (80% * [QTDE]))+[START]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="COT. SALAR." dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[EXERCÍCIO]+[TARGET]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="% VAR" dataDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="EXT" dataDxfId="78" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2395,58 +2421,58 @@
     <tableColumn id="10" name="% TGT" dataDxfId="68" dataCellStyle="Porcentagem"/>
     <tableColumn id="13" name="% IN" dataDxfId="67" dataCellStyle="Porcentagem"/>
     <tableColumn id="8" name="RISCO" dataDxfId="66" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[PATRIM.] &lt; SETUP!$A$2, Tabela1[PATRIM.] * SETUP!$B$2, IF(Tabela1[PATRIM.] &lt; SETUP!$A$3, Tabela1[PATRIM.] * SETUP!$B$3, IF(Tabela1[PATRIM.] &lt; SETUP!$A$4, Tabela1[PATRIM.] * SETUP!$B$4, IF(Tabela1[PATRIM.] &lt; SETUP!$A$5, Tabela1[PATRIM.] * SETUP!$B$5, IF(Tabela1[PATRIM.] &lt; SETUP!$A$6, Tabela1[PATRIM.] * SETUP!$B$6, Tabela1[PATRIM.] * SETUP!$B$7)))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="65" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="64" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>(Tabela1[FIM] / Tabela1[INICIO] - 1)</calculatedColumnFormula>
+      <calculatedColumnFormula>([FIM] / [INICIO] - 1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="RETORNO" dataDxfId="63" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="62" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="61">
-      <calculatedColumnFormula>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="60">
-      <calculatedColumnFormula>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="59">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE A" dataDxfId="58">
-      <calculatedColumnFormula>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="57">
-      <calculatedColumnFormula>(Tabela1[PATRIM.] / 3) / Tabela1[START]</calculatedColumnFormula>
+      <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="33" name="QTDE MAX" dataDxfId="56">
-      <calculatedColumnFormula>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="32" name="QTDE" dataDxfId="55">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="54">
-      <calculatedColumnFormula>Tabela1[QTDE] * Tabela1[START]</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="PERDA" dataDxfId="53">
-      <calculatedColumnFormula>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="LUCRO" dataDxfId="52">
-      <calculatedColumnFormula>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" name="RISCO:1" dataDxfId="51" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[LUCRO] / Tabela1[PERDA]</calculatedColumnFormula>
+      <calculatedColumnFormula>[LUCRO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="% 85" dataDxfId="50" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="% LUCRO" dataDxfId="49" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela1[LUCRO]/Tabela1[PATRIM.]</calculatedColumnFormula>
+      <calculatedColumnFormula>[LUCRO]/[PATRIM.]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2468,61 +2494,61 @@
     <tableColumn id="12" name="% VOL" dataDxfId="38" dataCellStyle="Porcentagem"/>
     <tableColumn id="19" name="PER" dataDxfId="37" dataCellStyle="Porcentagem"/>
     <tableColumn id="7" name="BASE RV" dataDxfId="36" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="RISCO" dataDxfId="35" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="PERNA" dataDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="% PERNA" dataDxfId="33" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela13[MEIO] / Tabela13[INICIO] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="START" dataDxfId="32" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="STOP" dataDxfId="31">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="PARCIAL" dataDxfId="30">
-      <calculatedColumnFormula>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</calculatedColumnFormula>
+      <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TGT" dataDxfId="29">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="QTDE TMP" dataDxfId="28">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="QTDE" dataDxfId="27">
-      <calculatedColumnFormula>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="VOLUME" dataDxfId="26">
-      <calculatedColumnFormula>Tabela13[QTDE] * Tabela13[START]</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="PERDA" dataDxfId="25">
-      <calculatedColumnFormula>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="24" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] / 2</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="QTDE PAR" dataDxfId="23" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" name="LUCRO PAR" dataDxfId="22">
-      <calculatedColumnFormula>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" name="QTDE ALVO" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[QTDE] - Tabela13[QTDE PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="LUCRO ALVO" dataDxfId="20">
-      <calculatedColumnFormula>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</calculatedColumnFormula>
+      <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" name="RISCO:1" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</calculatedColumnFormula>
+      <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="% 85" dataDxfId="18" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2538,34 +2564,34 @@
     <tableColumn id="3" name="FIM" dataDxfId="13" dataCellStyle="Moeda"/>
     <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="12" dataCellStyle="Moeda"/>
     <tableColumn id="9" name="PERNA" dataDxfId="11" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela3[INICIO]-Tabela3[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="33%" dataDxfId="10" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="50%" dataDxfId="9" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="60%" dataDxfId="8" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="DIF 33%" dataDxfId="7" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="DIF 50%" dataDxfId="6" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="DIF 60%" dataDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</calculatedColumnFormula>
+      <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="% PERNA" dataDxfId="4" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>1 - Tabela3[FIM]/Tabela3[INICIO]</calculatedColumnFormula>
+      <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% INFLEXÃO" dataDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="PERNA 10%" dataDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</calculatedColumnFormula>
+      <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2647,7 +2673,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2682,7 +2707,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2858,17 +2882,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2889,12 +2913,12 @@
     <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2962,18 +2986,21 @@
         <v>66</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>77</v>
+      <c r="Y1" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2">
-        <v>21.55</v>
+        <v>21.24</v>
       </c>
       <c r="C2" s="2">
         <v>17.829999999999998</v>
@@ -2982,88 +3009,92 @@
         <v>5000</v>
       </c>
       <c r="E2" s="2">
-        <v>3.87</v>
+        <v>3.48</v>
       </c>
       <c r="F2" s="2">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="G2" s="2">
-        <v>5.75</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H2" s="4">
         <v>0.27379999999999999</v>
       </c>
       <c r="I2" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.02</v>
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.01</v>
       </c>
       <c r="J2" s="12">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>100</v>
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
       </c>
       <c r="K2" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>185</v>
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>312</v>
       </c>
       <c r="L2" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
-        <v>100</v>
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+        <v>300</v>
       </c>
       <c r="M2" s="1">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>430</v>
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>478</v>
       </c>
       <c r="N2" s="1">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
         <v>400</v>
       </c>
       <c r="O2" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P2" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>387</v>
+        <f>[QTDE]*[START]</f>
+        <v>1044</v>
       </c>
       <c r="Q2" s="12">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.845019499999999</v>
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.530775599999998</v>
       </c>
       <c r="R2" s="12">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>188</v>
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>189.00000000000011</v>
       </c>
       <c r="S2" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>3.7600000000000001E-2</v>
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>3.7800000000000021E-2</v>
       </c>
       <c r="T2" s="56">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>1.88</v>
+        <f>[LUCRO]/[RISCO]</f>
+        <v>3.7800000000000025</v>
       </c>
       <c r="U2" s="12">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
         <v>150</v>
       </c>
       <c r="V2" s="12">
-        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>5.7450000000000001</v>
-      </c>
-      <c r="W2" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>9.419953596287689E-2</v>
-      </c>
-      <c r="X2" s="12">
-        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
-        <v>0.14999999999999769</v>
+        <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="W2" s="12">
+        <f>[EXERCÍCIO]+[TARGET]</f>
+        <v>21.939999999999998</v>
+      </c>
+      <c r="X2" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
+        <v>3.2956685499058391E-2</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
+        <v>6.999999999999984E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2">
-        <v>21.55</v>
+        <v>21.24</v>
       </c>
       <c r="C3" s="2">
         <v>19</v>
@@ -3072,88 +3103,92 @@
         <v>5000</v>
       </c>
       <c r="E3" s="2">
-        <v>2.68</v>
+        <v>2.37</v>
       </c>
       <c r="F3" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G3" s="2">
-        <v>3.62</v>
+        <v>3.31</v>
       </c>
       <c r="H3" s="4">
         <v>0.27379999999999999</v>
       </c>
       <c r="I3" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.02</v>
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.01</v>
       </c>
       <c r="J3" s="12">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>100</v>
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
       </c>
       <c r="K3" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>208</v>
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>263</v>
       </c>
       <c r="L3" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
         <v>200</v>
       </c>
       <c r="M3" s="1">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>621</v>
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>703</v>
       </c>
       <c r="N3" s="1">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
-        <v>600</v>
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>700</v>
       </c>
       <c r="O3" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
         <v>200</v>
       </c>
       <c r="P3" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>536</v>
+        <f>[QTDE]*[START]</f>
+        <v>474</v>
       </c>
       <c r="Q3" s="12">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.845019499999999</v>
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.530775599999998</v>
       </c>
       <c r="R3" s="12">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
         <v>188</v>
       </c>
       <c r="S3" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
+        <f>[LUCRO]/[PATRIMONIO]</f>
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="T3" s="56">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>1.88</v>
+        <f>[LUCRO]/[RISCO]</f>
+        <v>3.76</v>
       </c>
       <c r="U3" s="12">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
         <v>150</v>
       </c>
       <c r="V3" s="12">
-        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>3.6175000000000002</v>
-      </c>
-      <c r="W3" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>4.9651972157772617E-2</v>
-      </c>
-      <c r="X3" s="12">
-        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
-        <v>0.12999999999999945</v>
+        <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
+        <v>3.3075000000000001</v>
+      </c>
+      <c r="W3" s="12">
+        <f>[EXERCÍCIO]+[TARGET]</f>
+        <v>22.31</v>
+      </c>
+      <c r="X3" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
+        <v>5.0376647834274868E-2</v>
+      </c>
+      <c r="Y3" s="12">
+        <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
+        <v>0.13000000000000167</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2">
-        <v>21.55</v>
+        <v>21.24</v>
       </c>
       <c r="C4" s="2">
         <v>19.829999999999998</v>
@@ -3162,88 +3197,92 @@
         <v>5000</v>
       </c>
       <c r="E4" s="2">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="F4" s="2">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="G4" s="2">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H4" s="4">
         <v>0.27379999999999999</v>
       </c>
       <c r="I4" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.02</v>
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.01</v>
       </c>
       <c r="J4" s="12">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>100</v>
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
       </c>
       <c r="K4" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>250</v>
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>217</v>
       </c>
       <c r="L4" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
         <v>200</v>
       </c>
       <c r="M4" s="1">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>896</v>
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>1004</v>
       </c>
       <c r="N4" s="1">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
-        <v>800</v>
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>1000</v>
       </c>
       <c r="O4" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
         <v>200</v>
       </c>
       <c r="P4" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>372</v>
+        <f>[QTDE]*[START]</f>
+        <v>332</v>
       </c>
       <c r="Q4" s="12">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.845019499999999</v>
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.530775599999998</v>
       </c>
       <c r="R4" s="12">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>187.99999999999994</v>
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>188.00000000000003</v>
       </c>
       <c r="S4" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>3.7599999999999988E-2</v>
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>3.7600000000000008E-2</v>
       </c>
       <c r="T4" s="56">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>1.8799999999999994</v>
+        <f>[LUCRO]/[RISCO]</f>
+        <v>3.7600000000000007</v>
       </c>
       <c r="U4" s="12">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
         <v>150</v>
       </c>
       <c r="V4" s="12">
-        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>2.7975000000000003</v>
-      </c>
-      <c r="W4" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>5.0116009280742446E-2</v>
-      </c>
-      <c r="X4" s="12">
-        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
-        <v>0.13999999999999768</v>
+        <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
+        <v>2.5975000000000001</v>
+      </c>
+      <c r="W4" s="12">
+        <f>[EXERCÍCIO]+[TARGET]</f>
+        <v>22.43</v>
+      </c>
+      <c r="X4" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
+        <v>5.6026365348399221E-2</v>
+      </c>
+      <c r="Y4" s="12">
+        <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
+        <v>0.24999999999999978</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="2">
-        <v>21.55</v>
+        <v>21.24</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
@@ -3252,88 +3291,92 @@
         <v>5000</v>
       </c>
       <c r="E5" s="2">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="F5" s="2">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G5" s="2">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="H5" s="4">
         <v>0.27379999999999999</v>
       </c>
       <c r="I5" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.02</v>
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.01</v>
       </c>
       <c r="J5" s="2">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>100</v>
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
       </c>
       <c r="K5" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>344</v>
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>384</v>
       </c>
       <c r="L5" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
         <v>300</v>
       </c>
       <c r="M5" s="6">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>1872</v>
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>2380</v>
       </c>
       <c r="N5" s="6">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
-        <v>1800</v>
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>2300</v>
       </c>
       <c r="O5" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
         <v>300</v>
       </c>
       <c r="P5" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>267</v>
+        <f>[QTDE]*[START]</f>
+        <v>210</v>
       </c>
       <c r="Q5" s="2">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.845019499999999</v>
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.530775599999998</v>
       </c>
       <c r="R5" s="2">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>189</v>
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>189.00000000000003</v>
       </c>
       <c r="S5" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>3.78E-2</v>
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>3.7800000000000007E-2</v>
       </c>
       <c r="T5" s="56">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>1.89</v>
+        <f>[LUCRO]/[RISCO]</f>
+        <v>3.7800000000000007</v>
       </c>
       <c r="U5" s="2">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
         <v>150</v>
       </c>
       <c r="V5" s="2">
-        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>1.5150000000000001</v>
-      </c>
-      <c r="W5" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>4.5011600928074103E-2</v>
-      </c>
-      <c r="X5" s="12">
-        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
-        <v>0.3399999999999993</v>
+        <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
+        <v>1.325</v>
+      </c>
+      <c r="W5" s="2">
+        <f>[EXERCÍCIO]+[TARGET]</f>
+        <v>22.33</v>
+      </c>
+      <c r="X5" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
+        <v>5.1318267419962371E-2</v>
+      </c>
+      <c r="Y5" s="12">
+        <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
+        <v>0.46000000000000152</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="2">
-        <v>21.55</v>
+        <v>21.24</v>
       </c>
       <c r="C6" s="2">
         <v>21.83</v>
@@ -3342,88 +3385,92 @@
         <v>5000</v>
       </c>
       <c r="E6" s="2">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="F6" s="2">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G6" s="2">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
       <c r="H6" s="4">
         <v>0.27379999999999999</v>
       </c>
       <c r="I6" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.02</v>
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.01</v>
       </c>
       <c r="J6" s="12">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>100</v>
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
       </c>
       <c r="K6" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>588</v>
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>500</v>
       </c>
       <c r="L6" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
         <v>500</v>
       </c>
       <c r="M6" s="1">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
-        <v>4166</v>
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
+        <v>5376</v>
       </c>
       <c r="N6" s="1">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
-        <v>4100</v>
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
+        <v>5300</v>
       </c>
       <c r="O6" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
         <v>500</v>
       </c>
       <c r="P6" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>200</v>
+        <f>[QTDE]*[START]</f>
+        <v>155</v>
       </c>
       <c r="Q6" s="12">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.845019499999999</v>
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.530775599999998</v>
       </c>
       <c r="R6" s="12">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>190</v>
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>189.99999999999997</v>
       </c>
       <c r="S6" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>3.7999999999999999E-2</v>
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>3.7999999999999992E-2</v>
       </c>
       <c r="T6" s="56">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>1.9</v>
+        <f>[LUCRO]/[RISCO]</f>
+        <v>3.7999999999999994</v>
       </c>
       <c r="U6" s="12">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
         <v>150</v>
       </c>
       <c r="V6" s="12">
-        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="W6" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>4.9187935034802788E-2</v>
-      </c>
-      <c r="X6" s="12">
-        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
-        <v>0.4</v>
+        <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="W6" s="12">
+        <f>[EXERCÍCIO]+[TARGET]</f>
+        <v>22.52</v>
+      </c>
+      <c r="X6" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
+        <v>6.026365348399243E-2</v>
+      </c>
+      <c r="Y6" s="12">
+        <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
+        <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="2">
-        <v>21.55</v>
+        <v>21.24</v>
       </c>
       <c r="C7" s="2">
         <v>22.83</v>
@@ -3438,73 +3485,77 @@
         <v>0.04</v>
       </c>
       <c r="G7" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="H7" s="4">
         <v>0.27379999999999999</v>
       </c>
       <c r="I7" s="4">
-        <f>IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF(Tabela4[PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.02</v>
+        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
+        <v>0.01</v>
       </c>
       <c r="J7" s="12">
-        <f>Tabela4[PATRIMONIO]*Tabela4[RISCO/TRADE]</f>
-        <v>100</v>
+        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
+        <v>50</v>
       </c>
       <c r="K7" s="6">
-        <f>ROUNDDOWN(Tabela4[RISCO]/ABS(Tabela4[START]-Tabela4[STOP]),0)</f>
-        <v>1250</v>
+        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
+        <v>625</v>
       </c>
       <c r="L7" s="6">
-        <f>Tabela4[QTDE TMP 1]-MOD(Tabela4[QTDE TMP 1],100)</f>
-        <v>1200</v>
+        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
+        <v>600</v>
       </c>
       <c r="M7" s="1">
-        <f>ROUNDDOWN(Tabela4[PATRIMONIO]/3/Tabela4[START],0)</f>
+        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
         <v>13888</v>
       </c>
       <c r="N7" s="1">
-        <f>Tabela4[QTDE TMP 2]-MOD(Tabela4[QTDE TMP 2],100)</f>
+        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
         <v>13800</v>
       </c>
       <c r="O7" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="P7" s="2">
-        <f>Tabela4[QTDE]*Tabela4[START]</f>
-        <v>144</v>
+        <f>[QTDE]*[START]</f>
+        <v>72</v>
       </c>
       <c r="Q7" s="12">
-        <f>IF(Tabela4[TARGET] &gt; Tabela4[START], (1+(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO], (1-(Tabela4[VOLAT.]/10*1.5/3)) * Tabela4[COTAÇÃO])</f>
-        <v>21.845019499999999</v>
+        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
+        <v>21.530775599999998</v>
       </c>
       <c r="R7" s="12">
-        <f>Tabela4[QTDE]*ABS(Tabela4[TARGET]-Tabela4[START])</f>
-        <v>192.00000000000003</v>
+        <f>[QTDE]*ABS([TARGET]-[START])</f>
+        <v>186</v>
       </c>
       <c r="S7" s="4">
-        <f>Tabela4[LUCRO]/Tabela4[PATRIMONIO]</f>
-        <v>3.8400000000000004E-2</v>
+        <f>[LUCRO]/[PATRIMONIO]</f>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="T7" s="56">
-        <f>Tabela4[LUCRO]/Tabela4[RISCO]</f>
-        <v>1.9200000000000004</v>
+        <f>[LUCRO]/[RISCO]</f>
+        <v>3.72</v>
       </c>
       <c r="U7" s="12">
-        <f>IF((Tabela4[PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, Tabela4[PATRIMONIO]*3%)</f>
+        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
         <v>150</v>
       </c>
       <c r="V7" s="12">
-        <f>(Tabela4[SALÁRIO]/ (80% * Tabela4[QTDE]))+Tabela4[START]</f>
-        <v>0.27625</v>
-      </c>
-      <c r="W7" s="4">
-        <f>IF(Tabela4[EXERCÍCIO] &gt; 0, Tabela4[EXERCÍCIO]+Tabela4[TARGET],Tabela4[TARGET])/Tabela4[COTAÇÃO]-1</f>
-        <v>7.2389791183294694E-2</v>
-      </c>
-      <c r="X7" s="12">
-        <f>IF(Tabela4[EXERCÍCIO]&gt;0,IF(Tabela4[COTAÇÃO]&gt;Tabela4[EXERCÍCIO],Tabela4[START] - (Tabela4[COTAÇÃO]-Tabela4[EXERCÍCIO]),Tabela4[START]))</f>
+        <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
+        <v>0.4325</v>
+      </c>
+      <c r="W7" s="12">
+        <f>[EXERCÍCIO]+[TARGET]</f>
+        <v>23.259999999999998</v>
+      </c>
+      <c r="X7" s="4">
+        <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
+        <v>9.5103578154425605E-2</v>
+      </c>
+      <c r="Y7" s="12">
+        <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
         <v>0.12</v>
       </c>
     </row>
@@ -3518,7 +3569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3528,7 +3579,7 @@
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -3560,7 +3611,7 @@
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
@@ -3643,7 +3694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="19" t="s">
         <v>53</v>
       </c>
@@ -3672,47 +3723,47 @@
         <v>0.33</v>
       </c>
       <c r="J2" s="2">
-        <f>IF(Tabela1[PATRIM.] &lt; SETUP!$A$2, Tabela1[PATRIM.] * SETUP!$B$2, IF(Tabela1[PATRIM.] &lt; SETUP!$A$3, Tabela1[PATRIM.] * SETUP!$B$3, IF(Tabela1[PATRIM.] &lt; SETUP!$A$4, Tabela1[PATRIM.] * SETUP!$B$4, IF(Tabela1[PATRIM.] &lt; SETUP!$A$5, Tabela1[PATRIM.] * SETUP!$B$5, IF(Tabela1[PATRIM.] &lt; SETUP!$A$6, Tabela1[PATRIM.] * SETUP!$B$6, Tabela1[PATRIM.] * SETUP!$B$7)))))</f>
-        <v>375</v>
+        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <v>239.99999999999997</v>
       </c>
       <c r="K2" s="2">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.5500000000000007</v>
       </c>
       <c r="L2" s="4">
-        <f>(Tabela1[FIM] / Tabela1[INICIO] - 1)</f>
+        <f>([FIM] / [INICIO] - 1)</f>
         <v>-4.6268656716417889E-2</v>
       </c>
       <c r="M2" s="12">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>32.461500000000001</v>
       </c>
       <c r="N2" s="12">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>32.49</v>
       </c>
       <c r="O2" s="18">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>32.520000000000003</v>
       </c>
       <c r="P2" s="18">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>27.98</v>
       </c>
       <c r="Q2" s="11">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>12499</v>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>7999</v>
       </c>
       <c r="R2" s="11">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>12400</v>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>7900</v>
       </c>
       <c r="S2" s="11">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>512.97835231353235</v>
       </c>
       <c r="T2" s="11">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="U2" s="11">
@@ -3720,31 +3771,31 @@
         <v>500</v>
       </c>
       <c r="V2" s="18">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>16245.000000000002</v>
       </c>
       <c r="W2" s="18">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>45.000000000000568</v>
       </c>
       <c r="X2" s="18">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE]</f>
+        <f>ABS([TGT] - [START]) * [QTDE]</f>
         <v>2255.0000000000009</v>
       </c>
       <c r="Y2" s="5">
-        <f>Tabela1[LUCRO] / Tabela1[PERDA]</f>
+        <f>[LUCRO] / [PERDA]</f>
         <v>50.111111111110496</v>
       </c>
       <c r="Z2" s="12">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>28.656500000000001</v>
       </c>
       <c r="AA2" s="60">
-        <f>Tabela1[LUCRO]/Tabela1[PATRIM.]</f>
+        <f>[LUCRO]/[PATRIM.]</f>
         <v>4.5100000000000015E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
@@ -3773,47 +3824,47 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="46">
-        <f>IF(Tabela1[PATRIM.] &lt; SETUP!$A$2, Tabela1[PATRIM.] * SETUP!$B$2, IF(Tabela1[PATRIM.] &lt; SETUP!$A$3, Tabela1[PATRIM.] * SETUP!$B$3, IF(Tabela1[PATRIM.] &lt; SETUP!$A$4, Tabela1[PATRIM.] * SETUP!$B$4, IF(Tabela1[PATRIM.] &lt; SETUP!$A$5, Tabela1[PATRIM.] * SETUP!$B$5, IF(Tabela1[PATRIM.] &lt; SETUP!$A$6, Tabela1[PATRIM.] * SETUP!$B$6, Tabela1[PATRIM.] * SETUP!$B$7)))))</f>
-        <v>375</v>
+        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <v>239.99999999999997</v>
       </c>
       <c r="K3" s="44">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.5500000000000007</v>
       </c>
       <c r="L3" s="45">
-        <f>(Tabela1[FIM] / Tabela1[INICIO] - 1)</f>
+        <f>([FIM] / [INICIO] - 1)</f>
         <v>-4.6268656716417889E-2</v>
       </c>
       <c r="M3" s="46">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>32.725000000000001</v>
       </c>
       <c r="N3" s="46">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>32.76</v>
       </c>
       <c r="O3" s="47">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>32.79</v>
       </c>
       <c r="P3" s="47">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>27.98</v>
       </c>
       <c r="Q3" s="48">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>12499</v>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>7999</v>
       </c>
       <c r="R3" s="48">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>12400</v>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>7900</v>
       </c>
       <c r="S3" s="48">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>508.7505087505088</v>
       </c>
       <c r="T3" s="48">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="U3" s="48">
@@ -3821,31 +3872,31 @@
         <v>500</v>
       </c>
       <c r="V3" s="47">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>16379.999999999998</v>
       </c>
       <c r="W3" s="47">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>45.000000000000568</v>
       </c>
       <c r="X3" s="46">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE]</f>
+        <f>ABS([TGT] - [START]) * [QTDE]</f>
         <v>2389.9999999999986</v>
       </c>
       <c r="Y3" s="49">
-        <f>Tabela1[LUCRO] / Tabela1[PERDA]</f>
+        <f>[LUCRO] / [PERDA]</f>
         <v>53.111111111110411</v>
       </c>
       <c r="Z3" s="46">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>28.696999999999999</v>
       </c>
       <c r="AA3" s="60">
-        <f>Tabela1[LUCRO]/Tabela1[PATRIM.]</f>
+        <f>[LUCRO]/[PATRIM.]</f>
         <v>4.7799999999999974E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" s="19" t="s">
         <v>53</v>
       </c>
@@ -3874,47 +3925,47 @@
         <v>0.6</v>
       </c>
       <c r="J4" s="52">
-        <f>IF(Tabela1[PATRIM.] &lt; SETUP!$A$2, Tabela1[PATRIM.] * SETUP!$B$2, IF(Tabela1[PATRIM.] &lt; SETUP!$A$3, Tabela1[PATRIM.] * SETUP!$B$3, IF(Tabela1[PATRIM.] &lt; SETUP!$A$4, Tabela1[PATRIM.] * SETUP!$B$4, IF(Tabela1[PATRIM.] &lt; SETUP!$A$5, Tabela1[PATRIM.] * SETUP!$B$5, IF(Tabela1[PATRIM.] &lt; SETUP!$A$6, Tabela1[PATRIM.] * SETUP!$B$6, Tabela1[PATRIM.] * SETUP!$B$7)))))</f>
-        <v>375</v>
+        <f>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</f>
+        <v>239.99999999999997</v>
       </c>
       <c r="K4" s="50">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[FIM] - Tabela1[INICIO], Tabela1[INICIO] - Tabela1[FIM])</f>
+        <f>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</f>
         <v>1.5500000000000007</v>
       </c>
       <c r="L4" s="51">
-        <f>(Tabela1[FIM] / Tabela1[INICIO] - 1)</f>
+        <f>([FIM] / [INICIO] - 1)</f>
         <v>-4.6268656716417889E-2</v>
       </c>
       <c r="M4" s="52">
-        <f>ABS(Tabela1[PERNA] * Tabela1[% IN] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], - Tabela1[FIM], + Tabela1[FIM]))</f>
+        <f>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</f>
         <v>32.880000000000003</v>
       </c>
       <c r="N4" s="52">
-        <f>TRUNC(Tabela1[RETORNO] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% START] * 10)), 2)</f>
+        <f>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</f>
         <v>32.909999999999997</v>
       </c>
       <c r="O4" s="53">
-        <f>TRUNC(Tabela1[START] * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% STOP] * 10)), 2)</f>
+        <f>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</f>
         <v>32.94</v>
       </c>
       <c r="P4" s="53">
-        <f>IF(Tabela1[TGT +] = 0, TRUNC((Tabela1[STOP] + IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[PERNA], - Tabela1[PERNA])) * IF(Tabela1[INICIO] &lt; Tabela1[FIM], (1 - ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10), (1 + ABS(Tabela1[% PERNA]) * Tabela1[% TGT] * 10)), 2),    Tabela1[TGT +])</f>
+        <f>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</f>
         <v>27.98</v>
       </c>
       <c r="Q4" s="54">
-        <f>ROUNDDOWN(Tabela1[RISCO] / (ABS(Tabela1[START] - Tabela1[STOP])), 0)</f>
-        <v>12499</v>
+        <f>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</f>
+        <v>7999</v>
       </c>
       <c r="R4" s="54">
-        <f>Tabela1[QTDE TMP] - MOD(Tabela1[QTDE TMP], 100)</f>
-        <v>12400</v>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>7900</v>
       </c>
       <c r="S4" s="54">
-        <f>(Tabela1[PATRIM.] / 3) / Tabela1[START]</f>
+        <f>([PATRIM.] / 3) / [START]</f>
         <v>506.4316823660489</v>
       </c>
       <c r="T4" s="54">
-        <f>Tabela1[QTDE MAX TMP] - MOD(Tabela1[QTDE MAX TMP], 100)</f>
+        <f>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</f>
         <v>500</v>
       </c>
       <c r="U4" s="54">
@@ -3922,27 +3973,27 @@
         <v>500</v>
       </c>
       <c r="V4" s="53">
-        <f>Tabela1[QTDE] * Tabela1[START]</f>
+        <f>[QTDE] * [START]</f>
         <v>16455</v>
       </c>
       <c r="W4" s="53">
-        <f>ABS(Tabela1[START] - Tabela1[STOP]) * Tabela1[QTDE] + 30</f>
+        <f>ABS([START] - [STOP]) * [QTDE] + 30</f>
         <v>45.000000000000568</v>
       </c>
       <c r="X4" s="52">
-        <f>ABS(Tabela1[TGT] - Tabela1[START]) * Tabela1[QTDE]</f>
+        <f>ABS([TGT] - [START]) * [QTDE]</f>
         <v>2464.9999999999982</v>
       </c>
       <c r="Y4" s="55">
-        <f>Tabela1[LUCRO] / Tabela1[PERDA]</f>
+        <f>[LUCRO] / [PERDA]</f>
         <v>54.777777777777047</v>
       </c>
       <c r="Z4" s="52">
-        <f>IF(Tabela1[INICIO] &lt; Tabela1[FIM], Tabela1[START] + ABS(Tabela1[TGT] - Tabela1[START]) * 85%, Tabela1[START] - ABS(Tabela1[TGT] - Tabela1[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>28.7195</v>
       </c>
       <c r="AA4" s="60">
-        <f>Tabela1[LUCRO]/Tabela1[PATRIM.]</f>
+        <f>[LUCRO]/[PATRIM.]</f>
         <v>4.9299999999999962E-2</v>
       </c>
     </row>
@@ -3957,7 +4008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3967,7 +4018,7 @@
       <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3998,7 +4049,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
@@ -4087,7 +4138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="24" customFormat="1">
       <c r="A2" s="25" t="s">
         <v>52</v>
       </c>
@@ -4119,83 +4170,83 @@
         <v>1</v>
       </c>
       <c r="K2" s="26">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>3922</v>
       </c>
       <c r="L2" s="26">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>78.44</v>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>39.22</v>
       </c>
       <c r="M2" s="26">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>3.5199999999999996</v>
       </c>
       <c r="N2" s="28">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.28478964401294493</v>
       </c>
       <c r="O2" s="30">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>10.8</v>
       </c>
       <c r="P2" s="31">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>11.09</v>
       </c>
       <c r="Q2" s="31">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>10.160748000000002</v>
       </c>
       <c r="R2" s="31">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>7.65</v>
       </c>
       <c r="S2" s="32">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
-        <v>313</v>
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <v>156</v>
       </c>
       <c r="T2" s="32">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
-        <v>300</v>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>100</v>
       </c>
       <c r="U2" s="31">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
-        <v>3240</v>
+        <f>[QTDE] * [START]</f>
+        <v>1080</v>
       </c>
       <c r="V2" s="31">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
-        <v>86.999999999999744</v>
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <v>28.999999999999915</v>
       </c>
       <c r="W2" s="27">
-        <f>Tabela13[QTDE] / 2</f>
-        <v>150</v>
+        <f>[QTDE] / 2</f>
+        <v>50</v>
       </c>
       <c r="X2" s="27">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
-        <v>200</v>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>100</v>
       </c>
       <c r="Y2" s="30">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>127.85039999999981</v>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>63.925199999999904</v>
       </c>
       <c r="Z2" s="27">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
-        <v>100</v>
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>0</v>
       </c>
       <c r="AA2" s="31">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>442.85039999999987</v>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>63.925199999999904</v>
       </c>
       <c r="AB2" s="33">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>5.0902344827586345</v>
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>2.2043172413793135</v>
       </c>
       <c r="AC2" s="30">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>8.1225000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="43" customFormat="1">
       <c r="A3" s="34" t="s">
         <v>28</v>
       </c>
@@ -4227,79 +4278,79 @@
         <v>1</v>
       </c>
       <c r="K3" s="35">
-        <f>Tabela13[PATRIM.] * (1 - Tabela13[AGE] / 100)</f>
+        <f>[PATRIM.] * (1 - [AGE] / 100)</f>
         <v>4514</v>
       </c>
       <c r="L3" s="35">
-        <f>IF(Tabela13[BASE RV] &lt; SETUP!$A$2, Tabela13[BASE RV] * SETUP!$B$2, IF(Tabela13[BASE RV] &lt; SETUP!$A$3, Tabela13[BASE RV] * SETUP!$B$3, 0))</f>
-        <v>90.28</v>
+        <f>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</f>
+        <v>45.14</v>
       </c>
       <c r="M3" s="35">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[MEIO] - Tabela13[INICIO], Tabela13[INICIO] - Tabela13[MEIO])</f>
+        <f>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</f>
         <v>1.1599999999999997</v>
       </c>
       <c r="N3" s="37">
-        <f>Tabela13[MEIO] / Tabela13[INICIO] - 1</f>
+        <f>[MEIO] / [INICIO] - 1</f>
         <v>-0.26728110599078336</v>
       </c>
       <c r="O3" s="39">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL H] + 0.02, Tabela13[CDL L] - 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</f>
         <v>3.58</v>
       </c>
       <c r="P3" s="40">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[CDL L] - 0.02, Tabela13[CDL H] + 0.02)</f>
+        <f>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</f>
         <v>3.8</v>
       </c>
       <c r="Q3" s="40">
-        <f>Tabela13[START] * IF(Tabela13[INICIO] &lt; Tabela13[MEIO], (1 + Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]), (1 - Tabela13[% VOL] / 10 * 1.5 * Tabela13[PER]))</f>
+        <f>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</f>
         <v>3.2040999999999999</v>
       </c>
       <c r="R3" s="40">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO],  Tabela13[FIM] + (Tabela13[MEIO] - Tabela13[INICIO]), Tabela13[FIM] - (Tabela13[INICIO] - Tabela13[MEIO]))</f>
+        <f>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</f>
         <v>2.62</v>
       </c>
       <c r="S3" s="41">
-        <f>ROUNDDOWN(Tabela13[RISCO] / (ABS(Tabela13[CDL H] - Tabela13[CDL L])), 0)</f>
-        <v>501</v>
+        <f>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</f>
+        <v>250</v>
       </c>
       <c r="T3" s="41">
-        <f>Tabela13[QTDE TMP] - MOD(Tabela13[QTDE TMP], 100)</f>
-        <v>500</v>
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
+        <v>200</v>
       </c>
       <c r="U3" s="40">
-        <f>Tabela13[QTDE] * Tabela13[START]</f>
-        <v>1790</v>
+        <f>[QTDE] * [START]</f>
+        <v>716</v>
       </c>
       <c r="V3" s="40">
-        <f>ABS(Tabela13[START] - Tabela13[STOP]) * Tabela13[QTDE]</f>
-        <v>109.99999999999987</v>
+        <f>ABS([START] - [STOP]) * [QTDE]</f>
+        <v>43.99999999999995</v>
       </c>
       <c r="W3" s="36">
-        <f>Tabela13[QTDE] / 2</f>
-        <v>250</v>
+        <f>[QTDE] / 2</f>
+        <v>100</v>
       </c>
       <c r="X3" s="36">
-        <f>Tabela13[QTDE PAR TMP] + MOD(Tabela13[QTDE PAR TMP], 100)</f>
-        <v>300</v>
+        <f>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</f>
+        <v>100</v>
       </c>
       <c r="Y3" s="39">
-        <f>ABS(Tabela13[PARCIAL] - Tabela13[START]) * Tabela13[QTDE PAR]</f>
-        <v>112.77000000000004</v>
+        <f>ABS([PARCIAL] - [START]) * [QTDE PAR]</f>
+        <v>37.590000000000011</v>
       </c>
       <c r="Z3" s="36">
-        <f>Tabela13[QTDE] - Tabela13[QTDE PAR]</f>
-        <v>200</v>
+        <f>[QTDE] - [QTDE PAR]</f>
+        <v>100</v>
       </c>
       <c r="AA3" s="40">
-        <f>ABS(Tabela13[TGT] - Tabela13[START]) * Tabela13[QTDE ALVO] + Tabela13[LUCRO PAR]</f>
-        <v>304.77000000000004</v>
+        <f>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</f>
+        <v>133.59</v>
       </c>
       <c r="AB3" s="42">
-        <f>Tabela13[LUCRO ALVO] / Tabela13[PERDA]</f>
-        <v>2.7706363636363673</v>
+        <f>[LUCRO ALVO] / [PERDA]</f>
+        <v>3.0361363636363672</v>
       </c>
       <c r="AC3" s="39">
-        <f>IF(Tabela13[INICIO] &lt; Tabela13[MEIO], Tabela13[START] + ABS(Tabela13[TGT] - Tabela13[START]) * 85%, Tabela13[START] - ABS(Tabela13[TGT] - Tabela13[START]) * 85%)</f>
+        <f>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</f>
         <v>2.7640000000000002</v>
       </c>
     </row>
@@ -4314,14 +4365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -4330,7 +4381,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -4341,19 +4392,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
       <c r="B2" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C2" s="2">
         <f>A2*B2</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
-        <v>250</v>
+        <v>3650</v>
       </c>
       <c r="F2" s="4">
         <v>0.02</v>
@@ -4362,16 +4413,16 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>20000</v>
       </c>
       <c r="B3" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C7" si="0">A3*B3</f>
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="F3" s="4">
         <v>1.4999999999999999E-2</v>
@@ -4380,16 +4431,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>50000</v>
       </c>
       <c r="B4" s="4">
-        <v>0.01</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="F4" s="4">
         <v>0.01</v>
@@ -4398,16 +4449,16 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>100000</v>
       </c>
       <c r="B5" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>479.99999999999994</v>
       </c>
       <c r="F5" s="4">
         <v>7.4999999999999997E-3</v>
@@ -4416,16 +4467,16 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>500000</v>
       </c>
       <c r="B6" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="F6" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4434,16 +4485,16 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
       <c r="B7" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="4">
         <v>2.5000000000000001E-3</v>
@@ -4458,7 +4509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4468,7 +4519,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
@@ -4481,7 +4532,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4525,7 +4576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -4539,35 +4590,35 @@
         <v>2.54</v>
       </c>
       <c r="E2" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="F2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.4299999999999997</v>
       </c>
       <c r="G2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="H2" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.5599999999999996</v>
       </c>
       <c r="I2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>4.5267489711934283E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>1.195219123505975E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-7.812499999999889E-3</v>
       </c>
       <c r="L2" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.16788321167883224</v>
       </c>
       <c r="M2" s="4">
@@ -4575,11 +4626,11 @@
         <v>1.195219123505975E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.1193486921877595E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -4593,35 +4644,35 @@
         <v>2.74</v>
       </c>
       <c r="E3" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>0.81</v>
       </c>
       <c r="F3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>2.69</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>2.83</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>2.91</v>
       </c>
       <c r="I3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>1.858736059479571E-2</v>
       </c>
       <c r="J3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-3.180212014134276E-2</v>
       </c>
       <c r="K3" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-5.841924398625431E-2</v>
       </c>
       <c r="L3" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25077399380804954</v>
       </c>
       <c r="M3" s="4">
@@ -4629,11 +4680,11 @@
         <v>1.858736059479571E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>7.4119968791592772E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -4647,35 +4698,35 @@
         <v>4.34</v>
       </c>
       <c r="E4" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.0799999999999996</v>
       </c>
       <c r="F4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>4.08</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>4.43</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>4.6400000000000006</v>
       </c>
       <c r="I4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="J4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-2.0316027088036037E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-6.465517241379326E-2</v>
       </c>
       <c r="L4" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.38025594149908593</v>
       </c>
       <c r="M4" s="4">
@@ -4683,11 +4734,11 @@
         <v>6.3725490196078427E-2</v>
       </c>
       <c r="N4" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>1.6758578431372548E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -4699,35 +4750,35 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>3.629999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>6.2700000000000005</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.25</v>
       </c>
       <c r="I5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>-1</v>
       </c>
       <c r="J5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>-1</v>
       </c>
       <c r="K5" s="4">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.41724137931034477</v>
       </c>
       <c r="M5" s="4">
@@ -4735,11 +4786,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
@@ -4753,35 +4804,35 @@
         <v>7.49</v>
       </c>
       <c r="E6" s="22">
-        <f>Tabela3[INICIO]-Tabela3[FIM]</f>
+        <f>[INICIO]-[FIM]</f>
         <v>2.21</v>
       </c>
       <c r="F6" s="22">
-        <f>ROUND(Tabela3[PERNA] * 33%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 33%, 2) + [FIM]</f>
         <v>7.0399999999999991</v>
       </c>
       <c r="G6" s="22">
-        <f>ROUND(Tabela3[PERNA] * 50%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 50%, 2) + [FIM]</f>
         <v>7.42</v>
       </c>
       <c r="H6" s="22">
-        <f>ROUND(Tabela3[PERNA] * 60%, 2) + Tabela3[FIM]</f>
+        <f>ROUND([PERNA] * 60%, 2) + [FIM]</f>
         <v>7.64</v>
       </c>
       <c r="I6" s="23">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[33%] - 1</f>
+        <f>[INFLEXAO MAX]/[33%] - 1</f>
         <v>6.3920454545454808E-2</v>
       </c>
       <c r="J6" s="23">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[50%] - 1</f>
+        <f>[INFLEXAO MAX]/[50%] - 1</f>
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="K6" s="23">
-        <f>Tabela3[INFLEXAO MAX]/Tabela3[60%] - 1</f>
+        <f>[INFLEXAO MAX]/[60%] - 1</f>
         <v>-1.963350785340312E-2</v>
       </c>
       <c r="L6" s="23">
-        <f>1 - Tabela3[FIM]/Tabela3[INICIO]</f>
+        <f>1 - [FIM]/[INICIO]</f>
         <v>0.25938967136150237</v>
       </c>
       <c r="M6" s="23">
@@ -4789,7 +4840,7 @@
         <v>9.4339622641510523E-3</v>
       </c>
       <c r="N6" s="23">
-        <f>10% * Tabela3[% INFLEXÃO] / Tabela3[% PERNA]</f>
+        <f>10% * [% INFLEXÃO] / [% PERNA]</f>
         <v>3.6369845470844782E-3</v>
       </c>
     </row>

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>INICIO</t>
   </si>
@@ -306,12 +306,6 @@
   </si>
   <si>
     <t>% VAR</t>
-  </si>
-  <si>
-    <t>PETRI22</t>
-  </si>
-  <si>
-    <t>PETRI23</t>
   </si>
   <si>
     <t>% LUCRO</t>
@@ -343,7 +337,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +415,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,7 +444,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -506,6 +506,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -547,6 +551,266 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -561,7 +825,259 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -579,7 +1095,76 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -597,6 +1182,177 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -619,6 +1375,258 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -637,6 +1645,58 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -673,173 +1733,140 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -857,1034 +1884,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2335,8 +2339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:Y7" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
-  <autoFilter ref="A1:Y7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:Y5" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+  <autoFilter ref="A1:Y5">
     <filterColumn colId="22"/>
   </autoFilter>
   <sortState ref="A2:Y7">
@@ -2393,13 +2397,13 @@
     <tableColumn id="23" name="TGT SALARIO" dataDxfId="79" dataCellStyle="Moeda">
       <calculatedColumnFormula>([SALÁRIO]/ (80% * [QTDE]))+[START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="COT. SALAR." dataDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="25" name="COT. SALAR." dataDxfId="78" dataCellStyle="Moeda">
       <calculatedColumnFormula>[EXERCÍCIO]+[TARGET]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="% VAR" dataDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="16" name="% VAR" dataDxfId="77" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="EXT" dataDxfId="78" dataCellStyle="Moeda">
+    <tableColumn id="18" name="EXT" dataDxfId="76" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2408,70 +2412,70 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AA4" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AA4" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="A1:AA4"/>
   <tableColumns count="27">
-    <tableColumn id="31" name="ATIVO" dataDxfId="75"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="74" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="73" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="FIM" dataDxfId="72" dataCellStyle="Moeda"/>
-    <tableColumn id="35" name="TGT +" dataDxfId="71" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="% START" dataDxfId="70" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="% STOP" dataDxfId="69" dataCellStyle="Porcentagem"/>
-    <tableColumn id="10" name="% TGT" dataDxfId="68" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="% IN" dataDxfId="67" dataCellStyle="Porcentagem"/>
-    <tableColumn id="8" name="RISCO" dataDxfId="66" dataCellStyle="Moeda">
+    <tableColumn id="31" name="ATIVO" dataDxfId="73"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="72" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="71" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="FIM" dataDxfId="70" dataCellStyle="Moeda"/>
+    <tableColumn id="35" name="TGT +" dataDxfId="69" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="% START" dataDxfId="68" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" name="% STOP" dataDxfId="67" dataCellStyle="Porcentagem"/>
+    <tableColumn id="10" name="% TGT" dataDxfId="66" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="% IN" dataDxfId="65" dataCellStyle="Porcentagem"/>
+    <tableColumn id="8" name="RISCO" dataDxfId="64" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([PATRIM.] &lt; SETUP!$A$2, [PATRIM.] * SETUP!$B$2, IF([PATRIM.] &lt; SETUP!$A$3, [PATRIM.] * SETUP!$B$3, IF([PATRIM.] &lt; SETUP!$A$4, [PATRIM.] * SETUP!$B$4, IF([PATRIM.] &lt; SETUP!$A$5, [PATRIM.] * SETUP!$B$5, IF([PATRIM.] &lt; SETUP!$A$6, [PATRIM.] * SETUP!$B$6, [PATRIM.] * SETUP!$B$7)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="65" dataCellStyle="Moeda">
+    <tableColumn id="3" name="PERNA" dataDxfId="63" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [FIM] - [INICIO], [INICIO] - [FIM])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="64" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="% PERNA" dataDxfId="62" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>([FIM] / [INICIO] - 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="RETORNO" dataDxfId="63" dataCellStyle="Moeda">
+    <tableColumn id="15" name="RETORNO" dataDxfId="61" dataCellStyle="Moeda">
       <calculatedColumnFormula>ABS([PERNA] * [% IN] + IF([INICIO] &lt; [FIM], - [FIM], + [FIM]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="62" dataCellStyle="Moeda">
+    <tableColumn id="16" name="START" dataDxfId="60" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([RETORNO] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% START] * 10), (1 + ABS([% PERNA]) * [% START] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="61">
+    <tableColumn id="17" name="STOP" dataDxfId="59">
       <calculatedColumnFormula>TRUNC([START] * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% STOP] * 10), (1 + ABS([% PERNA]) * [% STOP] * 10)), 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="60">
+    <tableColumn id="20" name="TGT" dataDxfId="58">
       <calculatedColumnFormula>IF([TGT +] = 0, TRUNC(([STOP] + IF([INICIO] &lt; [FIM], [PERNA], - [PERNA])) * IF([INICIO] &lt; [FIM], (1 - ABS([% PERNA]) * [% TGT] * 10), (1 + ABS([% PERNA]) * [% TGT] * 10)), 2),    [TGT +])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="59">
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="57">
       <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([START] - [STOP])), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="QTDE A" dataDxfId="58">
+    <tableColumn id="22" name="QTDE A" dataDxfId="56">
       <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="57">
+    <tableColumn id="34" name="QTDE MAX TMP" dataDxfId="55">
       <calculatedColumnFormula>([PATRIM.] / 3) / [START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="QTDE MAX" dataDxfId="56">
+    <tableColumn id="33" name="QTDE MAX" dataDxfId="54">
       <calculatedColumnFormula>[QTDE MAX TMP] - MOD([QTDE MAX TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="QTDE" dataDxfId="55">
+    <tableColumn id="32" name="QTDE" dataDxfId="53">
       <calculatedColumnFormula>MIN(Tabela1[[#This Row],[QTDE A]], Tabela1[[#This Row],[QTDE MAX]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="54">
+    <tableColumn id="23" name="VOLUME" dataDxfId="52">
       <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="53">
+    <tableColumn id="24" name="PERDA" dataDxfId="51">
       <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE] + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO" dataDxfId="52">
+    <tableColumn id="26" name="LUCRO" dataDxfId="50">
       <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="51" dataCellStyle="Moeda">
+    <tableColumn id="30" name="RISCO:1" dataDxfId="49" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="50" dataCellStyle="Moeda">
+    <tableColumn id="14" name="% 85" dataDxfId="48" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [FIM], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="% LUCRO" dataDxfId="49" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="% LUCRO" dataDxfId="47" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/[PATRIM.]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2480,74 +2484,74 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="31" name="ATIVO" dataDxfId="46"/>
-    <tableColumn id="5" name="PATRIM." dataDxfId="45" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="AGE" dataDxfId="44" dataCellStyle="Moeda"/>
-    <tableColumn id="1" name="INICIO" dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="MEIO" dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="32" name="FIM" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="34" name="CDL H" dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="33" name="CDL L" dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="12" name="% VOL" dataDxfId="38" dataCellStyle="Porcentagem"/>
-    <tableColumn id="19" name="PER" dataDxfId="37" dataCellStyle="Porcentagem"/>
-    <tableColumn id="7" name="BASE RV" dataDxfId="36" dataCellStyle="Moeda">
+    <tableColumn id="31" name="ATIVO" dataDxfId="44"/>
+    <tableColumn id="5" name="PATRIM." dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="AGE" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="INICIO" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="MEIO" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="32" name="FIM" dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="34" name="CDL H" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="33" name="CDL L" dataDxfId="37" dataCellStyle="Moeda"/>
+    <tableColumn id="12" name="% VOL" dataDxfId="36" dataCellStyle="Porcentagem"/>
+    <tableColumn id="19" name="PER" dataDxfId="35" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" name="BASE RV" dataDxfId="34" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PATRIM.] * (1 - [AGE] / 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="RISCO" dataDxfId="35" dataCellStyle="Moeda">
+    <tableColumn id="8" name="RISCO" dataDxfId="33" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([BASE RV] &lt; SETUP!$A$2, [BASE RV] * SETUP!$B$2, IF([BASE RV] &lt; SETUP!$A$3, [BASE RV] * SETUP!$B$3, 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PERNA" dataDxfId="34" dataCellStyle="Moeda">
+    <tableColumn id="3" name="PERNA" dataDxfId="32" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [MEIO] - [INICIO], [INICIO] - [MEIO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="% PERNA" dataDxfId="33" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="% PERNA" dataDxfId="31" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[MEIO] / [INICIO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="START" dataDxfId="32" dataCellStyle="Moeda">
+    <tableColumn id="16" name="START" dataDxfId="30" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL H] + 0.02, [CDL L] - 0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="STOP" dataDxfId="31">
+    <tableColumn id="17" name="STOP" dataDxfId="29">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [CDL L] - 0.02, [CDL H] + 0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PARCIAL" dataDxfId="30">
+    <tableColumn id="18" name="PARCIAL" dataDxfId="28">
       <calculatedColumnFormula>[START] * IF([INICIO] &lt; [MEIO], (1 + [% VOL] / 10 * 1.5 * [PER]), (1 - [% VOL] / 10 * 1.5 * [PER]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TGT" dataDxfId="29">
+    <tableColumn id="20" name="TGT" dataDxfId="27">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO],  [FIM] + ([MEIO] - [INICIO]), [FIM] - ([INICIO] - [MEIO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="QTDE TMP" dataDxfId="28">
+    <tableColumn id="21" name="QTDE TMP" dataDxfId="26">
       <calculatedColumnFormula>ROUNDDOWN([RISCO] / (ABS([CDL H] - [CDL L])), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="QTDE" dataDxfId="27">
+    <tableColumn id="22" name="QTDE" dataDxfId="25">
       <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="VOLUME" dataDxfId="26">
+    <tableColumn id="23" name="VOLUME" dataDxfId="24">
       <calculatedColumnFormula>[QTDE] * [START]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="PERDA" dataDxfId="25">
+    <tableColumn id="24" name="PERDA" dataDxfId="23">
       <calculatedColumnFormula>ABS([START] - [STOP]) * [QTDE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="24" dataCellStyle="Moeda">
+    <tableColumn id="27" name="QTDE PAR TMP" dataDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] / 2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="QTDE PAR" dataDxfId="23" dataCellStyle="Moeda">
+    <tableColumn id="28" name="QTDE PAR" dataDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE PAR TMP] + MOD([QTDE PAR TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO PAR" dataDxfId="22">
+    <tableColumn id="25" name="LUCRO PAR" dataDxfId="20">
       <calculatedColumnFormula>ABS([PARCIAL] - [START]) * [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="QTDE ALVO" dataDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="29" name="QTDE ALVO" dataDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE] - [QTDE PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="20">
+    <tableColumn id="26" name="LUCRO ALVO" dataDxfId="18">
       <calculatedColumnFormula>ABS([TGT] - [START]) * [QTDE ALVO] + [LUCRO PAR]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="RISCO:1" dataDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="30" name="RISCO:1" dataDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO ALVO] / [PERDA]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="% 85" dataDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="14" name="% 85" dataDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([INICIO] &lt; [MEIO], [START] + ABS([TGT] - [START]) * 85%, [START] - ABS([TGT] - [START]) * 85%)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2556,41 +2560,41 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:N6" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N6"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ATIVO" dataDxfId="15"/>
-    <tableColumn id="2" name="INICIO" dataDxfId="14" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="FIM" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="PERNA" dataDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="1" name="ATIVO" dataDxfId="13"/>
+    <tableColumn id="2" name="INICIO" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="FIM" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="INFLEXAO MAX" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="PERNA" dataDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>[INICIO]-[FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="33%" dataDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="8" name="33%" dataDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 33%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="50%" dataDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="7" name="50%" dataDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 50%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="60%" dataDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="6" name="60%" dataDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND([PERNA] * 60%, 2) + [FIM]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="DIF 33%" dataDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="12" name="DIF 33%" dataDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[33%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="DIF 50%" dataDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="11" name="DIF 50%" dataDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[50%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="DIF 60%" dataDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="10" name="DIF 60%" dataDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[INFLEXAO MAX]/[60%] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="% PERNA" dataDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="13" name="% PERNA" dataDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>1 - [FIM]/[INICIO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="% INFLEXÃO" dataDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">MIN(IF(Tabela3[[#This Row],[DIF 33%]:[DIF 60%]] &gt; 0, Tabela3[[#This Row],[DIF 33%]:[DIF 60%]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PERNA 10%" dataDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="14" name="PERNA 10%" dataDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>10% * [% INFLEXÃO] / [% PERNA]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2883,27 +2887,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="6.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2914,8 +2918,9 @@
     <col min="21" max="21" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -2986,38 +2991,38 @@
         <v>66</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2">
-        <v>21.24</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="62">
+        <v>20.89</v>
+      </c>
+      <c r="C2" s="62">
         <v>17.829999999999998</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="62">
         <v>5000</v>
       </c>
-      <c r="E2" s="2">
-        <v>3.48</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3.32</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E2" s="62">
+        <v>3.19</v>
+      </c>
+      <c r="F2" s="62">
+        <v>3.01</v>
+      </c>
+      <c r="G2" s="62">
+        <v>4.13</v>
+      </c>
+      <c r="H2" s="63">
         <v>0.27379999999999999</v>
       </c>
       <c r="I2" s="4">
@@ -3030,43 +3035,43 @@
       </c>
       <c r="K2" s="6">
         <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="L2" s="6">
         <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M2" s="1">
         <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="N2" s="1">
         <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O2" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P2" s="2">
         <f>[QTDE]*[START]</f>
-        <v>1044</v>
+        <v>638</v>
       </c>
       <c r="Q2" s="12">
         <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.530775599999998</v>
+        <v>21.175984100000001</v>
       </c>
       <c r="R2" s="12">
         <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>189.00000000000011</v>
+        <v>188</v>
       </c>
       <c r="S2" s="4">
         <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>3.7800000000000021E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="T2" s="56">
         <f>[LUCRO]/[RISCO]</f>
-        <v>3.7800000000000025</v>
+        <v>3.76</v>
       </c>
       <c r="U2" s="12">
         <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
@@ -3074,138 +3079,138 @@
       </c>
       <c r="V2" s="12">
         <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>4.1050000000000004</v>
+        <v>4.1274999999999995</v>
       </c>
       <c r="W2" s="12">
         <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>21.939999999999998</v>
+        <v>21.959999999999997</v>
       </c>
       <c r="X2" s="4">
         <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>3.2956685499058391E-2</v>
+        <v>5.1220679751076803E-2</v>
       </c>
       <c r="Y2" s="12">
         <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>6.999999999999984E-2</v>
+        <v>0.12999999999999767</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2">
-        <v>21.24</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="62">
+        <v>20.89</v>
+      </c>
+      <c r="C3" s="62">
         <v>19</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="62">
         <v>5000</v>
       </c>
-      <c r="E3" s="2">
-        <v>2.37</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="E3" s="62">
+        <v>1.99</v>
+      </c>
+      <c r="F3" s="62">
+        <v>1.84</v>
+      </c>
+      <c r="G3" s="62">
+        <v>2.61</v>
+      </c>
+      <c r="H3" s="63">
         <v>0.27379999999999999</v>
       </c>
       <c r="I3" s="4">
         <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
         <v>0.01</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="2">
         <f>[PATRIMONIO]*[RISCO/TRADE]</f>
         <v>50</v>
       </c>
       <c r="K3" s="6">
         <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="L3" s="6">
         <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>200</v>
-      </c>
-      <c r="M3" s="1">
+        <v>300</v>
+      </c>
+      <c r="M3" s="6">
         <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>703</v>
-      </c>
-      <c r="N3" s="1">
+        <v>837</v>
+      </c>
+      <c r="N3" s="6">
         <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O3" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P3" s="2">
         <f>[QTDE]*[START]</f>
-        <v>474</v>
-      </c>
-      <c r="Q3" s="12">
+        <v>597</v>
+      </c>
+      <c r="Q3" s="2">
         <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.530775599999998</v>
-      </c>
-      <c r="R3" s="12">
+        <v>21.175984100000001</v>
+      </c>
+      <c r="R3" s="2">
         <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>188</v>
+        <v>185.99999999999997</v>
       </c>
       <c r="S3" s="4">
         <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>3.7600000000000001E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="T3" s="56">
         <f>[LUCRO]/[RISCO]</f>
-        <v>3.76</v>
-      </c>
-      <c r="U3" s="12">
+        <v>3.7199999999999993</v>
+      </c>
+      <c r="U3" s="2">
         <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
         <v>150</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="2">
         <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>3.3075000000000001</v>
-      </c>
-      <c r="W3" s="12">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="W3" s="2">
         <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>22.31</v>
+        <v>21.61</v>
       </c>
       <c r="X3" s="4">
         <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>5.0376647834274868E-2</v>
+        <v>3.4466251795117309E-2</v>
       </c>
       <c r="Y3" s="12">
         <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>0.13000000000000167</v>
+        <v>9.9999999999999423E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2">
-        <v>21.24</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="62">
+        <v>20.89</v>
+      </c>
+      <c r="C4" s="62">
         <v>19.829999999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="62">
         <v>5000</v>
       </c>
-      <c r="E4" s="2">
-        <v>1.66</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.43</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="E4" s="62">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="62">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="62">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H4" s="63">
         <v>0.27379999999999999</v>
       </c>
       <c r="I4" s="4">
@@ -3218,7 +3223,7 @@
       </c>
       <c r="K4" s="6">
         <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="L4" s="6">
         <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
@@ -3226,11 +3231,11 @@
       </c>
       <c r="M4" s="1">
         <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>1004</v>
+        <v>1282</v>
       </c>
       <c r="N4" s="1">
         <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O4" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
@@ -3238,11 +3243,11 @@
       </c>
       <c r="P4" s="2">
         <f>[QTDE]*[START]</f>
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="12">
         <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.530775599999998</v>
+        <v>21.175984100000001</v>
       </c>
       <c r="R4" s="12">
         <f>[QTDE]*ABS([TARGET]-[START])</f>
@@ -3262,69 +3267,69 @@
       </c>
       <c r="V4" s="12">
         <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>2.5975000000000001</v>
+        <v>2.2374999999999998</v>
       </c>
       <c r="W4" s="12">
         <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>22.43</v>
+        <v>22.07</v>
       </c>
       <c r="X4" s="4">
         <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>5.6026365348399221E-2</v>
+        <v>5.6486357108664453E-2</v>
       </c>
       <c r="Y4" s="12">
         <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>0.24999999999999978</v>
+        <v>0.23999999999999777</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="2">
-        <v>21.24</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="62">
+        <v>20.89</v>
+      </c>
+      <c r="C5" s="62">
         <v>21</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="62">
         <v>5000</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="E5" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="62">
+        <v>0.34</v>
+      </c>
+      <c r="G5" s="62">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H5" s="63">
         <v>0.27379999999999999</v>
       </c>
       <c r="I5" s="4">
         <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
         <v>0.01</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="12">
         <f>[PATRIMONIO]*[RISCO/TRADE]</f>
         <v>50</v>
       </c>
       <c r="K5" s="6">
         <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="L5" s="6">
         <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
         <v>300</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="1">
         <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>2380</v>
-      </c>
-      <c r="N5" s="6">
+        <v>3333</v>
+      </c>
+      <c r="N5" s="1">
         <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="O5" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
@@ -3332,231 +3337,43 @@
       </c>
       <c r="P5" s="2">
         <f>[QTDE]*[START]</f>
-        <v>210</v>
-      </c>
-      <c r="Q5" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="12">
         <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.530775599999998</v>
-      </c>
-      <c r="R5" s="2">
+        <v>21.175984100000001</v>
+      </c>
+      <c r="R5" s="12">
         <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>189.00000000000003</v>
+        <v>188.99999999999997</v>
       </c>
       <c r="S5" s="4">
         <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>3.7800000000000007E-2</v>
+        <v>3.7799999999999993E-2</v>
       </c>
       <c r="T5" s="56">
         <f>[LUCRO]/[RISCO]</f>
-        <v>3.7800000000000007</v>
-      </c>
-      <c r="U5" s="2">
+        <v>3.7799999999999994</v>
+      </c>
+      <c r="U5" s="12">
         <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
         <v>150</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="12">
         <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>1.325</v>
-      </c>
-      <c r="W5" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="W5" s="12">
         <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>22.33</v>
+        <v>22.13</v>
       </c>
       <c r="X5" s="4">
         <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>5.1318267419962371E-2</v>
+        <v>5.9358544758257414E-2</v>
       </c>
       <c r="Y5" s="12">
         <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>0.46000000000000152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21.24</v>
-      </c>
-      <c r="C6" s="2">
-        <v>21.83</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.27379999999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="12">
-        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
-        <v>50</v>
-      </c>
-      <c r="K6" s="6">
-        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>500</v>
-      </c>
-      <c r="L6" s="6">
-        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>500</v>
-      </c>
-      <c r="M6" s="1">
-        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>5376</v>
-      </c>
-      <c r="N6" s="1">
-        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>5300</v>
-      </c>
-      <c r="O6" s="57">
-        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>500</v>
-      </c>
-      <c r="P6" s="2">
-        <f>[QTDE]*[START]</f>
-        <v>155</v>
-      </c>
-      <c r="Q6" s="12">
-        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.530775599999998</v>
-      </c>
-      <c r="R6" s="12">
-        <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>189.99999999999997</v>
-      </c>
-      <c r="S6" s="4">
-        <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>3.7999999999999992E-2</v>
-      </c>
-      <c r="T6" s="56">
-        <f>[LUCRO]/[RISCO]</f>
-        <v>3.7999999999999994</v>
-      </c>
-      <c r="U6" s="12">
-        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
-        <v>150</v>
-      </c>
-      <c r="V6" s="12">
-        <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="W6" s="12">
-        <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>22.52</v>
-      </c>
-      <c r="X6" s="4">
-        <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>6.026365348399243E-2</v>
-      </c>
-      <c r="Y6" s="12">
-        <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="2">
-        <v>21.24</v>
-      </c>
-      <c r="C7" s="2">
-        <v>22.83</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.27379999999999999</v>
-      </c>
-      <c r="I7" s="4">
-        <f>IF([PATRIMONIO] &lt;= SETUP!$A$2, SETUP!$B$2, IF([PATRIMONIO] &lt;= SETUP!$A$3, SETUP!$B$3, IF([PATRIMONIO] &lt;= SETUP!$A$4, SETUP!$B$4, IF([PATRIMONIO] &lt;= SETUP!$A$5, SETUP!$B$5, IF([PATRIMONIO] &lt;= SETUP!$A$6, SETUP!$B$6, SETUP!$B$7)))))</f>
-        <v>0.01</v>
-      </c>
-      <c r="J7" s="12">
-        <f>[PATRIMONIO]*[RISCO/TRADE]</f>
-        <v>50</v>
-      </c>
-      <c r="K7" s="6">
-        <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>625</v>
-      </c>
-      <c r="L7" s="6">
-        <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>600</v>
-      </c>
-      <c r="M7" s="1">
-        <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>13888</v>
-      </c>
-      <c r="N7" s="1">
-        <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>13800</v>
-      </c>
-      <c r="O7" s="57">
-        <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>600</v>
-      </c>
-      <c r="P7" s="2">
-        <f>[QTDE]*[START]</f>
-        <v>72</v>
-      </c>
-      <c r="Q7" s="12">
-        <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.530775599999998</v>
-      </c>
-      <c r="R7" s="12">
-        <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>186</v>
-      </c>
-      <c r="S7" s="4">
-        <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="T7" s="56">
-        <f>[LUCRO]/[RISCO]</f>
-        <v>3.72</v>
-      </c>
-      <c r="U7" s="12">
-        <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
-        <v>150</v>
-      </c>
-      <c r="V7" s="12">
-        <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>0.4325</v>
-      </c>
-      <c r="W7" s="12">
-        <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>23.259999999999998</v>
-      </c>
-      <c r="X7" s="4">
-        <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>9.5103578154425605E-2</v>
-      </c>
-      <c r="Y7" s="12">
-        <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3691,7 +3508,7 @@
         <v>25</v>
       </c>
       <c r="AA1" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/stocks/wt.xlsx
+++ b/stocks/wt.xlsx
@@ -2893,7 +2893,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2912,14 +2912,14 @@
     <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3005,7 +3005,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="62">
-        <v>20.89</v>
+        <v>21.23</v>
       </c>
       <c r="C2" s="62">
         <v>17.829999999999998</v>
@@ -3017,7 +3017,7 @@
         <v>3.19</v>
       </c>
       <c r="F2" s="62">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="G2" s="62">
         <v>4.13</v>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="K2" s="6">
         <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="L2" s="6">
         <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="Q2" s="12">
         <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.175984100000001</v>
+        <v>21.520638699999999</v>
       </c>
       <c r="R2" s="12">
         <f>[QTDE]*ABS([TARGET]-[START])</f>
@@ -3087,11 +3087,11 @@
       </c>
       <c r="X2" s="4">
         <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>5.1220679751076803E-2</v>
+        <v>3.4385303815355428E-2</v>
       </c>
       <c r="Y2" s="12">
         <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>0.12999999999999767</v>
+        <v>-0.21000000000000218</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -3099,7 +3099,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="62">
-        <v>20.89</v>
+        <v>21.23</v>
       </c>
       <c r="C3" s="62">
         <v>19</v>
@@ -3108,13 +3108,13 @@
         <v>5000</v>
       </c>
       <c r="E3" s="62">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="F3" s="62">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="G3" s="62">
-        <v>2.61</v>
+        <v>2.39</v>
       </c>
       <c r="H3" s="63">
         <v>0.27379999999999999</v>
@@ -3137,11 +3137,11 @@
       </c>
       <c r="M3" s="6">
         <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>837</v>
+        <v>946</v>
       </c>
       <c r="N3" s="6">
         <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O3" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
@@ -3149,23 +3149,23 @@
       </c>
       <c r="P3" s="2">
         <f>[QTDE]*[START]</f>
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="Q3" s="2">
         <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.175984100000001</v>
+        <v>21.520638699999999</v>
       </c>
       <c r="R3" s="2">
         <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>185.99999999999997</v>
+        <v>189.00000000000003</v>
       </c>
       <c r="S3" s="4">
         <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>3.7199999999999997E-2</v>
+        <v>3.7800000000000007E-2</v>
       </c>
       <c r="T3" s="56">
         <f>[LUCRO]/[RISCO]</f>
-        <v>3.7199999999999993</v>
+        <v>3.7800000000000007</v>
       </c>
       <c r="U3" s="2">
         <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
@@ -3173,19 +3173,19 @@
       </c>
       <c r="V3" s="2">
         <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>2.6150000000000002</v>
+        <v>2.3849999999999998</v>
       </c>
       <c r="W3" s="2">
         <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>21.61</v>
+        <v>21.39</v>
       </c>
       <c r="X3" s="4">
         <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>3.4466251795117309E-2</v>
+        <v>7.5365049458313571E-3</v>
       </c>
       <c r="Y3" s="12">
         <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>9.9999999999999423E-2</v>
+        <v>-0.47000000000000042</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -3193,7 +3193,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="62">
-        <v>20.89</v>
+        <v>21.99</v>
       </c>
       <c r="C4" s="62">
         <v>19.829999999999998</v>
@@ -3202,13 +3202,13 @@
         <v>5000</v>
       </c>
       <c r="E4" s="62">
-        <v>1.3</v>
+        <v>2.68</v>
       </c>
       <c r="F4" s="62">
-        <v>1.1000000000000001</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G4" s="62">
-        <v>2.2400000000000002</v>
+        <v>3.31</v>
       </c>
       <c r="H4" s="63">
         <v>0.27379999999999999</v>
@@ -3223,43 +3223,43 @@
       </c>
       <c r="K4" s="6">
         <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="L4" s="6">
         <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M4" s="1">
         <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>1282</v>
+        <v>621</v>
       </c>
       <c r="N4" s="1">
         <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="O4" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P4" s="2">
         <f>[QTDE]*[START]</f>
-        <v>260</v>
+        <v>804</v>
       </c>
       <c r="Q4" s="12">
         <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.175984100000001</v>
+        <v>22.2910431</v>
       </c>
       <c r="R4" s="12">
         <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>188.00000000000003</v>
+        <v>188.99999999999997</v>
       </c>
       <c r="S4" s="4">
         <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>3.7600000000000008E-2</v>
+        <v>3.7799999999999993E-2</v>
       </c>
       <c r="T4" s="56">
         <f>[LUCRO]/[RISCO]</f>
-        <v>3.7600000000000007</v>
+        <v>3.7799999999999994</v>
       </c>
       <c r="U4" s="12">
         <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
@@ -3267,19 +3267,19 @@
       </c>
       <c r="V4" s="12">
         <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>2.2374999999999998</v>
+        <v>3.3050000000000002</v>
       </c>
       <c r="W4" s="12">
         <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>22.07</v>
+        <v>23.139999999999997</v>
       </c>
       <c r="X4" s="4">
         <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>5.6486357108664453E-2</v>
+        <v>5.2296498408367365E-2</v>
       </c>
       <c r="Y4" s="12">
         <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>0.23999999999999777</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -3287,7 +3287,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="62">
-        <v>20.89</v>
+        <v>21.23</v>
       </c>
       <c r="C5" s="62">
         <v>21</v>
@@ -3296,13 +3296,13 @@
         <v>5000</v>
       </c>
       <c r="E5" s="62">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="F5" s="62">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="G5" s="62">
-        <v>1.1299999999999999</v>
+        <v>2.56</v>
       </c>
       <c r="H5" s="63">
         <v>0.27379999999999999</v>
@@ -3317,43 +3317,43 @@
       </c>
       <c r="K5" s="6">
         <f>ROUNDDOWN([RISCO]/ABS([START]-[STOP]),0)</f>
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="L5" s="6">
         <f>[QTDE TMP 1]-MOD([QTDE TMP 1],100)</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M5" s="1">
         <f>ROUNDDOWN([PATRIMONIO]/3/[START],0)</f>
-        <v>3333</v>
+        <v>2450</v>
       </c>
       <c r="N5" s="1">
         <f>[QTDE TMP 2]-MOD([QTDE TMP 2],100)</f>
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="O5" s="57">
         <f>SMALL(Tabela4[[#This Row],[QTDE 1]]:Tabela4[[#This Row],[QTDE 2]],1)</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P5" s="2">
         <f>[QTDE]*[START]</f>
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="12">
         <f>IF([TARGET] &gt; [START], (1+([VOLAT.]/10*1.5/3)) * [COTAÇÃO], (1-([VOLAT.]/10*1.5/3)) * [COTAÇÃO])</f>
-        <v>21.175984100000001</v>
+        <v>21.520638699999999</v>
       </c>
       <c r="R5" s="12">
         <f>[QTDE]*ABS([TARGET]-[START])</f>
-        <v>188.99999999999997</v>
+        <v>188</v>
       </c>
       <c r="S5" s="4">
         <f>[LUCRO]/[PATRIMONIO]</f>
-        <v>3.7799999999999993E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="T5" s="56">
         <f>[LUCRO]/[RISCO]</f>
-        <v>3.7799999999999994</v>
+        <v>3.76</v>
       </c>
       <c r="U5" s="12">
         <f>IF(([PATRIMONIO]*3%) &gt; SETUP!$D$2, SETUP!$D$2, [PATRIMONIO]*3%)</f>
@@ -3361,19 +3361,19 @@
       </c>
       <c r="V5" s="12">
         <f>([SALÁRIO]/ (80% * [QTDE]))+[START]</f>
-        <v>1.125</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="W5" s="12">
         <f>[EXERCÍCIO]+[TARGET]</f>
-        <v>22.13</v>
+        <v>23.56</v>
       </c>
       <c r="X5" s="4">
         <f>IF([EXERCÍCIO] &gt; 0, [COT. SALAR.],[TARGET])/[COTAÇÃO]-1</f>
-        <v>5.9358544758257414E-2</v>
+        <v>0.10975035327366922</v>
       </c>
       <c r="Y5" s="12">
         <f>IF([EXERCÍCIO]&gt;0,IF([COTAÇÃO]&gt;[EXERCÍCIO],[START] - ([COTAÇÃO]-[EXERCÍCIO]),[START]))</f>
-        <v>0.5</v>
+        <v>0.44999999999999962</v>
       </c>
     </row>
   </sheetData>
